--- a/data/trans_orig/P35-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P35-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{792C00D0-EA97-481B-AE99-15B559165012}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{39BD351F-1E8F-4534-81AC-F59855974E76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{B15ABC53-33AC-428E-909D-C866FC0509DD}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{45814A43-6A78-46DC-984D-383F7A26BA3D}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="429">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="439">
   <si>
     <t>Población según si su médico le ha aconsejado que realice algún tipo de ejercicio físico en 2007 (Tasa respuesta: 95,19%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>15,63%</t>
   </si>
   <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>24,08%</t>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>23,04%</t>
   </si>
   <si>
     <t>23,92%</t>
   </si>
   <si>
-    <t>17,04%</t>
-  </si>
-  <si>
-    <t>31,16%</t>
+    <t>17,09%</t>
+  </si>
+  <si>
+    <t>32,7%</t>
   </si>
   <si>
     <t>19,74%</t>
   </si>
   <si>
-    <t>15,34%</t>
-  </si>
-  <si>
-    <t>25,34%</t>
+    <t>15,1%</t>
+  </si>
+  <si>
+    <t>25,46%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>84,37%</t>
   </si>
   <si>
-    <t>75,92%</t>
-  </si>
-  <si>
-    <t>90,68%</t>
+    <t>76,96%</t>
+  </si>
+  <si>
+    <t>91,04%</t>
   </si>
   <si>
     <t>76,08%</t>
   </si>
   <si>
-    <t>68,84%</t>
-  </si>
-  <si>
-    <t>82,96%</t>
+    <t>67,3%</t>
+  </si>
+  <si>
+    <t>82,91%</t>
   </si>
   <si>
     <t>80,26%</t>
   </si>
   <si>
-    <t>74,66%</t>
-  </si>
-  <si>
-    <t>84,66%</t>
+    <t>74,54%</t>
+  </si>
+  <si>
+    <t>84,9%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,16 +140,16 @@
     <t>18,62%</t>
   </si>
   <si>
-    <t>15,38%</t>
-  </si>
-  <si>
-    <t>21,95%</t>
+    <t>15,65%</t>
+  </si>
+  <si>
+    <t>22,08%</t>
   </si>
   <si>
     <t>22,07%</t>
   </si>
   <si>
-    <t>18,55%</t>
+    <t>18,5%</t>
   </si>
   <si>
     <t>25,6%</t>
@@ -158,19 +158,19 @@
     <t>20,34%</t>
   </si>
   <si>
-    <t>17,85%</t>
-  </si>
-  <si>
-    <t>22,61%</t>
+    <t>17,57%</t>
+  </si>
+  <si>
+    <t>22,66%</t>
   </si>
   <si>
     <t>81,38%</t>
   </si>
   <si>
-    <t>78,05%</t>
-  </si>
-  <si>
-    <t>84,62%</t>
+    <t>77,92%</t>
+  </si>
+  <si>
+    <t>84,35%</t>
   </si>
   <si>
     <t>77,93%</t>
@@ -179,16 +179,16 @@
     <t>74,4%</t>
   </si>
   <si>
-    <t>81,45%</t>
+    <t>81,5%</t>
   </si>
   <si>
     <t>79,66%</t>
   </si>
   <si>
-    <t>77,39%</t>
-  </si>
-  <si>
-    <t>82,15%</t>
+    <t>77,34%</t>
+  </si>
+  <si>
+    <t>82,43%</t>
   </si>
   <si>
     <t>10/50</t>
@@ -197,55 +197,55 @@
     <t>15,78%</t>
   </si>
   <si>
-    <t>13,56%</t>
-  </si>
-  <si>
-    <t>18,45%</t>
+    <t>13,69%</t>
+  </si>
+  <si>
+    <t>18,26%</t>
   </si>
   <si>
     <t>23,32%</t>
   </si>
   <si>
-    <t>20,58%</t>
-  </si>
-  <si>
-    <t>26,4%</t>
+    <t>20,55%</t>
+  </si>
+  <si>
+    <t>26,33%</t>
   </si>
   <si>
     <t>19,54%</t>
   </si>
   <si>
-    <t>17,64%</t>
-  </si>
-  <si>
-    <t>21,49%</t>
+    <t>17,6%</t>
+  </si>
+  <si>
+    <t>21,31%</t>
   </si>
   <si>
     <t>84,22%</t>
   </si>
   <si>
-    <t>81,55%</t>
-  </si>
-  <si>
-    <t>86,44%</t>
+    <t>81,74%</t>
+  </si>
+  <si>
+    <t>86,31%</t>
   </si>
   <si>
     <t>76,68%</t>
   </si>
   <si>
-    <t>73,6%</t>
-  </si>
-  <si>
-    <t>79,42%</t>
+    <t>73,67%</t>
+  </si>
+  <si>
+    <t>79,45%</t>
   </si>
   <si>
     <t>80,46%</t>
   </si>
   <si>
-    <t>78,51%</t>
-  </si>
-  <si>
-    <t>82,36%</t>
+    <t>78,69%</t>
+  </si>
+  <si>
+    <t>82,4%</t>
   </si>
   <si>
     <t>mas de 50</t>
@@ -254,49 +254,55 @@
     <t>20,2%</t>
   </si>
   <si>
-    <t>17,15%</t>
+    <t>16,78%</t>
+  </si>
+  <si>
+    <t>23,65%</t>
   </si>
   <si>
     <t>25,53%</t>
   </si>
   <si>
-    <t>22,3%</t>
-  </si>
-  <si>
-    <t>28,85%</t>
+    <t>22,31%</t>
+  </si>
+  <si>
+    <t>29,1%</t>
   </si>
   <si>
     <t>22,87%</t>
   </si>
   <si>
-    <t>20,57%</t>
-  </si>
-  <si>
-    <t>25,18%</t>
+    <t>20,73%</t>
+  </si>
+  <si>
+    <t>25,35%</t>
   </si>
   <si>
     <t>79,8%</t>
   </si>
   <si>
-    <t>82,85%</t>
+    <t>76,35%</t>
+  </si>
+  <si>
+    <t>83,22%</t>
   </si>
   <si>
     <t>74,47%</t>
   </si>
   <si>
-    <t>71,15%</t>
-  </si>
-  <si>
-    <t>77,7%</t>
+    <t>70,9%</t>
+  </si>
+  <si>
+    <t>77,69%</t>
   </si>
   <si>
     <t>77,13%</t>
   </si>
   <si>
-    <t>74,82%</t>
-  </si>
-  <si>
-    <t>79,43%</t>
+    <t>74,65%</t>
+  </si>
+  <si>
+    <t>79,27%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -305,109 +311,97 @@
     <t>16,93%</t>
   </si>
   <si>
-    <t>14,77%</t>
-  </si>
-  <si>
-    <t>19,25%</t>
+    <t>14,53%</t>
+  </si>
+  <si>
+    <t>19,42%</t>
   </si>
   <si>
     <t>16,85%</t>
   </si>
   <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>19,43%</t>
+    <t>14,68%</t>
+  </si>
+  <si>
+    <t>19,53%</t>
   </si>
   <si>
     <t>16,89%</t>
   </si>
   <si>
-    <t>15,2%</t>
-  </si>
-  <si>
-    <t>18,53%</t>
+    <t>15,06%</t>
+  </si>
+  <si>
+    <t>18,54%</t>
   </si>
   <si>
     <t>83,07%</t>
   </si>
   <si>
-    <t>80,75%</t>
-  </si>
-  <si>
-    <t>85,23%</t>
+    <t>80,58%</t>
+  </si>
+  <si>
+    <t>85,47%</t>
   </si>
   <si>
     <t>83,15%</t>
   </si>
   <si>
-    <t>80,57%</t>
-  </si>
-  <si>
-    <t>85,37%</t>
+    <t>80,47%</t>
+  </si>
+  <si>
+    <t>85,32%</t>
   </si>
   <si>
     <t>83,11%</t>
   </si>
   <si>
-    <t>81,47%</t>
-  </si>
-  <si>
-    <t>84,8%</t>
+    <t>81,46%</t>
+  </si>
+  <si>
+    <t>84,94%</t>
   </si>
   <si>
     <t>17,5%</t>
   </si>
   <si>
-    <t>16,28%</t>
-  </si>
-  <si>
-    <t>18,79%</t>
+    <t>16,26%</t>
+  </si>
+  <si>
+    <t>18,98%</t>
   </si>
   <si>
     <t>21,56%</t>
   </si>
   <si>
-    <t>20,18%</t>
-  </si>
-  <si>
-    <t>23,21%</t>
+    <t>20,27%</t>
   </si>
   <si>
     <t>19,56%</t>
   </si>
   <si>
-    <t>18,61%</t>
-  </si>
-  <si>
-    <t>20,5%</t>
+    <t>20,52%</t>
   </si>
   <si>
     <t>82,5%</t>
   </si>
   <si>
-    <t>81,21%</t>
-  </si>
-  <si>
-    <t>83,72%</t>
+    <t>81,02%</t>
+  </si>
+  <si>
+    <t>83,74%</t>
   </si>
   <si>
     <t>78,44%</t>
   </si>
   <si>
-    <t>76,79%</t>
-  </si>
-  <si>
-    <t>79,82%</t>
+    <t>79,73%</t>
   </si>
   <si>
     <t>80,44%</t>
   </si>
   <si>
-    <t>79,5%</t>
-  </si>
-  <si>
-    <t>81,39%</t>
+    <t>79,48%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -419,913 +413,949 @@
     <t>21,28%</t>
   </si>
   <si>
-    <t>15,01%</t>
-  </si>
-  <si>
-    <t>29,34%</t>
+    <t>14,81%</t>
+  </si>
+  <si>
+    <t>29,18%</t>
   </si>
   <si>
     <t>31,56%</t>
   </si>
   <si>
-    <t>22,8%</t>
-  </si>
-  <si>
-    <t>41,47%</t>
+    <t>22,51%</t>
+  </si>
+  <si>
+    <t>41,05%</t>
   </si>
   <si>
     <t>26,23%</t>
   </si>
   <si>
-    <t>20,26%</t>
+    <t>20,74%</t>
+  </si>
+  <si>
+    <t>32,0%</t>
+  </si>
+  <si>
+    <t>78,72%</t>
+  </si>
+  <si>
+    <t>70,82%</t>
+  </si>
+  <si>
+    <t>85,19%</t>
+  </si>
+  <si>
+    <t>68,44%</t>
+  </si>
+  <si>
+    <t>58,95%</t>
+  </si>
+  <si>
+    <t>77,49%</t>
+  </si>
+  <si>
+    <t>73,77%</t>
+  </si>
+  <si>
+    <t>68,0%</t>
+  </si>
+  <si>
+    <t>79,26%</t>
+  </si>
+  <si>
+    <t>24,89%</t>
+  </si>
+  <si>
+    <t>21,35%</t>
+  </si>
+  <si>
+    <t>28,4%</t>
+  </si>
+  <si>
+    <t>32,05%</t>
+  </si>
+  <si>
+    <t>28,07%</t>
+  </si>
+  <si>
+    <t>36,49%</t>
+  </si>
+  <si>
+    <t>28,44%</t>
+  </si>
+  <si>
+    <t>25,71%</t>
+  </si>
+  <si>
+    <t>31,26%</t>
+  </si>
+  <si>
+    <t>75,11%</t>
+  </si>
+  <si>
+    <t>71,6%</t>
+  </si>
+  <si>
+    <t>78,65%</t>
+  </si>
+  <si>
+    <t>67,95%</t>
+  </si>
+  <si>
+    <t>63,51%</t>
+  </si>
+  <si>
+    <t>71,93%</t>
+  </si>
+  <si>
+    <t>71,56%</t>
+  </si>
+  <si>
+    <t>68,74%</t>
+  </si>
+  <si>
+    <t>74,29%</t>
+  </si>
+  <si>
+    <t>25,92%</t>
+  </si>
+  <si>
+    <t>23,11%</t>
+  </si>
+  <si>
+    <t>28,91%</t>
+  </si>
+  <si>
+    <t>34,89%</t>
+  </si>
+  <si>
+    <t>31,64%</t>
+  </si>
+  <si>
+    <t>38,31%</t>
+  </si>
+  <si>
+    <t>30,43%</t>
+  </si>
+  <si>
+    <t>28,24%</t>
+  </si>
+  <si>
+    <t>32,55%</t>
+  </si>
+  <si>
+    <t>74,08%</t>
+  </si>
+  <si>
+    <t>71,09%</t>
+  </si>
+  <si>
+    <t>76,89%</t>
+  </si>
+  <si>
+    <t>65,11%</t>
+  </si>
+  <si>
+    <t>61,69%</t>
+  </si>
+  <si>
+    <t>68,36%</t>
+  </si>
+  <si>
+    <t>69,57%</t>
+  </si>
+  <si>
+    <t>67,45%</t>
+  </si>
+  <si>
+    <t>71,76%</t>
+  </si>
+  <si>
+    <t>26,44%</t>
+  </si>
+  <si>
+    <t>23,28%</t>
+  </si>
+  <si>
+    <t>30,29%</t>
+  </si>
+  <si>
+    <t>35,17%</t>
+  </si>
+  <si>
+    <t>31,65%</t>
+  </si>
+  <si>
+    <t>38,88%</t>
+  </si>
+  <si>
+    <t>30,85%</t>
+  </si>
+  <si>
+    <t>28,27%</t>
+  </si>
+  <si>
+    <t>33,37%</t>
+  </si>
+  <si>
+    <t>73,56%</t>
+  </si>
+  <si>
+    <t>69,71%</t>
+  </si>
+  <si>
+    <t>76,72%</t>
+  </si>
+  <si>
+    <t>64,83%</t>
+  </si>
+  <si>
+    <t>61,12%</t>
+  </si>
+  <si>
+    <t>68,35%</t>
+  </si>
+  <si>
+    <t>69,15%</t>
+  </si>
+  <si>
+    <t>66,63%</t>
+  </si>
+  <si>
+    <t>71,73%</t>
+  </si>
+  <si>
+    <t>26,92%</t>
+  </si>
+  <si>
+    <t>23,78%</t>
+  </si>
+  <si>
+    <t>30,08%</t>
+  </si>
+  <si>
+    <t>34,95%</t>
+  </si>
+  <si>
+    <t>31,99%</t>
+  </si>
+  <si>
+    <t>37,81%</t>
+  </si>
+  <si>
+    <t>31,17%</t>
+  </si>
+  <si>
+    <t>29,05%</t>
+  </si>
+  <si>
+    <t>33,74%</t>
+  </si>
+  <si>
+    <t>73,08%</t>
+  </si>
+  <si>
+    <t>69,92%</t>
+  </si>
+  <si>
+    <t>76,22%</t>
+  </si>
+  <si>
+    <t>65,05%</t>
+  </si>
+  <si>
+    <t>62,19%</t>
+  </si>
+  <si>
+    <t>68,01%</t>
+  </si>
+  <si>
+    <t>68,83%</t>
+  </si>
+  <si>
+    <t>66,26%</t>
+  </si>
+  <si>
+    <t>70,95%</t>
+  </si>
+  <si>
+    <t>25,97%</t>
+  </si>
+  <si>
+    <t>24,36%</t>
+  </si>
+  <si>
+    <t>27,58%</t>
+  </si>
+  <si>
+    <t>34,4%</t>
+  </si>
+  <si>
+    <t>32,79%</t>
+  </si>
+  <si>
+    <t>36,14%</t>
+  </si>
+  <si>
+    <t>30,26%</t>
+  </si>
+  <si>
+    <t>29,06%</t>
+  </si>
+  <si>
+    <t>31,55%</t>
+  </si>
+  <si>
+    <t>74,03%</t>
+  </si>
+  <si>
+    <t>72,42%</t>
+  </si>
+  <si>
+    <t>75,64%</t>
+  </si>
+  <si>
+    <t>65,6%</t>
+  </si>
+  <si>
+    <t>63,86%</t>
+  </si>
+  <si>
+    <t>67,21%</t>
+  </si>
+  <si>
+    <t>69,74%</t>
+  </si>
+  <si>
+    <t>68,45%</t>
+  </si>
+  <si>
+    <t>70,94%</t>
+  </si>
+  <si>
+    <t>Población según si su médico le ha aconsejado que realice algún tipo de ejercicio físico en 2015 (Tasa respuesta: 98,54%)</t>
+  </si>
+  <si>
+    <t>20,06%</t>
+  </si>
+  <si>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>28,55%</t>
+  </si>
+  <si>
+    <t>31,05%</t>
+  </si>
+  <si>
+    <t>23,3%</t>
+  </si>
+  <si>
+    <t>40,98%</t>
+  </si>
+  <si>
+    <t>25,5%</t>
+  </si>
+  <si>
+    <t>20,41%</t>
+  </si>
+  <si>
+    <t>31,72%</t>
+  </si>
+  <si>
+    <t>79,94%</t>
+  </si>
+  <si>
+    <t>71,45%</t>
+  </si>
+  <si>
+    <t>86,54%</t>
+  </si>
+  <si>
+    <t>68,95%</t>
+  </si>
+  <si>
+    <t>59,02%</t>
+  </si>
+  <si>
+    <t>76,7%</t>
+  </si>
+  <si>
+    <t>74,5%</t>
+  </si>
+  <si>
+    <t>68,28%</t>
+  </si>
+  <si>
+    <t>79,59%</t>
+  </si>
+  <si>
+    <t>22,32%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>26,06%</t>
+  </si>
+  <si>
+    <t>30,47%</t>
+  </si>
+  <si>
+    <t>26,59%</t>
+  </si>
+  <si>
+    <t>34,21%</t>
+  </si>
+  <si>
+    <t>26,41%</t>
+  </si>
+  <si>
+    <t>23,79%</t>
+  </si>
+  <si>
+    <t>77,68%</t>
+  </si>
+  <si>
+    <t>73,94%</t>
+  </si>
+  <si>
+    <t>81,26%</t>
+  </si>
+  <si>
+    <t>69,53%</t>
+  </si>
+  <si>
+    <t>65,79%</t>
+  </si>
+  <si>
+    <t>73,41%</t>
+  </si>
+  <si>
+    <t>73,59%</t>
+  </si>
+  <si>
+    <t>76,21%</t>
+  </si>
+  <si>
+    <t>28,6%</t>
+  </si>
+  <si>
+    <t>25,98%</t>
+  </si>
+  <si>
+    <t>31,93%</t>
+  </si>
+  <si>
+    <t>37,53%</t>
+  </si>
+  <si>
+    <t>34,24%</t>
+  </si>
+  <si>
+    <t>40,42%</t>
+  </si>
+  <si>
+    <t>33,09%</t>
+  </si>
+  <si>
+    <t>30,77%</t>
+  </si>
+  <si>
+    <t>35,08%</t>
+  </si>
+  <si>
+    <t>71,4%</t>
+  </si>
+  <si>
+    <t>68,07%</t>
+  </si>
+  <si>
+    <t>74,02%</t>
+  </si>
+  <si>
+    <t>62,47%</t>
+  </si>
+  <si>
+    <t>59,58%</t>
+  </si>
+  <si>
+    <t>65,76%</t>
+  </si>
+  <si>
+    <t>66,91%</t>
+  </si>
+  <si>
+    <t>64,92%</t>
+  </si>
+  <si>
+    <t>69,23%</t>
+  </si>
+  <si>
+    <t>32,47%</t>
+  </si>
+  <si>
+    <t>29,2%</t>
+  </si>
+  <si>
+    <t>36,23%</t>
+  </si>
+  <si>
+    <t>37,45%</t>
+  </si>
+  <si>
+    <t>33,75%</t>
+  </si>
+  <si>
+    <t>41,1%</t>
+  </si>
+  <si>
+    <t>34,99%</t>
+  </si>
+  <si>
+    <t>32,54%</t>
+  </si>
+  <si>
+    <t>37,63%</t>
+  </si>
+  <si>
+    <t>67,53%</t>
+  </si>
+  <si>
+    <t>63,77%</t>
+  </si>
+  <si>
+    <t>70,8%</t>
+  </si>
+  <si>
+    <t>62,55%</t>
+  </si>
+  <si>
+    <t>58,9%</t>
+  </si>
+  <si>
+    <t>66,25%</t>
+  </si>
+  <si>
+    <t>65,01%</t>
+  </si>
+  <si>
+    <t>62,37%</t>
+  </si>
+  <si>
+    <t>67,46%</t>
+  </si>
+  <si>
+    <t>27,67%</t>
+  </si>
+  <si>
+    <t>24,84%</t>
+  </si>
+  <si>
+    <t>30,64%</t>
+  </si>
+  <si>
+    <t>32,97%</t>
+  </si>
+  <si>
+    <t>29,58%</t>
+  </si>
+  <si>
+    <t>35,75%</t>
+  </si>
+  <si>
+    <t>30,49%</t>
+  </si>
+  <si>
+    <t>28,64%</t>
+  </si>
+  <si>
+    <t>32,98%</t>
+  </si>
+  <si>
+    <t>72,33%</t>
+  </si>
+  <si>
+    <t>69,36%</t>
+  </si>
+  <si>
+    <t>75,16%</t>
+  </si>
+  <si>
+    <t>67,03%</t>
+  </si>
+  <si>
+    <t>64,25%</t>
+  </si>
+  <si>
+    <t>70,42%</t>
+  </si>
+  <si>
+    <t>69,51%</t>
+  </si>
+  <si>
+    <t>67,02%</t>
+  </si>
+  <si>
+    <t>71,36%</t>
+  </si>
+  <si>
+    <t>27,89%</t>
+  </si>
+  <si>
+    <t>29,65%</t>
+  </si>
+  <si>
+    <t>34,84%</t>
   </si>
   <si>
     <t>33,06%</t>
   </si>
   <si>
-    <t>78,72%</t>
-  </si>
-  <si>
-    <t>70,66%</t>
-  </si>
-  <si>
-    <t>84,99%</t>
-  </si>
-  <si>
-    <t>68,44%</t>
-  </si>
-  <si>
-    <t>58,53%</t>
-  </si>
-  <si>
-    <t>77,2%</t>
-  </si>
-  <si>
-    <t>73,77%</t>
+    <t>31,44%</t>
+  </si>
+  <si>
+    <t>30,28%</t>
+  </si>
+  <si>
+    <t>32,66%</t>
+  </si>
+  <si>
+    <t>72,11%</t>
+  </si>
+  <si>
+    <t>70,35%</t>
+  </si>
+  <si>
+    <t>65,16%</t>
   </si>
   <si>
     <t>66,94%</t>
   </si>
   <si>
-    <t>79,74%</t>
-  </si>
-  <si>
-    <t>24,89%</t>
-  </si>
-  <si>
-    <t>21,36%</t>
-  </si>
-  <si>
-    <t>28,8%</t>
-  </si>
-  <si>
-    <t>32,05%</t>
-  </si>
-  <si>
-    <t>28,07%</t>
-  </si>
-  <si>
-    <t>36,18%</t>
-  </si>
-  <si>
-    <t>28,44%</t>
-  </si>
-  <si>
-    <t>25,71%</t>
-  </si>
-  <si>
-    <t>31,24%</t>
-  </si>
-  <si>
-    <t>75,11%</t>
-  </si>
-  <si>
-    <t>71,2%</t>
-  </si>
-  <si>
-    <t>78,64%</t>
-  </si>
-  <si>
-    <t>67,95%</t>
-  </si>
-  <si>
-    <t>63,82%</t>
-  </si>
-  <si>
-    <t>71,93%</t>
-  </si>
-  <si>
-    <t>71,56%</t>
-  </si>
-  <si>
-    <t>68,76%</t>
-  </si>
-  <si>
-    <t>74,29%</t>
-  </si>
-  <si>
-    <t>25,92%</t>
-  </si>
-  <si>
-    <t>23,31%</t>
-  </si>
-  <si>
-    <t>29,0%</t>
-  </si>
-  <si>
-    <t>34,89%</t>
-  </si>
-  <si>
-    <t>31,83%</t>
-  </si>
-  <si>
-    <t>38,01%</t>
-  </si>
-  <si>
-    <t>30,43%</t>
-  </si>
-  <si>
-    <t>28,29%</t>
-  </si>
-  <si>
-    <t>32,44%</t>
-  </si>
-  <si>
-    <t>74,08%</t>
-  </si>
-  <si>
-    <t>71,0%</t>
-  </si>
-  <si>
-    <t>76,69%</t>
-  </si>
-  <si>
-    <t>65,11%</t>
-  </si>
-  <si>
-    <t>61,99%</t>
-  </si>
-  <si>
-    <t>68,17%</t>
-  </si>
-  <si>
-    <t>69,57%</t>
-  </si>
-  <si>
-    <t>67,56%</t>
-  </si>
-  <si>
-    <t>71,71%</t>
-  </si>
-  <si>
-    <t>26,44%</t>
-  </si>
-  <si>
-    <t>22,68%</t>
-  </si>
-  <si>
-    <t>30,08%</t>
-  </si>
-  <si>
-    <t>35,17%</t>
-  </si>
-  <si>
-    <t>31,7%</t>
-  </si>
-  <si>
-    <t>39,03%</t>
-  </si>
-  <si>
-    <t>30,85%</t>
-  </si>
-  <si>
-    <t>28,45%</t>
+    <t>68,56%</t>
+  </si>
+  <si>
+    <t>67,34%</t>
+  </si>
+  <si>
+    <t>69,72%</t>
+  </si>
+  <si>
+    <t>Población según si su médico le ha aconsejado que realice algún tipo de ejercicio físico en 2023 (Tasa respuesta: 99,87%)</t>
+  </si>
+  <si>
+    <t>28,04%</t>
+  </si>
+  <si>
+    <t>19,69%</t>
+  </si>
+  <si>
+    <t>37,37%</t>
+  </si>
+  <si>
+    <t>30,92%</t>
+  </si>
+  <si>
+    <t>25,15%</t>
+  </si>
+  <si>
+    <t>37,96%</t>
+  </si>
+  <si>
+    <t>29,66%</t>
+  </si>
+  <si>
+    <t>24,22%</t>
+  </si>
+  <si>
+    <t>35,3%</t>
+  </si>
+  <si>
+    <t>71,96%</t>
+  </si>
+  <si>
+    <t>62,63%</t>
+  </si>
+  <si>
+    <t>80,31%</t>
+  </si>
+  <si>
+    <t>69,08%</t>
+  </si>
+  <si>
+    <t>62,04%</t>
+  </si>
+  <si>
+    <t>74,85%</t>
+  </si>
+  <si>
+    <t>70,34%</t>
+  </si>
+  <si>
+    <t>64,7%</t>
+  </si>
+  <si>
+    <t>75,78%</t>
+  </si>
+  <si>
+    <t>31,07%</t>
+  </si>
+  <si>
+    <t>39,14%</t>
+  </si>
+  <si>
+    <t>36,19%</t>
+  </si>
+  <si>
+    <t>33,23%</t>
+  </si>
+  <si>
+    <t>39,56%</t>
+  </si>
+  <si>
+    <t>35,59%</t>
+  </si>
+  <si>
+    <t>33,07%</t>
+  </si>
+  <si>
+    <t>38,37%</t>
+  </si>
+  <si>
+    <t>60,86%</t>
+  </si>
+  <si>
+    <t>68,93%</t>
+  </si>
+  <si>
+    <t>63,81%</t>
+  </si>
+  <si>
+    <t>60,44%</t>
+  </si>
+  <si>
+    <t>66,77%</t>
+  </si>
+  <si>
+    <t>64,41%</t>
+  </si>
+  <si>
+    <t>61,63%</t>
+  </si>
+  <si>
+    <t>66,93%</t>
+  </si>
+  <si>
+    <t>34,13%</t>
+  </si>
+  <si>
+    <t>38,11%</t>
+  </si>
+  <si>
+    <t>41,96%</t>
+  </si>
+  <si>
+    <t>39,02%</t>
+  </si>
+  <si>
+    <t>44,72%</t>
+  </si>
+  <si>
+    <t>38,08%</t>
+  </si>
+  <si>
+    <t>34,45%</t>
+  </si>
+  <si>
+    <t>40,27%</t>
+  </si>
+  <si>
+    <t>65,87%</t>
+  </si>
+  <si>
+    <t>61,89%</t>
+  </si>
+  <si>
+    <t>58,04%</t>
+  </si>
+  <si>
+    <t>55,28%</t>
+  </si>
+  <si>
+    <t>60,98%</t>
+  </si>
+  <si>
+    <t>61,92%</t>
+  </si>
+  <si>
+    <t>59,73%</t>
+  </si>
+  <si>
+    <t>65,55%</t>
+  </si>
+  <si>
+    <t>34,79%</t>
+  </si>
+  <si>
+    <t>30,76%</t>
+  </si>
+  <si>
+    <t>39,18%</t>
+  </si>
+  <si>
+    <t>32,24%</t>
+  </si>
+  <si>
+    <t>21,45%</t>
+  </si>
+  <si>
+    <t>37,95%</t>
   </si>
   <si>
     <t>33,4%</t>
   </si>
   <si>
-    <t>73,56%</t>
-  </si>
-  <si>
-    <t>69,92%</t>
-  </si>
-  <si>
-    <t>77,32%</t>
-  </si>
-  <si>
-    <t>64,83%</t>
-  </si>
-  <si>
-    <t>60,97%</t>
-  </si>
-  <si>
-    <t>68,3%</t>
-  </si>
-  <si>
-    <t>69,15%</t>
+    <t>25,87%</t>
+  </si>
+  <si>
+    <t>36,87%</t>
+  </si>
+  <si>
+    <t>65,21%</t>
+  </si>
+  <si>
+    <t>60,82%</t>
+  </si>
+  <si>
+    <t>69,24%</t>
+  </si>
+  <si>
+    <t>67,76%</t>
+  </si>
+  <si>
+    <t>62,05%</t>
+  </si>
+  <si>
+    <t>78,55%</t>
   </si>
   <si>
     <t>66,6%</t>
   </si>
   <si>
-    <t>71,55%</t>
-  </si>
-  <si>
-    <t>26,92%</t>
-  </si>
-  <si>
-    <t>23,83%</t>
-  </si>
-  <si>
-    <t>30,35%</t>
-  </si>
-  <si>
-    <t>34,95%</t>
-  </si>
-  <si>
-    <t>31,87%</t>
-  </si>
-  <si>
-    <t>37,83%</t>
-  </si>
-  <si>
-    <t>31,17%</t>
-  </si>
-  <si>
-    <t>33,64%</t>
-  </si>
-  <si>
-    <t>73,08%</t>
-  </si>
-  <si>
-    <t>69,65%</t>
-  </si>
-  <si>
-    <t>76,17%</t>
-  </si>
-  <si>
-    <t>65,05%</t>
-  </si>
-  <si>
-    <t>62,17%</t>
-  </si>
-  <si>
-    <t>68,13%</t>
-  </si>
-  <si>
-    <t>68,83%</t>
-  </si>
-  <si>
-    <t>66,36%</t>
-  </si>
-  <si>
-    <t>25,97%</t>
-  </si>
-  <si>
-    <t>24,29%</t>
-  </si>
-  <si>
-    <t>27,43%</t>
-  </si>
-  <si>
-    <t>34,4%</t>
-  </si>
-  <si>
-    <t>32,8%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>30,26%</t>
-  </si>
-  <si>
-    <t>29,17%</t>
-  </si>
-  <si>
-    <t>31,43%</t>
-  </si>
-  <si>
-    <t>74,03%</t>
-  </si>
-  <si>
-    <t>72,57%</t>
-  </si>
-  <si>
-    <t>75,71%</t>
-  </si>
-  <si>
-    <t>65,6%</t>
-  </si>
-  <si>
-    <t>63,75%</t>
-  </si>
-  <si>
-    <t>67,2%</t>
-  </si>
-  <si>
-    <t>69,74%</t>
-  </si>
-  <si>
-    <t>68,57%</t>
-  </si>
-  <si>
-    <t>70,83%</t>
-  </si>
-  <si>
-    <t>Población según si su médico le ha aconsejado que realice algún tipo de ejercicio físico en 2015 (Tasa respuesta: 98,54%)</t>
-  </si>
-  <si>
-    <t>20,06%</t>
-  </si>
-  <si>
-    <t>13,96%</t>
-  </si>
-  <si>
-    <t>29,08%</t>
-  </si>
-  <si>
-    <t>31,05%</t>
-  </si>
-  <si>
-    <t>22,39%</t>
-  </si>
-  <si>
-    <t>41,04%</t>
-  </si>
-  <si>
-    <t>25,5%</t>
-  </si>
-  <si>
-    <t>20,16%</t>
-  </si>
-  <si>
-    <t>31,5%</t>
-  </si>
-  <si>
-    <t>79,94%</t>
-  </si>
-  <si>
-    <t>70,92%</t>
-  </si>
-  <si>
-    <t>86,04%</t>
-  </si>
-  <si>
-    <t>68,95%</t>
-  </si>
-  <si>
-    <t>58,96%</t>
-  </si>
-  <si>
-    <t>77,61%</t>
-  </si>
-  <si>
-    <t>74,5%</t>
-  </si>
-  <si>
-    <t>68,5%</t>
-  </si>
-  <si>
-    <t>79,84%</t>
-  </si>
-  <si>
-    <t>22,32%</t>
-  </si>
-  <si>
-    <t>19,05%</t>
-  </si>
-  <si>
-    <t>26,5%</t>
-  </si>
-  <si>
-    <t>30,47%</t>
-  </si>
-  <si>
-    <t>26,43%</t>
+    <t>63,13%</t>
+  </si>
+  <si>
+    <t>74,13%</t>
+  </si>
+  <si>
+    <t>36,91%</t>
+  </si>
+  <si>
+    <t>33,94%</t>
+  </si>
+  <si>
+    <t>40,21%</t>
+  </si>
+  <si>
+    <t>38,41%</t>
+  </si>
+  <si>
+    <t>35,51%</t>
+  </si>
+  <si>
+    <t>41,49%</t>
+  </si>
+  <si>
+    <t>37,72%</t>
+  </si>
+  <si>
+    <t>35,69%</t>
+  </si>
+  <si>
+    <t>39,88%</t>
+  </si>
+  <si>
+    <t>63,09%</t>
+  </si>
+  <si>
+    <t>59,79%</t>
+  </si>
+  <si>
+    <t>66,06%</t>
+  </si>
+  <si>
+    <t>61,59%</t>
+  </si>
+  <si>
+    <t>58,51%</t>
+  </si>
+  <si>
+    <t>64,49%</t>
+  </si>
+  <si>
+    <t>62,28%</t>
+  </si>
+  <si>
+    <t>60,12%</t>
+  </si>
+  <si>
+    <t>64,31%</t>
+  </si>
+  <si>
+    <t>35,01%</t>
+  </si>
+  <si>
+    <t>32,91%</t>
+  </si>
+  <si>
+    <t>37,01%</t>
+  </si>
+  <si>
+    <t>37,38%</t>
+  </si>
+  <si>
+    <t>32,75%</t>
+  </si>
+  <si>
+    <t>39,06%</t>
+  </si>
+  <si>
+    <t>36,26%</t>
   </si>
   <si>
     <t>34,3%</t>
   </si>
   <si>
-    <t>26,41%</t>
-  </si>
-  <si>
-    <t>24,04%</t>
-  </si>
-  <si>
-    <t>77,68%</t>
-  </si>
-  <si>
-    <t>73,5%</t>
-  </si>
-  <si>
-    <t>80,95%</t>
-  </si>
-  <si>
-    <t>69,53%</t>
+    <t>37,67%</t>
+  </si>
+  <si>
+    <t>64,99%</t>
+  </si>
+  <si>
+    <t>62,99%</t>
+  </si>
+  <si>
+    <t>67,09%</t>
+  </si>
+  <si>
+    <t>62,62%</t>
+  </si>
+  <si>
+    <t>60,94%</t>
+  </si>
+  <si>
+    <t>67,25%</t>
+  </si>
+  <si>
+    <t>63,74%</t>
+  </si>
+  <si>
+    <t>62,33%</t>
   </si>
   <si>
     <t>65,7%</t>
-  </si>
-  <si>
-    <t>73,57%</t>
-  </si>
-  <si>
-    <t>73,59%</t>
-  </si>
-  <si>
-    <t>75,96%</t>
-  </si>
-  <si>
-    <t>28,6%</t>
-  </si>
-  <si>
-    <t>25,42%</t>
-  </si>
-  <si>
-    <t>31,07%</t>
-  </si>
-  <si>
-    <t>37,53%</t>
-  </si>
-  <si>
-    <t>34,25%</t>
-  </si>
-  <si>
-    <t>40,52%</t>
-  </si>
-  <si>
-    <t>33,09%</t>
-  </si>
-  <si>
-    <t>31,0%</t>
-  </si>
-  <si>
-    <t>35,26%</t>
-  </si>
-  <si>
-    <t>71,4%</t>
-  </si>
-  <si>
-    <t>68,93%</t>
-  </si>
-  <si>
-    <t>74,58%</t>
-  </si>
-  <si>
-    <t>62,47%</t>
-  </si>
-  <si>
-    <t>59,48%</t>
-  </si>
-  <si>
-    <t>65,75%</t>
-  </si>
-  <si>
-    <t>66,91%</t>
-  </si>
-  <si>
-    <t>64,74%</t>
-  </si>
-  <si>
-    <t>69,0%</t>
-  </si>
-  <si>
-    <t>32,47%</t>
-  </si>
-  <si>
-    <t>28,93%</t>
-  </si>
-  <si>
-    <t>36,15%</t>
-  </si>
-  <si>
-    <t>37,45%</t>
-  </si>
-  <si>
-    <t>33,8%</t>
-  </si>
-  <si>
-    <t>40,95%</t>
-  </si>
-  <si>
-    <t>34,99%</t>
-  </si>
-  <si>
-    <t>32,61%</t>
-  </si>
-  <si>
-    <t>37,63%</t>
-  </si>
-  <si>
-    <t>67,53%</t>
-  </si>
-  <si>
-    <t>63,85%</t>
-  </si>
-  <si>
-    <t>71,07%</t>
-  </si>
-  <si>
-    <t>62,55%</t>
-  </si>
-  <si>
-    <t>59,05%</t>
-  </si>
-  <si>
-    <t>66,2%</t>
-  </si>
-  <si>
-    <t>65,01%</t>
-  </si>
-  <si>
-    <t>62,37%</t>
-  </si>
-  <si>
-    <t>67,39%</t>
-  </si>
-  <si>
-    <t>27,67%</t>
-  </si>
-  <si>
-    <t>24,7%</t>
-  </si>
-  <si>
-    <t>30,52%</t>
-  </si>
-  <si>
-    <t>32,97%</t>
-  </si>
-  <si>
-    <t>29,86%</t>
-  </si>
-  <si>
-    <t>35,89%</t>
-  </si>
-  <si>
-    <t>30,49%</t>
-  </si>
-  <si>
-    <t>28,18%</t>
-  </si>
-  <si>
-    <t>32,64%</t>
-  </si>
-  <si>
-    <t>72,33%</t>
-  </si>
-  <si>
-    <t>69,48%</t>
-  </si>
-  <si>
-    <t>75,3%</t>
-  </si>
-  <si>
-    <t>67,03%</t>
-  </si>
-  <si>
-    <t>64,11%</t>
-  </si>
-  <si>
-    <t>70,14%</t>
-  </si>
-  <si>
-    <t>69,51%</t>
-  </si>
-  <si>
-    <t>67,36%</t>
-  </si>
-  <si>
-    <t>71,82%</t>
-  </si>
-  <si>
-    <t>27,89%</t>
-  </si>
-  <si>
-    <t>26,35%</t>
-  </si>
-  <si>
-    <t>29,55%</t>
-  </si>
-  <si>
-    <t>34,84%</t>
-  </si>
-  <si>
-    <t>33,29%</t>
-  </si>
-  <si>
-    <t>36,43%</t>
-  </si>
-  <si>
-    <t>31,44%</t>
-  </si>
-  <si>
-    <t>30,37%</t>
-  </si>
-  <si>
-    <t>32,66%</t>
-  </si>
-  <si>
-    <t>72,11%</t>
-  </si>
-  <si>
-    <t>70,45%</t>
-  </si>
-  <si>
-    <t>73,65%</t>
-  </si>
-  <si>
-    <t>65,16%</t>
-  </si>
-  <si>
-    <t>63,57%</t>
-  </si>
-  <si>
-    <t>66,71%</t>
-  </si>
-  <si>
-    <t>68,56%</t>
-  </si>
-  <si>
-    <t>67,34%</t>
-  </si>
-  <si>
-    <t>69,63%</t>
-  </si>
-  <si>
-    <t>Población según si su médico le ha aconsejado que realice algún tipo de ejercicio físico en 2023 (Tasa respuesta: 99,87%)</t>
-  </si>
-  <si>
-    <t>28,04%</t>
-  </si>
-  <si>
-    <t>30,92%</t>
-  </si>
-  <si>
-    <t>38,21%</t>
-  </si>
-  <si>
-    <t>29,66%</t>
-  </si>
-  <si>
-    <t>24,31%</t>
-  </si>
-  <si>
-    <t>34,8%</t>
-  </si>
-  <si>
-    <t>71,96%</t>
-  </si>
-  <si>
-    <t>69,08%</t>
-  </si>
-  <si>
-    <t>61,79%</t>
-  </si>
-  <si>
-    <t>70,34%</t>
-  </si>
-  <si>
-    <t>65,2%</t>
-  </si>
-  <si>
-    <t>75,69%</t>
-  </si>
-  <si>
-    <t>30,93%</t>
-  </si>
-  <si>
-    <t>39,49%</t>
-  </si>
-  <si>
-    <t>36,19%</t>
-  </si>
-  <si>
-    <t>33,19%</t>
-  </si>
-  <si>
-    <t>39,71%</t>
-  </si>
-  <si>
-    <t>35,59%</t>
-  </si>
-  <si>
-    <t>38,31%</t>
-  </si>
-  <si>
-    <t>60,51%</t>
-  </si>
-  <si>
-    <t>69,07%</t>
-  </si>
-  <si>
-    <t>63,81%</t>
-  </si>
-  <si>
-    <t>60,29%</t>
-  </si>
-  <si>
-    <t>66,81%</t>
-  </si>
-  <si>
-    <t>64,41%</t>
-  </si>
-  <si>
-    <t>61,69%</t>
-  </si>
-  <si>
-    <t>34,13%</t>
-  </si>
-  <si>
-    <t>28,59%</t>
-  </si>
-  <si>
-    <t>37,91%</t>
-  </si>
-  <si>
-    <t>41,96%</t>
-  </si>
-  <si>
-    <t>39,37%</t>
-  </si>
-  <si>
-    <t>45,04%</t>
-  </si>
-  <si>
-    <t>38,08%</t>
-  </si>
-  <si>
-    <t>40,67%</t>
-  </si>
-  <si>
-    <t>65,87%</t>
-  </si>
-  <si>
-    <t>62,09%</t>
-  </si>
-  <si>
-    <t>71,41%</t>
-  </si>
-  <si>
-    <t>58,04%</t>
-  </si>
-  <si>
-    <t>54,96%</t>
-  </si>
-  <si>
-    <t>60,63%</t>
-  </si>
-  <si>
-    <t>61,92%</t>
-  </si>
-  <si>
-    <t>59,33%</t>
-  </si>
-  <si>
-    <t>34,79%</t>
-  </si>
-  <si>
-    <t>30,72%</t>
-  </si>
-  <si>
-    <t>38,98%</t>
-  </si>
-  <si>
-    <t>32,24%</t>
-  </si>
-  <si>
-    <t>21,67%</t>
-  </si>
-  <si>
-    <t>37,85%</t>
-  </si>
-  <si>
-    <t>36,92%</t>
-  </si>
-  <si>
-    <t>65,21%</t>
-  </si>
-  <si>
-    <t>61,02%</t>
-  </si>
-  <si>
-    <t>69,28%</t>
-  </si>
-  <si>
-    <t>67,76%</t>
-  </si>
-  <si>
-    <t>62,15%</t>
-  </si>
-  <si>
-    <t>78,33%</t>
-  </si>
-  <si>
-    <t>63,08%</t>
-  </si>
-  <si>
-    <t>36,91%</t>
-  </si>
-  <si>
-    <t>33,65%</t>
-  </si>
-  <si>
-    <t>40,05%</t>
-  </si>
-  <si>
-    <t>38,41%</t>
-  </si>
-  <si>
-    <t>35,66%</t>
-  </si>
-  <si>
-    <t>41,22%</t>
-  </si>
-  <si>
-    <t>37,72%</t>
-  </si>
-  <si>
-    <t>35,47%</t>
-  </si>
-  <si>
-    <t>39,88%</t>
-  </si>
-  <si>
-    <t>63,09%</t>
-  </si>
-  <si>
-    <t>59,95%</t>
-  </si>
-  <si>
-    <t>66,35%</t>
-  </si>
-  <si>
-    <t>61,59%</t>
-  </si>
-  <si>
-    <t>58,78%</t>
-  </si>
-  <si>
-    <t>64,34%</t>
-  </si>
-  <si>
-    <t>62,28%</t>
-  </si>
-  <si>
-    <t>60,12%</t>
-  </si>
-  <si>
-    <t>64,53%</t>
-  </si>
-  <si>
-    <t>35,01%</t>
-  </si>
-  <si>
-    <t>37,09%</t>
-  </si>
-  <si>
-    <t>37,38%</t>
-  </si>
-  <si>
-    <t>33,59%</t>
-  </si>
-  <si>
-    <t>39,22%</t>
-  </si>
-  <si>
-    <t>36,26%</t>
-  </si>
-  <si>
-    <t>34,08%</t>
-  </si>
-  <si>
-    <t>37,66%</t>
-  </si>
-  <si>
-    <t>64,99%</t>
-  </si>
-  <si>
-    <t>62,91%</t>
-  </si>
-  <si>
-    <t>62,62%</t>
-  </si>
-  <si>
-    <t>60,78%</t>
-  </si>
-  <si>
-    <t>66,41%</t>
-  </si>
-  <si>
-    <t>63,74%</t>
-  </si>
-  <si>
-    <t>62,34%</t>
-  </si>
-  <si>
-    <t>65,92%</t>
   </si>
 </sst>
 </file>
@@ -1737,7 +1767,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB0A7761-7FD0-49BB-B83B-105001A94DB5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE79AEC9-2E5D-4085-AD6D-AC8E6E4563A9}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2183,7 +2213,7 @@
         <v>199</v>
       </c>
       <c r="I10" s="7">
-        <v>215490</v>
+        <v>215491</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -2285,7 +2315,7 @@
         <v>867</v>
       </c>
       <c r="I12" s="7">
-        <v>924189</v>
+        <v>924190</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -2332,7 +2362,7 @@
         <v>71</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>14</v>
+        <v>72</v>
       </c>
       <c r="H13" s="7">
         <v>167</v>
@@ -2341,13 +2371,13 @@
         <v>161985</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>290</v>
@@ -2356,13 +2386,13 @@
         <v>289780</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2377,13 +2407,13 @@
         <v>504815</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>24</v>
+        <v>80</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>479</v>
@@ -2392,13 +2422,13 @@
         <v>472491</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>952</v>
@@ -2407,13 +2437,13 @@
         <v>977305</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2469,7 +2499,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2481,13 +2511,13 @@
         <v>153490</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>161</v>
@@ -2496,13 +2526,13 @@
         <v>167652</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>329</v>
@@ -2511,13 +2541,13 @@
         <v>321141</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2532,13 +2562,13 @@
         <v>753068</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>793</v>
@@ -2547,13 +2577,13 @@
         <v>827267</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>1581</v>
@@ -2562,13 +2592,13 @@
         <v>1580335</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2636,13 +2666,13 @@
         <v>547321</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="H19" s="7">
         <v>676</v>
@@ -2651,13 +2681,13 @@
         <v>691606</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>110</v>
+        <v>13</v>
       </c>
       <c r="M19" s="7">
         <v>1231</v>
@@ -2666,10 +2696,10 @@
         <v>1238927</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>112</v>
+        <v>32</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>113</v>
@@ -2684,7 +2714,7 @@
         <v>2513</v>
       </c>
       <c r="D20" s="7">
-        <v>2579902</v>
+        <v>2579901</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>114</v>
@@ -2705,10 +2735,10 @@
         <v>117</v>
       </c>
       <c r="K20" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="M20" s="7">
         <v>4967</v>
@@ -2717,13 +2747,13 @@
         <v>5096329</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="P20" s="7" t="s">
-        <v>121</v>
-      </c>
       <c r="Q20" s="7" t="s">
-        <v>122</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2735,7 +2765,7 @@
         <v>3068</v>
       </c>
       <c r="D21" s="7">
-        <v>3127223</v>
+        <v>3127222</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -2779,7 +2809,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -2800,7 +2830,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFBF264A-E6CC-4547-9DE3-45A334C4AC40}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BCA6C00-6821-4524-8784-0BE64614FB8F}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2817,7 +2847,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2924,13 +2954,13 @@
         <v>24637</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="H4" s="7">
         <v>31</v>
@@ -2939,13 +2969,13 @@
         <v>33909</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="M4" s="7">
         <v>58</v>
@@ -2954,13 +2984,13 @@
         <v>58545</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2975,13 +3005,13 @@
         <v>91128</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="H5" s="7">
         <v>64</v>
@@ -2990,13 +3020,13 @@
         <v>73524</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="M5" s="7">
         <v>159</v>
@@ -3005,13 +3035,13 @@
         <v>164653</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3079,13 +3109,13 @@
         <v>143732</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="H7" s="7">
         <v>170</v>
@@ -3094,13 +3124,13 @@
         <v>181982</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="M7" s="7">
         <v>305</v>
@@ -3109,13 +3139,13 @@
         <v>325714</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3130,13 +3160,13 @@
         <v>433640</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="H8" s="7">
         <v>364</v>
@@ -3145,13 +3175,13 @@
         <v>385881</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="M8" s="7">
         <v>771</v>
@@ -3160,13 +3190,13 @@
         <v>819521</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3234,13 +3264,13 @@
         <v>258312</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>163</v>
       </c>
       <c r="H10" s="7">
         <v>316</v>
@@ -3249,13 +3279,13 @@
         <v>351483</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>166</v>
       </c>
       <c r="M10" s="7">
         <v>548</v>
@@ -3264,13 +3294,13 @@
         <v>609794</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3285,13 +3315,13 @@
         <v>738112</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>172</v>
       </c>
       <c r="H11" s="7">
         <v>602</v>
@@ -3300,13 +3330,13 @@
         <v>656053</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="M11" s="7">
         <v>1285</v>
@@ -3315,13 +3345,13 @@
         <v>1394166</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3386,16 +3416,16 @@
         <v>173</v>
       </c>
       <c r="D13" s="7">
-        <v>196269</v>
+        <v>196270</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>181</v>
       </c>
       <c r="H13" s="7">
         <v>244</v>
@@ -3404,13 +3434,13 @@
         <v>267450</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>184</v>
       </c>
       <c r="M13" s="7">
         <v>417</v>
@@ -3419,13 +3449,13 @@
         <v>463720</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3440,13 +3470,13 @@
         <v>546133</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>190</v>
       </c>
       <c r="H14" s="7">
         <v>446</v>
@@ -3455,13 +3485,13 @@
         <v>493080</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>193</v>
       </c>
       <c r="M14" s="7">
         <v>948</v>
@@ -3470,13 +3500,13 @@
         <v>1039213</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3488,7 +3518,7 @@
         <v>675</v>
       </c>
       <c r="D15" s="7">
-        <v>742402</v>
+        <v>742403</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -3532,7 +3562,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3544,13 +3574,13 @@
         <v>241084</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>199</v>
       </c>
       <c r="H16" s="7">
         <v>330</v>
@@ -3559,13 +3589,13 @@
         <v>352565</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>202</v>
       </c>
       <c r="M16" s="7">
         <v>552</v>
@@ -3574,13 +3604,13 @@
         <v>593649</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3595,13 +3625,13 @@
         <v>654486</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>207</v>
       </c>
       <c r="H17" s="7">
         <v>631</v>
@@ -3610,13 +3640,13 @@
         <v>656188</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>210</v>
       </c>
       <c r="M17" s="7">
         <v>1273</v>
@@ -3625,13 +3655,13 @@
         <v>1310673</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3842,7 +3872,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -3863,7 +3893,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{247F517B-B6FC-4E30-B555-78C5128973CF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38186FC8-0904-4E5B-B305-CF6CB30D2421}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4178,7 +4208,7 @@
         <v>257</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4226,7 +4256,7 @@
         <v>264</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>265</v>
@@ -4595,7 +4625,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4765,10 +4795,10 @@
         <v>320</v>
       </c>
       <c r="F19" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>321</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>322</v>
       </c>
       <c r="H19" s="7">
         <v>1123</v>
@@ -4777,13 +4807,13 @@
         <v>1217911</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>323</v>
       </c>
-      <c r="K19" s="7" t="s">
-        <v>324</v>
-      </c>
       <c r="L19" s="7" t="s">
-        <v>325</v>
+        <v>146</v>
       </c>
       <c r="M19" s="7">
         <v>2010</v>
@@ -4792,13 +4822,13 @@
         <v>2149368</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>326</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4813,13 +4843,13 @@
         <v>2408064</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>331</v>
+        <v>186</v>
       </c>
       <c r="H20" s="7">
         <v>2171</v>
@@ -4828,13 +4858,13 @@
         <v>2278038</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>333</v>
+        <v>154</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="M20" s="7">
         <v>4463</v>
@@ -4843,13 +4873,13 @@
         <v>4686101</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4905,7 +4935,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -4926,7 +4956,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C4C8C31-F81F-4E29-B377-3803BD1D444A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{466F1EDC-DC00-4D7E-9FC6-32CAC1AA3715}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4943,7 +4973,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5050,13 +5080,13 @@
         <v>28600</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>89</v>
+        <v>336</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>269</v>
+        <v>337</v>
       </c>
       <c r="H4" s="7">
         <v>81</v>
@@ -5065,13 +5095,13 @@
         <v>40421</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>340</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>341</v>
       </c>
       <c r="M4" s="7">
         <v>120</v>
@@ -5080,13 +5110,13 @@
         <v>69021</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>342</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>343</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5101,13 +5131,13 @@
         <v>73382</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>345</v>
       </c>
-      <c r="F5" s="7" t="s">
-        <v>278</v>
-      </c>
       <c r="G5" s="7" t="s">
-        <v>97</v>
+        <v>346</v>
       </c>
       <c r="H5" s="7">
         <v>162</v>
@@ -5116,13 +5146,13 @@
         <v>90312</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>84</v>
+        <v>349</v>
       </c>
       <c r="M5" s="7">
         <v>241</v>
@@ -5131,13 +5161,13 @@
         <v>163694</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5205,13 +5235,13 @@
         <v>192150</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="H7" s="7">
         <v>361</v>
@@ -5220,13 +5250,13 @@
         <v>214180</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="M7" s="7">
         <v>585</v>
@@ -5235,13 +5265,13 @@
         <v>406330</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5256,13 +5286,13 @@
         <v>357673</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="H8" s="7">
         <v>632</v>
@@ -5271,13 +5301,13 @@
         <v>377564</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="M8" s="7">
         <v>1020</v>
@@ -5286,13 +5316,13 @@
         <v>735236</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5360,13 +5390,13 @@
         <v>354692</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>366</v>
+        <v>147</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="H10" s="7">
         <v>628</v>
@@ -5375,13 +5405,13 @@
         <v>444288</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="M10" s="7">
         <v>989</v>
@@ -5390,13 +5420,13 @@
         <v>798981</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>323</v>
+        <v>375</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5411,13 +5441,13 @@
         <v>684556</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>375</v>
+        <v>156</v>
       </c>
       <c r="H11" s="7">
         <v>887</v>
@@ -5426,13 +5456,13 @@
         <v>614556</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="M11" s="7">
         <v>1490</v>
@@ -5441,13 +5471,13 @@
         <v>1299111</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>332</v>
+        <v>384</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5515,13 +5545,13 @@
         <v>253540</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="H13" s="7">
         <v>387</v>
@@ -5530,13 +5560,13 @@
         <v>281637</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="M13" s="7">
         <v>633</v>
@@ -5545,13 +5575,13 @@
         <v>535177</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>187</v>
+        <v>391</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>256</v>
+        <v>392</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5566,13 +5596,13 @@
         <v>475232</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>389</v>
+        <v>395</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="H14" s="7">
         <v>659</v>
@@ -5581,13 +5611,13 @@
         <v>591945</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="M14" s="7">
         <v>1089</v>
@@ -5596,13 +5626,13 @@
         <v>1067177</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>195</v>
+        <v>400</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>394</v>
+        <v>401</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>264</v>
+        <v>402</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5658,7 +5688,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5670,28 +5700,28 @@
         <v>356302</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>395</v>
+        <v>403</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>396</v>
+        <v>404</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="H16" s="7">
         <v>617</v>
       </c>
       <c r="I16" s="7">
-        <v>440290</v>
+        <v>440291</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>398</v>
+        <v>406</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>399</v>
+        <v>407</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>400</v>
+        <v>408</v>
       </c>
       <c r="M16" s="7">
         <v>1033</v>
@@ -5700,13 +5730,13 @@
         <v>796593</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>401</v>
+        <v>409</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>402</v>
+        <v>410</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5721,13 +5751,13 @@
         <v>609101</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>404</v>
+        <v>412</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>405</v>
+        <v>413</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>406</v>
+        <v>414</v>
       </c>
       <c r="H17" s="7">
         <v>942</v>
@@ -5736,13 +5766,13 @@
         <v>705986</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>407</v>
+        <v>415</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>408</v>
+        <v>416</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>409</v>
+        <v>417</v>
       </c>
       <c r="M17" s="7">
         <v>1532</v>
@@ -5751,13 +5781,13 @@
         <v>1315087</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>410</v>
+        <v>418</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>411</v>
+        <v>419</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>412</v>
+        <v>420</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5784,7 +5814,7 @@
         <v>1559</v>
       </c>
       <c r="I18" s="7">
-        <v>1146276</v>
+        <v>1146277</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -5825,13 +5855,13 @@
         <v>1185285</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>413</v>
+        <v>421</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>217</v>
+        <v>422</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>414</v>
+        <v>423</v>
       </c>
       <c r="H19" s="7">
         <v>2074</v>
@@ -5840,13 +5870,13 @@
         <v>1420816</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>415</v>
+        <v>424</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>416</v>
+        <v>425</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>417</v>
+        <v>426</v>
       </c>
       <c r="M19" s="7">
         <v>3360</v>
@@ -5855,13 +5885,13 @@
         <v>2606102</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>418</v>
+        <v>427</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>419</v>
+        <v>428</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>420</v>
+        <v>429</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5876,13 +5906,13 @@
         <v>2199943</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>421</v>
+        <v>430</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>422</v>
+        <v>431</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>227</v>
+        <v>432</v>
       </c>
       <c r="H20" s="7">
         <v>3282</v>
@@ -5891,13 +5921,13 @@
         <v>2380362</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>423</v>
+        <v>433</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>424</v>
+        <v>434</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>425</v>
+        <v>435</v>
       </c>
       <c r="M20" s="7">
         <v>5372</v>
@@ -5906,13 +5936,13 @@
         <v>4580305</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>426</v>
+        <v>436</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>427</v>
+        <v>437</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>428</v>
+        <v>438</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5968,7 +5998,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P35-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P35-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{39BD351F-1E8F-4534-81AC-F59855974E76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{48B3A177-F624-42CB-9514-25D8A3D0E53E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{45814A43-6A78-46DC-984D-383F7A26BA3D}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{CDDF9958-FCE1-4523-8C25-B50A396D630E}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="439">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="433">
   <si>
     <t>Población según si su médico le ha aconsejado que realice algún tipo de ejercicio físico en 2007 (Tasa respuesta: 95,19%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Sí</t>
@@ -77,970 +77,964 @@
     <t>15,63%</t>
   </si>
   <si>
-    <t>8,96%</t>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>22,74%</t>
+  </si>
+  <si>
+    <t>23,92%</t>
+  </si>
+  <si>
+    <t>16,47%</t>
+  </si>
+  <si>
+    <t>31,14%</t>
+  </si>
+  <si>
+    <t>19,74%</t>
+  </si>
+  <si>
+    <t>14,52%</t>
+  </si>
+  <si>
+    <t>24,86%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>84,37%</t>
+  </si>
+  <si>
+    <t>77,26%</t>
+  </si>
+  <si>
+    <t>90,84%</t>
+  </si>
+  <si>
+    <t>76,08%</t>
+  </si>
+  <si>
+    <t>68,86%</t>
+  </si>
+  <si>
+    <t>83,53%</t>
+  </si>
+  <si>
+    <t>80,26%</t>
+  </si>
+  <si>
+    <t>75,14%</t>
+  </si>
+  <si>
+    <t>85,48%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>18,62%</t>
+  </si>
+  <si>
+    <t>15,64%</t>
+  </si>
+  <si>
+    <t>22,05%</t>
+  </si>
+  <si>
+    <t>22,07%</t>
+  </si>
+  <si>
+    <t>18,55%</t>
+  </si>
+  <si>
+    <t>25,86%</t>
+  </si>
+  <si>
+    <t>20,34%</t>
+  </si>
+  <si>
+    <t>17,79%</t>
+  </si>
+  <si>
+    <t>22,68%</t>
+  </si>
+  <si>
+    <t>81,38%</t>
+  </si>
+  <si>
+    <t>77,95%</t>
+  </si>
+  <si>
+    <t>84,36%</t>
+  </si>
+  <si>
+    <t>77,93%</t>
+  </si>
+  <si>
+    <t>74,14%</t>
+  </si>
+  <si>
+    <t>81,45%</t>
+  </si>
+  <si>
+    <t>79,66%</t>
+  </si>
+  <si>
+    <t>77,32%</t>
+  </si>
+  <si>
+    <t>82,21%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>15,78%</t>
+  </si>
+  <si>
+    <t>13,65%</t>
+  </si>
+  <si>
+    <t>18,3%</t>
+  </si>
+  <si>
+    <t>23,32%</t>
+  </si>
+  <si>
+    <t>20,48%</t>
+  </si>
+  <si>
+    <t>25,97%</t>
+  </si>
+  <si>
+    <t>19,54%</t>
+  </si>
+  <si>
+    <t>17,62%</t>
+  </si>
+  <si>
+    <t>21,45%</t>
+  </si>
+  <si>
+    <t>84,22%</t>
+  </si>
+  <si>
+    <t>81,7%</t>
+  </si>
+  <si>
+    <t>86,35%</t>
+  </si>
+  <si>
+    <t>76,68%</t>
+  </si>
+  <si>
+    <t>74,03%</t>
+  </si>
+  <si>
+    <t>79,52%</t>
+  </si>
+  <si>
+    <t>80,46%</t>
+  </si>
+  <si>
+    <t>78,55%</t>
+  </si>
+  <si>
+    <t>82,38%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>20,2%</t>
+  </si>
+  <si>
+    <t>17,0%</t>
+  </si>
+  <si>
+    <t>23,22%</t>
+  </si>
+  <si>
+    <t>25,53%</t>
+  </si>
+  <si>
+    <t>22,1%</t>
+  </si>
+  <si>
+    <t>29,02%</t>
+  </si>
+  <si>
+    <t>22,87%</t>
+  </si>
+  <si>
+    <t>20,42%</t>
+  </si>
+  <si>
+    <t>25,29%</t>
+  </si>
+  <si>
+    <t>79,8%</t>
+  </si>
+  <si>
+    <t>76,78%</t>
+  </si>
+  <si>
+    <t>83,0%</t>
+  </si>
+  <si>
+    <t>74,47%</t>
+  </si>
+  <si>
+    <t>70,98%</t>
+  </si>
+  <si>
+    <t>77,9%</t>
+  </si>
+  <si>
+    <t>77,13%</t>
+  </si>
+  <si>
+    <t>74,71%</t>
+  </si>
+  <si>
+    <t>79,58%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>16,93%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
+  </si>
+  <si>
+    <t>19,44%</t>
+  </si>
+  <si>
+    <t>16,85%</t>
+  </si>
+  <si>
+    <t>14,68%</t>
+  </si>
+  <si>
+    <t>19,25%</t>
+  </si>
+  <si>
+    <t>16,89%</t>
+  </si>
+  <si>
+    <t>15,35%</t>
+  </si>
+  <si>
+    <t>18,8%</t>
+  </si>
+  <si>
+    <t>83,07%</t>
+  </si>
+  <si>
+    <t>80,56%</t>
+  </si>
+  <si>
+    <t>85,38%</t>
+  </si>
+  <si>
+    <t>83,15%</t>
+  </si>
+  <si>
+    <t>80,75%</t>
+  </si>
+  <si>
+    <t>85,32%</t>
+  </si>
+  <si>
+    <t>83,11%</t>
+  </si>
+  <si>
+    <t>81,2%</t>
+  </si>
+  <si>
+    <t>84,65%</t>
+  </si>
+  <si>
+    <t>17,5%</t>
+  </si>
+  <si>
+    <t>16,15%</t>
+  </si>
+  <si>
+    <t>21,56%</t>
+  </si>
+  <si>
+    <t>20,08%</t>
+  </si>
+  <si>
+    <t>23,01%</t>
+  </si>
+  <si>
+    <t>19,56%</t>
+  </si>
+  <si>
+    <t>18,52%</t>
+  </si>
+  <si>
+    <t>20,57%</t>
+  </si>
+  <si>
+    <t>82,5%</t>
+  </si>
+  <si>
+    <t>83,85%</t>
+  </si>
+  <si>
+    <t>78,44%</t>
+  </si>
+  <si>
+    <t>76,99%</t>
+  </si>
+  <si>
+    <t>79,92%</t>
+  </si>
+  <si>
+    <t>80,44%</t>
+  </si>
+  <si>
+    <t>79,43%</t>
+  </si>
+  <si>
+    <t>81,48%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si su médico le ha aconsejado que realice algún tipo de ejercicio físico en 2012 (Tasa respuesta: 97,06%)</t>
+  </si>
+  <si>
+    <t>21,28%</t>
+  </si>
+  <si>
+    <t>14,26%</t>
+  </si>
+  <si>
+    <t>29,16%</t>
+  </si>
+  <si>
+    <t>31,56%</t>
+  </si>
+  <si>
+    <t>22,92%</t>
+  </si>
+  <si>
+    <t>41,42%</t>
+  </si>
+  <si>
+    <t>26,23%</t>
+  </si>
+  <si>
+    <t>20,09%</t>
+  </si>
+  <si>
+    <t>32,04%</t>
+  </si>
+  <si>
+    <t>78,72%</t>
+  </si>
+  <si>
+    <t>70,84%</t>
+  </si>
+  <si>
+    <t>85,74%</t>
+  </si>
+  <si>
+    <t>68,44%</t>
+  </si>
+  <si>
+    <t>58,58%</t>
+  </si>
+  <si>
+    <t>77,08%</t>
+  </si>
+  <si>
+    <t>73,77%</t>
+  </si>
+  <si>
+    <t>67,96%</t>
+  </si>
+  <si>
+    <t>79,91%</t>
+  </si>
+  <si>
+    <t>24,89%</t>
+  </si>
+  <si>
+    <t>20,98%</t>
+  </si>
+  <si>
+    <t>28,61%</t>
+  </si>
+  <si>
+    <t>32,05%</t>
+  </si>
+  <si>
+    <t>28,16%</t>
+  </si>
+  <si>
+    <t>35,57%</t>
+  </si>
+  <si>
+    <t>28,44%</t>
+  </si>
+  <si>
+    <t>25,76%</t>
+  </si>
+  <si>
+    <t>31,19%</t>
+  </si>
+  <si>
+    <t>75,11%</t>
+  </si>
+  <si>
+    <t>71,39%</t>
+  </si>
+  <si>
+    <t>79,02%</t>
+  </si>
+  <si>
+    <t>67,95%</t>
+  </si>
+  <si>
+    <t>64,43%</t>
+  </si>
+  <si>
+    <t>71,84%</t>
+  </si>
+  <si>
+    <t>71,56%</t>
+  </si>
+  <si>
+    <t>68,81%</t>
+  </si>
+  <si>
+    <t>74,24%</t>
+  </si>
+  <si>
+    <t>25,92%</t>
   </si>
   <si>
     <t>23,04%</t>
   </si>
   <si>
-    <t>23,92%</t>
-  </si>
-  <si>
-    <t>17,09%</t>
-  </si>
-  <si>
-    <t>32,7%</t>
-  </si>
-  <si>
-    <t>19,74%</t>
-  </si>
-  <si>
-    <t>15,1%</t>
-  </si>
-  <si>
-    <t>25,46%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>84,37%</t>
+    <t>29,03%</t>
+  </si>
+  <si>
+    <t>34,89%</t>
+  </si>
+  <si>
+    <t>31,88%</t>
+  </si>
+  <si>
+    <t>38,28%</t>
+  </si>
+  <si>
+    <t>30,43%</t>
+  </si>
+  <si>
+    <t>28,19%</t>
+  </si>
+  <si>
+    <t>32,65%</t>
+  </si>
+  <si>
+    <t>74,08%</t>
+  </si>
+  <si>
+    <t>70,97%</t>
   </si>
   <si>
     <t>76,96%</t>
   </si>
   <si>
-    <t>91,04%</t>
-  </si>
-  <si>
-    <t>76,08%</t>
-  </si>
-  <si>
-    <t>67,3%</t>
-  </si>
-  <si>
-    <t>82,91%</t>
-  </si>
-  <si>
-    <t>80,26%</t>
-  </si>
-  <si>
-    <t>74,54%</t>
-  </si>
-  <si>
-    <t>84,9%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>18,62%</t>
-  </si>
-  <si>
-    <t>15,65%</t>
-  </si>
-  <si>
-    <t>22,08%</t>
-  </si>
-  <si>
-    <t>22,07%</t>
-  </si>
-  <si>
-    <t>18,5%</t>
-  </si>
-  <si>
-    <t>25,6%</t>
-  </si>
-  <si>
-    <t>20,34%</t>
-  </si>
-  <si>
-    <t>17,57%</t>
-  </si>
-  <si>
-    <t>22,66%</t>
-  </si>
-  <si>
-    <t>81,38%</t>
-  </si>
-  <si>
-    <t>77,92%</t>
-  </si>
-  <si>
-    <t>84,35%</t>
-  </si>
-  <si>
-    <t>77,93%</t>
-  </si>
-  <si>
-    <t>74,4%</t>
-  </si>
-  <si>
-    <t>81,5%</t>
-  </si>
-  <si>
-    <t>79,66%</t>
-  </si>
-  <si>
-    <t>77,34%</t>
-  </si>
-  <si>
-    <t>82,43%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>13,69%</t>
-  </si>
-  <si>
-    <t>18,26%</t>
-  </si>
-  <si>
-    <t>23,32%</t>
-  </si>
-  <si>
-    <t>20,55%</t>
-  </si>
-  <si>
-    <t>26,33%</t>
-  </si>
-  <si>
-    <t>19,54%</t>
-  </si>
-  <si>
-    <t>17,6%</t>
-  </si>
-  <si>
-    <t>21,31%</t>
-  </si>
-  <si>
-    <t>84,22%</t>
-  </si>
-  <si>
-    <t>81,74%</t>
-  </si>
-  <si>
-    <t>86,31%</t>
-  </si>
-  <si>
-    <t>76,68%</t>
-  </si>
-  <si>
-    <t>73,67%</t>
-  </si>
-  <si>
-    <t>79,45%</t>
-  </si>
-  <si>
-    <t>80,46%</t>
-  </si>
-  <si>
-    <t>78,69%</t>
-  </si>
-  <si>
-    <t>82,4%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>20,2%</t>
-  </si>
-  <si>
-    <t>16,78%</t>
-  </si>
-  <si>
-    <t>23,65%</t>
-  </si>
-  <si>
-    <t>25,53%</t>
-  </si>
-  <si>
-    <t>22,31%</t>
-  </si>
-  <si>
-    <t>29,1%</t>
-  </si>
-  <si>
-    <t>22,87%</t>
-  </si>
-  <si>
-    <t>20,73%</t>
-  </si>
-  <si>
-    <t>25,35%</t>
-  </si>
-  <si>
-    <t>79,8%</t>
-  </si>
-  <si>
-    <t>76,35%</t>
-  </si>
-  <si>
-    <t>83,22%</t>
-  </si>
-  <si>
-    <t>74,47%</t>
-  </si>
-  <si>
-    <t>70,9%</t>
-  </si>
-  <si>
-    <t>77,69%</t>
-  </si>
-  <si>
-    <t>77,13%</t>
-  </si>
-  <si>
-    <t>74,65%</t>
-  </si>
-  <si>
-    <t>79,27%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>16,93%</t>
-  </si>
-  <si>
-    <t>14,53%</t>
-  </si>
-  <si>
-    <t>19,42%</t>
-  </si>
-  <si>
-    <t>16,85%</t>
-  </si>
-  <si>
-    <t>14,68%</t>
-  </si>
-  <si>
-    <t>19,53%</t>
-  </si>
-  <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>15,06%</t>
-  </si>
-  <si>
-    <t>18,54%</t>
-  </si>
-  <si>
-    <t>83,07%</t>
-  </si>
-  <si>
-    <t>80,58%</t>
-  </si>
-  <si>
-    <t>85,47%</t>
-  </si>
-  <si>
-    <t>83,15%</t>
-  </si>
-  <si>
-    <t>80,47%</t>
-  </si>
-  <si>
-    <t>85,32%</t>
-  </si>
-  <si>
-    <t>83,11%</t>
-  </si>
-  <si>
-    <t>81,46%</t>
-  </si>
-  <si>
-    <t>84,94%</t>
-  </si>
-  <si>
-    <t>17,5%</t>
-  </si>
-  <si>
-    <t>16,26%</t>
-  </si>
-  <si>
-    <t>18,98%</t>
-  </si>
-  <si>
-    <t>21,56%</t>
-  </si>
-  <si>
-    <t>20,27%</t>
-  </si>
-  <si>
-    <t>19,56%</t>
-  </si>
-  <si>
-    <t>20,52%</t>
-  </si>
-  <si>
-    <t>82,5%</t>
-  </si>
-  <si>
-    <t>81,02%</t>
-  </si>
-  <si>
-    <t>83,74%</t>
-  </si>
-  <si>
-    <t>78,44%</t>
-  </si>
-  <si>
-    <t>79,73%</t>
-  </si>
-  <si>
-    <t>80,44%</t>
-  </si>
-  <si>
-    <t>79,48%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si su médico le ha aconsejado que realice algún tipo de ejercicio físico en 2012 (Tasa respuesta: 97,06%)</t>
-  </si>
-  <si>
-    <t>21,28%</t>
-  </si>
-  <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>29,18%</t>
-  </si>
-  <si>
-    <t>31,56%</t>
-  </si>
-  <si>
-    <t>22,51%</t>
-  </si>
-  <si>
-    <t>41,05%</t>
-  </si>
-  <si>
-    <t>26,23%</t>
-  </si>
-  <si>
-    <t>20,74%</t>
-  </si>
-  <si>
-    <t>32,0%</t>
-  </si>
-  <si>
-    <t>78,72%</t>
-  </si>
-  <si>
-    <t>70,82%</t>
-  </si>
-  <si>
-    <t>85,19%</t>
-  </si>
-  <si>
-    <t>68,44%</t>
-  </si>
-  <si>
-    <t>58,95%</t>
-  </si>
-  <si>
-    <t>77,49%</t>
-  </si>
-  <si>
-    <t>73,77%</t>
-  </si>
-  <si>
-    <t>68,0%</t>
-  </si>
-  <si>
-    <t>79,26%</t>
-  </si>
-  <si>
-    <t>24,89%</t>
-  </si>
-  <si>
-    <t>21,35%</t>
-  </si>
-  <si>
-    <t>28,4%</t>
-  </si>
-  <si>
-    <t>32,05%</t>
-  </si>
-  <si>
-    <t>28,07%</t>
-  </si>
-  <si>
-    <t>36,49%</t>
-  </si>
-  <si>
-    <t>28,44%</t>
-  </si>
-  <si>
-    <t>25,71%</t>
-  </si>
-  <si>
-    <t>31,26%</t>
-  </si>
-  <si>
-    <t>75,11%</t>
-  </si>
-  <si>
-    <t>71,6%</t>
-  </si>
-  <si>
-    <t>78,65%</t>
-  </si>
-  <si>
-    <t>67,95%</t>
-  </si>
-  <si>
-    <t>63,51%</t>
-  </si>
-  <si>
-    <t>71,93%</t>
-  </si>
-  <si>
-    <t>71,56%</t>
-  </si>
-  <si>
-    <t>68,74%</t>
-  </si>
-  <si>
-    <t>74,29%</t>
-  </si>
-  <si>
-    <t>25,92%</t>
-  </si>
-  <si>
-    <t>23,11%</t>
-  </si>
-  <si>
-    <t>28,91%</t>
-  </si>
-  <si>
-    <t>34,89%</t>
-  </si>
-  <si>
-    <t>31,64%</t>
-  </si>
-  <si>
-    <t>38,31%</t>
-  </si>
-  <si>
-    <t>30,43%</t>
-  </si>
-  <si>
-    <t>28,24%</t>
-  </si>
-  <si>
-    <t>32,55%</t>
-  </si>
-  <si>
-    <t>74,08%</t>
-  </si>
-  <si>
-    <t>71,09%</t>
-  </si>
-  <si>
-    <t>76,89%</t>
-  </si>
-  <si>
     <t>65,11%</t>
   </si>
   <si>
-    <t>61,69%</t>
-  </si>
-  <si>
-    <t>68,36%</t>
+    <t>61,72%</t>
+  </si>
+  <si>
+    <t>68,12%</t>
   </si>
   <si>
     <t>69,57%</t>
   </si>
   <si>
-    <t>67,45%</t>
-  </si>
-  <si>
-    <t>71,76%</t>
+    <t>67,35%</t>
+  </si>
+  <si>
+    <t>71,81%</t>
   </si>
   <si>
     <t>26,44%</t>
   </si>
   <si>
-    <t>23,28%</t>
-  </si>
-  <si>
-    <t>30,29%</t>
+    <t>23,07%</t>
+  </si>
+  <si>
+    <t>29,88%</t>
   </si>
   <si>
     <t>35,17%</t>
   </si>
   <si>
-    <t>31,65%</t>
-  </si>
-  <si>
-    <t>38,88%</t>
+    <t>31,76%</t>
+  </si>
+  <si>
+    <t>38,95%</t>
   </si>
   <si>
     <t>30,85%</t>
   </si>
   <si>
-    <t>28,27%</t>
-  </si>
-  <si>
-    <t>33,37%</t>
+    <t>28,53%</t>
+  </si>
+  <si>
+    <t>33,33%</t>
   </si>
   <si>
     <t>73,56%</t>
   </si>
   <si>
-    <t>69,71%</t>
-  </si>
-  <si>
-    <t>76,72%</t>
+    <t>70,12%</t>
+  </si>
+  <si>
+    <t>76,93%</t>
   </si>
   <si>
     <t>64,83%</t>
   </si>
   <si>
-    <t>61,12%</t>
-  </si>
-  <si>
-    <t>68,35%</t>
+    <t>61,05%</t>
+  </si>
+  <si>
+    <t>68,24%</t>
   </si>
   <si>
     <t>69,15%</t>
   </si>
   <si>
-    <t>66,63%</t>
-  </si>
-  <si>
-    <t>71,73%</t>
+    <t>66,67%</t>
+  </si>
+  <si>
+    <t>71,47%</t>
   </si>
   <si>
     <t>26,92%</t>
   </si>
   <si>
-    <t>23,78%</t>
-  </si>
-  <si>
-    <t>30,08%</t>
+    <t>23,76%</t>
+  </si>
+  <si>
+    <t>30,15%</t>
   </si>
   <si>
     <t>34,95%</t>
   </si>
   <si>
-    <t>31,99%</t>
-  </si>
-  <si>
-    <t>37,81%</t>
+    <t>32,06%</t>
+  </si>
+  <si>
+    <t>38,15%</t>
   </si>
   <si>
     <t>31,17%</t>
   </si>
   <si>
-    <t>29,05%</t>
-  </si>
-  <si>
-    <t>33,74%</t>
+    <t>33,4%</t>
   </si>
   <si>
     <t>73,08%</t>
   </si>
   <si>
-    <t>69,92%</t>
-  </si>
-  <si>
-    <t>76,22%</t>
+    <t>69,85%</t>
+  </si>
+  <si>
+    <t>76,24%</t>
   </si>
   <si>
     <t>65,05%</t>
   </si>
   <si>
-    <t>62,19%</t>
-  </si>
-  <si>
-    <t>68,01%</t>
+    <t>61,85%</t>
+  </si>
+  <si>
+    <t>67,94%</t>
   </si>
   <si>
     <t>68,83%</t>
   </si>
   <si>
-    <t>66,26%</t>
-  </si>
-  <si>
-    <t>70,95%</t>
-  </si>
-  <si>
-    <t>25,97%</t>
-  </si>
-  <si>
-    <t>24,36%</t>
-  </si>
-  <si>
-    <t>27,58%</t>
+    <t>66,6%</t>
+  </si>
+  <si>
+    <t>24,45%</t>
+  </si>
+  <si>
+    <t>27,51%</t>
   </si>
   <si>
     <t>34,4%</t>
   </si>
   <si>
-    <t>32,79%</t>
-  </si>
-  <si>
-    <t>36,14%</t>
+    <t>32,73%</t>
+  </si>
+  <si>
+    <t>36,23%</t>
   </si>
   <si>
     <t>30,26%</t>
   </si>
   <si>
-    <t>29,06%</t>
-  </si>
-  <si>
-    <t>31,55%</t>
-  </si>
-  <si>
-    <t>74,03%</t>
-  </si>
-  <si>
-    <t>72,42%</t>
-  </si>
-  <si>
-    <t>75,64%</t>
+    <t>29,09%</t>
+  </si>
+  <si>
+    <t>31,49%</t>
+  </si>
+  <si>
+    <t>72,49%</t>
+  </si>
+  <si>
+    <t>75,55%</t>
   </si>
   <si>
     <t>65,6%</t>
   </si>
   <si>
-    <t>63,86%</t>
-  </si>
-  <si>
-    <t>67,21%</t>
+    <t>63,77%</t>
+  </si>
+  <si>
+    <t>67,27%</t>
   </si>
   <si>
     <t>69,74%</t>
   </si>
   <si>
-    <t>68,45%</t>
-  </si>
-  <si>
-    <t>70,94%</t>
-  </si>
-  <si>
-    <t>Población según si su médico le ha aconsejado que realice algún tipo de ejercicio físico en 2015 (Tasa respuesta: 98,54%)</t>
+    <t>68,51%</t>
+  </si>
+  <si>
+    <t>70,91%</t>
+  </si>
+  <si>
+    <t>Población según si su médico le ha aconsejado que realice algún tipo de ejercicio físico en 2016 (Tasa respuesta: 98,54%)</t>
   </si>
   <si>
     <t>20,06%</t>
   </si>
   <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>28,55%</t>
+    <t>12,75%</t>
+  </si>
+  <si>
+    <t>28,32%</t>
   </si>
   <si>
     <t>31,05%</t>
   </si>
   <si>
-    <t>23,3%</t>
-  </si>
-  <si>
-    <t>40,98%</t>
+    <t>23,48%</t>
+  </si>
+  <si>
+    <t>40,74%</t>
   </si>
   <si>
     <t>25,5%</t>
   </si>
   <si>
-    <t>20,41%</t>
-  </si>
-  <si>
-    <t>31,72%</t>
+    <t>20,21%</t>
+  </si>
+  <si>
+    <t>31,79%</t>
   </si>
   <si>
     <t>79,94%</t>
   </si>
   <si>
-    <t>71,45%</t>
-  </si>
-  <si>
-    <t>86,54%</t>
+    <t>71,68%</t>
+  </si>
+  <si>
+    <t>87,25%</t>
   </si>
   <si>
     <t>68,95%</t>
   </si>
   <si>
-    <t>59,02%</t>
-  </si>
-  <si>
-    <t>76,7%</t>
+    <t>59,26%</t>
+  </si>
+  <si>
+    <t>76,52%</t>
   </si>
   <si>
     <t>74,5%</t>
   </si>
   <si>
-    <t>68,28%</t>
-  </si>
-  <si>
-    <t>79,59%</t>
+    <t>68,21%</t>
+  </si>
+  <si>
+    <t>79,79%</t>
   </si>
   <si>
     <t>22,32%</t>
   </si>
   <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>26,06%</t>
+    <t>18,71%</t>
   </si>
   <si>
     <t>30,47%</t>
   </si>
   <si>
-    <t>26,59%</t>
-  </si>
-  <si>
-    <t>34,21%</t>
+    <t>26,58%</t>
+  </si>
+  <si>
+    <t>34,29%</t>
   </si>
   <si>
     <t>26,41%</t>
   </si>
   <si>
-    <t>23,79%</t>
+    <t>23,77%</t>
+  </si>
+  <si>
+    <t>28,86%</t>
   </si>
   <si>
     <t>77,68%</t>
   </si>
   <si>
-    <t>73,94%</t>
-  </si>
-  <si>
-    <t>81,26%</t>
+    <t>81,29%</t>
   </si>
   <si>
     <t>69,53%</t>
   </si>
   <si>
-    <t>65,79%</t>
-  </si>
-  <si>
-    <t>73,41%</t>
+    <t>65,71%</t>
+  </si>
+  <si>
+    <t>73,42%</t>
   </si>
   <si>
     <t>73,59%</t>
   </si>
   <si>
-    <t>76,21%</t>
+    <t>71,14%</t>
+  </si>
+  <si>
+    <t>76,23%</t>
   </si>
   <si>
     <t>28,6%</t>
   </si>
   <si>
-    <t>25,98%</t>
-  </si>
-  <si>
-    <t>31,93%</t>
+    <t>25,93%</t>
   </si>
   <si>
     <t>37,53%</t>
   </si>
   <si>
-    <t>34,24%</t>
-  </si>
-  <si>
-    <t>40,42%</t>
+    <t>34,48%</t>
+  </si>
+  <si>
+    <t>40,61%</t>
   </si>
   <si>
     <t>33,09%</t>
   </si>
   <si>
-    <t>30,77%</t>
-  </si>
-  <si>
-    <t>35,08%</t>
+    <t>30,8%</t>
+  </si>
+  <si>
+    <t>35,37%</t>
   </si>
   <si>
     <t>71,4%</t>
   </si>
   <si>
-    <t>68,07%</t>
-  </si>
-  <si>
-    <t>74,02%</t>
+    <t>74,07%</t>
   </si>
   <si>
     <t>62,47%</t>
   </si>
   <si>
-    <t>59,58%</t>
-  </si>
-  <si>
-    <t>65,76%</t>
+    <t>59,39%</t>
+  </si>
+  <si>
+    <t>65,52%</t>
   </si>
   <si>
     <t>66,91%</t>
   </si>
   <si>
-    <t>64,92%</t>
-  </si>
-  <si>
-    <t>69,23%</t>
+    <t>64,63%</t>
+  </si>
+  <si>
+    <t>69,2%</t>
   </si>
   <si>
     <t>32,47%</t>
   </si>
   <si>
-    <t>29,2%</t>
-  </si>
-  <si>
-    <t>36,23%</t>
+    <t>29,23%</t>
+  </si>
+  <si>
+    <t>36,11%</t>
   </si>
   <si>
     <t>37,45%</t>
   </si>
   <si>
-    <t>33,75%</t>
-  </si>
-  <si>
-    <t>41,1%</t>
+    <t>34,05%</t>
+  </si>
+  <si>
+    <t>41,07%</t>
   </si>
   <si>
     <t>34,99%</t>
   </si>
   <si>
-    <t>32,54%</t>
-  </si>
-  <si>
-    <t>37,63%</t>
+    <t>32,51%</t>
+  </si>
+  <si>
+    <t>37,47%</t>
   </si>
   <si>
     <t>67,53%</t>
   </si>
   <si>
-    <t>63,77%</t>
-  </si>
-  <si>
-    <t>70,8%</t>
+    <t>63,89%</t>
+  </si>
+  <si>
+    <t>70,77%</t>
   </si>
   <si>
     <t>62,55%</t>
   </si>
   <si>
-    <t>58,9%</t>
-  </si>
-  <si>
-    <t>66,25%</t>
+    <t>58,93%</t>
+  </si>
+  <si>
+    <t>65,95%</t>
   </si>
   <si>
     <t>65,01%</t>
   </si>
   <si>
-    <t>62,37%</t>
-  </si>
-  <si>
-    <t>67,46%</t>
+    <t>62,53%</t>
+  </si>
+  <si>
+    <t>67,49%</t>
   </si>
   <si>
     <t>27,67%</t>
   </si>
   <si>
-    <t>24,84%</t>
-  </si>
-  <si>
-    <t>30,64%</t>
+    <t>30,61%</t>
   </si>
   <si>
     <t>32,97%</t>
   </si>
   <si>
-    <t>29,58%</t>
-  </si>
-  <si>
-    <t>35,75%</t>
+    <t>29,93%</t>
+  </si>
+  <si>
+    <t>35,82%</t>
   </si>
   <si>
     <t>30,49%</t>
   </si>
   <si>
-    <t>28,64%</t>
-  </si>
-  <si>
-    <t>32,98%</t>
+    <t>28,29%</t>
+  </si>
+  <si>
+    <t>32,62%</t>
   </si>
   <si>
     <t>72,33%</t>
   </si>
   <si>
-    <t>69,36%</t>
-  </si>
-  <si>
-    <t>75,16%</t>
+    <t>69,39%</t>
   </si>
   <si>
     <t>67,03%</t>
   </si>
   <si>
-    <t>64,25%</t>
-  </si>
-  <si>
-    <t>70,42%</t>
+    <t>64,18%</t>
+  </si>
+  <si>
+    <t>70,07%</t>
   </si>
   <si>
     <t>69,51%</t>
   </si>
   <si>
-    <t>67,02%</t>
-  </si>
-  <si>
-    <t>71,36%</t>
+    <t>67,38%</t>
+  </si>
+  <si>
+    <t>71,71%</t>
   </si>
   <si>
     <t>27,89%</t>
   </si>
   <si>
-    <t>29,65%</t>
+    <t>26,47%</t>
+  </si>
+  <si>
+    <t>29,48%</t>
   </si>
   <si>
     <t>34,84%</t>
   </si>
   <si>
-    <t>33,06%</t>
+    <t>33,08%</t>
+  </si>
+  <si>
+    <t>36,5%</t>
   </si>
   <si>
     <t>31,44%</t>
   </si>
   <si>
-    <t>30,28%</t>
-  </si>
-  <si>
-    <t>32,66%</t>
+    <t>30,3%</t>
+  </si>
+  <si>
+    <t>32,64%</t>
   </si>
   <si>
     <t>72,11%</t>
   </si>
   <si>
-    <t>70,35%</t>
+    <t>70,52%</t>
+  </si>
+  <si>
+    <t>73,53%</t>
   </si>
   <si>
     <t>65,16%</t>
   </si>
   <si>
-    <t>66,94%</t>
+    <t>63,5%</t>
+  </si>
+  <si>
+    <t>66,92%</t>
   </si>
   <si>
     <t>68,56%</t>
   </si>
   <si>
-    <t>67,34%</t>
-  </si>
-  <si>
-    <t>69,72%</t>
+    <t>67,36%</t>
+  </si>
+  <si>
+    <t>69,7%</t>
   </si>
   <si>
     <t>Población según si su médico le ha aconsejado que realice algún tipo de ejercicio físico en 2023 (Tasa respuesta: 99,87%)</t>
@@ -1208,15 +1202,9 @@
     <t>32,24%</t>
   </si>
   <si>
-    <t>21,45%</t>
-  </si>
-  <si>
     <t>37,95%</t>
   </si>
   <si>
-    <t>33,4%</t>
-  </si>
-  <si>
     <t>25,87%</t>
   </si>
   <si>
@@ -1236,12 +1224,6 @@
   </si>
   <si>
     <t>62,05%</t>
-  </si>
-  <si>
-    <t>78,55%</t>
-  </si>
-  <si>
-    <t>66,6%</t>
   </si>
   <si>
     <t>63,13%</t>
@@ -1767,7 +1749,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE79AEC9-2E5D-4085-AD6D-AC8E6E4563A9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41495E8E-BC53-472F-AF1E-7BCC080F696D}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2213,7 +2195,7 @@
         <v>199</v>
       </c>
       <c r="I10" s="7">
-        <v>215491</v>
+        <v>215490</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -2315,7 +2297,7 @@
         <v>867</v>
       </c>
       <c r="I12" s="7">
-        <v>924190</v>
+        <v>924189</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -2672,7 +2654,7 @@
         <v>108</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="H19" s="7">
         <v>676</v>
@@ -2681,13 +2663,13 @@
         <v>691606</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>13</v>
       </c>
       <c r="M19" s="7">
         <v>1231</v>
@@ -2699,10 +2681,10 @@
         <v>112</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>32</v>
+        <v>113</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2714,13 +2696,13 @@
         <v>2513</v>
       </c>
       <c r="D20" s="7">
-        <v>2579901</v>
+        <v>2579902</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>116</v>
@@ -2735,10 +2717,10 @@
         <v>117</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>22</v>
+        <v>118</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="M20" s="7">
         <v>4967</v>
@@ -2747,13 +2729,13 @@
         <v>5096329</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>41</v>
+        <v>122</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2765,7 +2747,7 @@
         <v>3068</v>
       </c>
       <c r="D21" s="7">
-        <v>3127222</v>
+        <v>3127223</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -2809,7 +2791,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -2830,7 +2812,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BCA6C00-6821-4524-8784-0BE64614FB8F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6CA57D4-A6E1-41AF-9A74-C639CBD6C654}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2847,7 +2829,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2954,13 +2936,13 @@
         <v>24637</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="H4" s="7">
         <v>31</v>
@@ -2969,13 +2951,13 @@
         <v>33909</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M4" s="7">
         <v>58</v>
@@ -2984,13 +2966,13 @@
         <v>58545</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3005,13 +2987,13 @@
         <v>91128</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="H5" s="7">
         <v>64</v>
@@ -3020,13 +3002,13 @@
         <v>73524</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="M5" s="7">
         <v>159</v>
@@ -3035,13 +3017,13 @@
         <v>164653</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3109,13 +3091,13 @@
         <v>143732</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="H7" s="7">
         <v>170</v>
@@ -3124,13 +3106,13 @@
         <v>181982</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="M7" s="7">
         <v>305</v>
@@ -3139,13 +3121,13 @@
         <v>325714</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3160,13 +3142,13 @@
         <v>433640</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H8" s="7">
         <v>364</v>
@@ -3175,13 +3157,13 @@
         <v>385881</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="M8" s="7">
         <v>771</v>
@@ -3190,13 +3172,13 @@
         <v>819521</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3264,13 +3246,13 @@
         <v>258312</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="H10" s="7">
         <v>316</v>
@@ -3279,13 +3261,13 @@
         <v>351483</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="M10" s="7">
         <v>548</v>
@@ -3294,13 +3276,13 @@
         <v>609794</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3315,13 +3297,13 @@
         <v>738112</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H11" s="7">
         <v>602</v>
@@ -3330,13 +3312,13 @@
         <v>656053</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="M11" s="7">
         <v>1285</v>
@@ -3345,13 +3327,13 @@
         <v>1394166</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3419,13 +3401,13 @@
         <v>196270</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="H13" s="7">
         <v>244</v>
@@ -3434,13 +3416,13 @@
         <v>267450</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="M13" s="7">
         <v>417</v>
@@ -3449,13 +3431,13 @@
         <v>463720</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3470,13 +3452,13 @@
         <v>546133</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="H14" s="7">
         <v>446</v>
@@ -3485,13 +3467,13 @@
         <v>493080</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="M14" s="7">
         <v>948</v>
@@ -3500,13 +3482,13 @@
         <v>1039213</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3574,13 +3556,13 @@
         <v>241084</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="H16" s="7">
         <v>330</v>
@@ -3589,13 +3571,13 @@
         <v>352565</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="M16" s="7">
         <v>552</v>
@@ -3604,13 +3586,13 @@
         <v>593649</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>202</v>
+        <v>127</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3625,13 +3607,13 @@
         <v>654486</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="H17" s="7">
         <v>631</v>
@@ -3640,13 +3622,13 @@
         <v>656188</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M17" s="7">
         <v>1273</v>
@@ -3655,13 +3637,13 @@
         <v>1310673</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>212</v>
+        <v>135</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3729,13 +3711,13 @@
         <v>864034</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>214</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>215</v>
       </c>
       <c r="H19" s="7">
         <v>1091</v>
@@ -3744,13 +3726,13 @@
         <v>1187387</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>218</v>
       </c>
       <c r="M19" s="7">
         <v>1880</v>
@@ -3759,13 +3741,13 @@
         <v>2051421</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>220</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3780,13 +3762,13 @@
         <v>2463500</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>222</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>224</v>
       </c>
       <c r="H20" s="7">
         <v>2107</v>
@@ -3795,13 +3777,13 @@
         <v>2264727</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>225</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>227</v>
       </c>
       <c r="M20" s="7">
         <v>4436</v>
@@ -3810,13 +3792,13 @@
         <v>4728227</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>228</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3872,7 +3854,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -3893,7 +3875,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38186FC8-0904-4E5B-B305-CF6CB30D2421}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A74881B9-46F3-49AB-95C8-1C46443BA215}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3910,7 +3892,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4017,13 +3999,13 @@
         <v>23033</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>232</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>234</v>
       </c>
       <c r="H4" s="7">
         <v>34</v>
@@ -4032,13 +4014,13 @@
         <v>34896</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>235</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>237</v>
       </c>
       <c r="M4" s="7">
         <v>57</v>
@@ -4047,13 +4029,13 @@
         <v>57929</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>238</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4068,13 +4050,13 @@
         <v>91758</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>241</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>243</v>
       </c>
       <c r="H5" s="7">
         <v>80</v>
@@ -4083,13 +4065,13 @@
         <v>77502</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>244</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>246</v>
       </c>
       <c r="M5" s="7">
         <v>169</v>
@@ -4098,13 +4080,13 @@
         <v>169260</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>247</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4172,13 +4154,13 @@
         <v>122900</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>252</v>
+        <v>131</v>
       </c>
       <c r="H7" s="7">
         <v>165</v>
@@ -4187,13 +4169,13 @@
         <v>169469</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="M7" s="7">
         <v>283</v>
@@ -4202,13 +4184,13 @@
         <v>292368</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>125</v>
+        <v>255</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4223,13 +4205,13 @@
         <v>427845</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>259</v>
+        <v>140</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="H8" s="7">
         <v>383</v>
@@ -4238,13 +4220,13 @@
         <v>386682</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="M8" s="7">
         <v>796</v>
@@ -4253,13 +4235,13 @@
         <v>814528</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>133</v>
+        <v>262</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4327,13 +4309,13 @@
         <v>289731</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>268</v>
+        <v>128</v>
       </c>
       <c r="H10" s="7">
         <v>354</v>
@@ -4342,13 +4324,13 @@
         <v>385370</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="M10" s="7">
         <v>630</v>
@@ -4357,13 +4339,13 @@
         <v>675101</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4378,13 +4360,13 @@
         <v>723224</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>276</v>
+        <v>137</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="H11" s="7">
         <v>608</v>
@@ -4393,13 +4375,13 @@
         <v>641589</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="M11" s="7">
         <v>1274</v>
@@ -4408,13 +4390,13 @@
         <v>1364813</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4482,13 +4464,13 @@
         <v>244878</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="H13" s="7">
         <v>264</v>
@@ -4497,13 +4479,13 @@
         <v>288706</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="M13" s="7">
         <v>490</v>
@@ -4512,13 +4494,13 @@
         <v>533584</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4533,13 +4515,13 @@
         <v>509274</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="H14" s="7">
         <v>459</v>
@@ -4548,13 +4530,13 @@
         <v>482139</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="M14" s="7">
         <v>925</v>
@@ -4563,13 +4545,13 @@
         <v>991414</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4637,13 +4619,13 @@
         <v>250915</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>303</v>
+        <v>19</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="H16" s="7">
         <v>306</v>
@@ -4652,13 +4634,13 @@
         <v>339471</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="M16" s="7">
         <v>550</v>
@@ -4667,13 +4649,13 @@
         <v>590385</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4688,13 +4670,13 @@
         <v>655962</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>313</v>
+        <v>28</v>
       </c>
       <c r="H17" s="7">
         <v>641</v>
@@ -4703,13 +4685,13 @@
         <v>690125</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="M17" s="7">
         <v>1299</v>
@@ -4718,13 +4700,13 @@
         <v>1346087</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4792,13 +4774,13 @@
         <v>931456</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>177</v>
+        <v>315</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="H19" s="7">
         <v>1123</v>
@@ -4807,13 +4789,13 @@
         <v>1217911</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>146</v>
+        <v>319</v>
       </c>
       <c r="M19" s="7">
         <v>2010</v>
@@ -4822,13 +4804,13 @@
         <v>2149368</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4843,13 +4825,13 @@
         <v>2408064</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>186</v>
+        <v>325</v>
       </c>
       <c r="H20" s="7">
         <v>2171</v>
@@ -4858,13 +4840,13 @@
         <v>2278038</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>154</v>
+        <v>327</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="M20" s="7">
         <v>4463</v>
@@ -4873,13 +4855,13 @@
         <v>4686101</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>331</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>332</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4935,7 +4917,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -4956,7 +4938,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{466F1EDC-DC00-4D7E-9FC6-32CAC1AA3715}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16CBBB4B-F623-42BB-8CEA-BD7D0643E71A}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4973,7 +4955,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5080,13 +5062,13 @@
         <v>28600</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>335</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>336</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>337</v>
       </c>
       <c r="H4" s="7">
         <v>81</v>
@@ -5095,13 +5077,13 @@
         <v>40421</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>338</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>339</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>340</v>
       </c>
       <c r="M4" s="7">
         <v>120</v>
@@ -5110,13 +5092,13 @@
         <v>69021</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>341</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5131,13 +5113,13 @@
         <v>73382</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>344</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>346</v>
       </c>
       <c r="H5" s="7">
         <v>162</v>
@@ -5146,13 +5128,13 @@
         <v>90312</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>347</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>348</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>349</v>
       </c>
       <c r="M5" s="7">
         <v>241</v>
@@ -5161,13 +5143,13 @@
         <v>163694</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>350</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>351</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>352</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5235,13 +5217,13 @@
         <v>192150</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="H7" s="7">
         <v>361</v>
@@ -5250,13 +5232,13 @@
         <v>214180</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>355</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>356</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>357</v>
       </c>
       <c r="M7" s="7">
         <v>585</v>
@@ -5265,13 +5247,13 @@
         <v>406330</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>358</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>359</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>360</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5286,13 +5268,13 @@
         <v>357673</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="H8" s="7">
         <v>632</v>
@@ -5301,13 +5283,13 @@
         <v>377564</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>363</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>364</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>365</v>
       </c>
       <c r="M8" s="7">
         <v>1020</v>
@@ -5316,13 +5298,13 @@
         <v>735236</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>366</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>367</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5390,13 +5372,13 @@
         <v>354692</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="H10" s="7">
         <v>628</v>
@@ -5405,13 +5387,13 @@
         <v>444288</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>371</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>372</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>373</v>
       </c>
       <c r="M10" s="7">
         <v>989</v>
@@ -5420,13 +5402,13 @@
         <v>798981</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>374</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5441,13 +5423,13 @@
         <v>684556</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="H11" s="7">
         <v>887</v>
@@ -5456,13 +5438,13 @@
         <v>614556</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>379</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>380</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>381</v>
       </c>
       <c r="M11" s="7">
         <v>1490</v>
@@ -5471,13 +5453,13 @@
         <v>1299111</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>382</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>383</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>384</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5545,13 +5527,13 @@
         <v>253540</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>385</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>386</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>387</v>
       </c>
       <c r="H13" s="7">
         <v>387</v>
@@ -5560,13 +5542,13 @@
         <v>281637</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>389</v>
+        <v>59</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="M13" s="7">
         <v>633</v>
@@ -5575,13 +5557,13 @@
         <v>535177</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>391</v>
+        <v>204</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5596,13 +5578,13 @@
         <v>475232</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="H14" s="7">
         <v>659</v>
@@ -5611,13 +5593,13 @@
         <v>591945</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>399</v>
+        <v>67</v>
       </c>
       <c r="M14" s="7">
         <v>1089</v>
@@ -5626,13 +5608,13 @@
         <v>1067177</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>400</v>
+        <v>212</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5700,13 +5682,13 @@
         <v>356302</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="H16" s="7">
         <v>617</v>
@@ -5715,13 +5697,13 @@
         <v>440291</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="M16" s="7">
         <v>1033</v>
@@ -5730,13 +5712,13 @@
         <v>796593</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5751,13 +5733,13 @@
         <v>609101</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="H17" s="7">
         <v>942</v>
@@ -5766,13 +5748,13 @@
         <v>705986</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="M17" s="7">
         <v>1532</v>
@@ -5781,13 +5763,13 @@
         <v>1315087</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5855,13 +5837,13 @@
         <v>1185285</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="H19" s="7">
         <v>2074</v>
@@ -5870,13 +5852,13 @@
         <v>1420816</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="M19" s="7">
         <v>3360</v>
@@ -5885,13 +5867,13 @@
         <v>2606102</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5906,13 +5888,13 @@
         <v>2199943</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="H20" s="7">
         <v>3282</v>
@@ -5921,13 +5903,13 @@
         <v>2380362</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="M20" s="7">
         <v>5372</v>
@@ -5936,13 +5918,13 @@
         <v>4580305</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5998,7 +5980,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P35-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P35-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{48B3A177-F624-42CB-9514-25D8A3D0E53E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6FBABE29-C22A-47D0-9B3B-4C3160928768}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{CDDF9958-FCE1-4523-8C25-B50A396D630E}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{ED7D00DF-FE4C-4E55-A287-627B76D6F955}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="433">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="429">
   <si>
     <t>Población según si su médico le ha aconsejado que realice algún tipo de ejercicio físico en 2007 (Tasa respuesta: 95,19%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>15,63%</t>
   </si>
   <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>22,74%</t>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>24,08%</t>
   </si>
   <si>
     <t>23,92%</t>
   </si>
   <si>
-    <t>16,47%</t>
-  </si>
-  <si>
-    <t>31,14%</t>
+    <t>17,04%</t>
+  </si>
+  <si>
+    <t>31,16%</t>
   </si>
   <si>
     <t>19,74%</t>
   </si>
   <si>
-    <t>14,52%</t>
-  </si>
-  <si>
-    <t>24,86%</t>
+    <t>15,34%</t>
+  </si>
+  <si>
+    <t>25,34%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>84,37%</t>
   </si>
   <si>
-    <t>77,26%</t>
-  </si>
-  <si>
-    <t>90,84%</t>
+    <t>75,92%</t>
+  </si>
+  <si>
+    <t>90,68%</t>
   </si>
   <si>
     <t>76,08%</t>
   </si>
   <si>
-    <t>68,86%</t>
-  </si>
-  <si>
-    <t>83,53%</t>
+    <t>68,84%</t>
+  </si>
+  <si>
+    <t>82,96%</t>
   </si>
   <si>
     <t>80,26%</t>
   </si>
   <si>
-    <t>75,14%</t>
-  </si>
-  <si>
-    <t>85,48%</t>
+    <t>74,66%</t>
+  </si>
+  <si>
+    <t>84,66%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,10 +140,10 @@
     <t>18,62%</t>
   </si>
   <si>
-    <t>15,64%</t>
-  </si>
-  <si>
-    <t>22,05%</t>
+    <t>15,38%</t>
+  </si>
+  <si>
+    <t>21,95%</t>
   </si>
   <si>
     <t>22,07%</t>
@@ -152,580 +152,586 @@
     <t>18,55%</t>
   </si>
   <si>
-    <t>25,86%</t>
+    <t>25,6%</t>
   </si>
   <si>
     <t>20,34%</t>
   </si>
   <si>
-    <t>17,79%</t>
+    <t>17,85%</t>
+  </si>
+  <si>
+    <t>22,61%</t>
+  </si>
+  <si>
+    <t>81,38%</t>
+  </si>
+  <si>
+    <t>78,05%</t>
+  </si>
+  <si>
+    <t>84,62%</t>
+  </si>
+  <si>
+    <t>77,93%</t>
+  </si>
+  <si>
+    <t>74,4%</t>
+  </si>
+  <si>
+    <t>81,45%</t>
+  </si>
+  <si>
+    <t>79,66%</t>
+  </si>
+  <si>
+    <t>77,39%</t>
+  </si>
+  <si>
+    <t>82,15%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>15,78%</t>
+  </si>
+  <si>
+    <t>13,56%</t>
+  </si>
+  <si>
+    <t>18,45%</t>
+  </si>
+  <si>
+    <t>23,32%</t>
+  </si>
+  <si>
+    <t>20,58%</t>
+  </si>
+  <si>
+    <t>26,4%</t>
+  </si>
+  <si>
+    <t>19,54%</t>
+  </si>
+  <si>
+    <t>17,64%</t>
+  </si>
+  <si>
+    <t>21,49%</t>
+  </si>
+  <si>
+    <t>84,22%</t>
+  </si>
+  <si>
+    <t>81,55%</t>
+  </si>
+  <si>
+    <t>86,44%</t>
+  </si>
+  <si>
+    <t>76,68%</t>
+  </si>
+  <si>
+    <t>73,6%</t>
+  </si>
+  <si>
+    <t>79,42%</t>
+  </si>
+  <si>
+    <t>80,46%</t>
+  </si>
+  <si>
+    <t>78,51%</t>
+  </si>
+  <si>
+    <t>82,36%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>20,2%</t>
+  </si>
+  <si>
+    <t>17,15%</t>
+  </si>
+  <si>
+    <t>25,53%</t>
+  </si>
+  <si>
+    <t>22,3%</t>
+  </si>
+  <si>
+    <t>28,85%</t>
+  </si>
+  <si>
+    <t>22,87%</t>
+  </si>
+  <si>
+    <t>20,57%</t>
+  </si>
+  <si>
+    <t>25,18%</t>
+  </si>
+  <si>
+    <t>79,8%</t>
+  </si>
+  <si>
+    <t>82,85%</t>
+  </si>
+  <si>
+    <t>74,47%</t>
+  </si>
+  <si>
+    <t>71,15%</t>
+  </si>
+  <si>
+    <t>77,7%</t>
+  </si>
+  <si>
+    <t>77,13%</t>
+  </si>
+  <si>
+    <t>74,82%</t>
+  </si>
+  <si>
+    <t>79,43%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>16,93%</t>
+  </si>
+  <si>
+    <t>14,77%</t>
+  </si>
+  <si>
+    <t>19,25%</t>
+  </si>
+  <si>
+    <t>16,85%</t>
+  </si>
+  <si>
+    <t>14,63%</t>
+  </si>
+  <si>
+    <t>19,43%</t>
+  </si>
+  <si>
+    <t>16,89%</t>
+  </si>
+  <si>
+    <t>15,2%</t>
+  </si>
+  <si>
+    <t>18,53%</t>
+  </si>
+  <si>
+    <t>83,07%</t>
+  </si>
+  <si>
+    <t>80,75%</t>
+  </si>
+  <si>
+    <t>85,23%</t>
+  </si>
+  <si>
+    <t>83,15%</t>
+  </si>
+  <si>
+    <t>80,57%</t>
+  </si>
+  <si>
+    <t>85,37%</t>
+  </si>
+  <si>
+    <t>83,11%</t>
+  </si>
+  <si>
+    <t>81,47%</t>
+  </si>
+  <si>
+    <t>84,8%</t>
+  </si>
+  <si>
+    <t>17,5%</t>
+  </si>
+  <si>
+    <t>16,28%</t>
+  </si>
+  <si>
+    <t>18,79%</t>
+  </si>
+  <si>
+    <t>21,56%</t>
+  </si>
+  <si>
+    <t>20,18%</t>
+  </si>
+  <si>
+    <t>23,21%</t>
+  </si>
+  <si>
+    <t>19,56%</t>
+  </si>
+  <si>
+    <t>18,61%</t>
+  </si>
+  <si>
+    <t>20,5%</t>
+  </si>
+  <si>
+    <t>82,5%</t>
+  </si>
+  <si>
+    <t>81,21%</t>
+  </si>
+  <si>
+    <t>83,72%</t>
+  </si>
+  <si>
+    <t>78,44%</t>
+  </si>
+  <si>
+    <t>76,79%</t>
+  </si>
+  <si>
+    <t>79,82%</t>
+  </si>
+  <si>
+    <t>80,44%</t>
+  </si>
+  <si>
+    <t>79,5%</t>
+  </si>
+  <si>
+    <t>81,39%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si su médico le ha aconsejado que realice algún tipo de ejercicio físico en 2012 (Tasa respuesta: 97,06%)</t>
+  </si>
+  <si>
+    <t>21,28%</t>
+  </si>
+  <si>
+    <t>15,01%</t>
+  </si>
+  <si>
+    <t>29,34%</t>
+  </si>
+  <si>
+    <t>31,56%</t>
+  </si>
+  <si>
+    <t>22,8%</t>
+  </si>
+  <si>
+    <t>41,47%</t>
+  </si>
+  <si>
+    <t>26,23%</t>
+  </si>
+  <si>
+    <t>20,26%</t>
+  </si>
+  <si>
+    <t>33,06%</t>
+  </si>
+  <si>
+    <t>78,72%</t>
+  </si>
+  <si>
+    <t>70,66%</t>
+  </si>
+  <si>
+    <t>84,99%</t>
+  </si>
+  <si>
+    <t>68,44%</t>
+  </si>
+  <si>
+    <t>58,53%</t>
+  </si>
+  <si>
+    <t>77,2%</t>
+  </si>
+  <si>
+    <t>73,77%</t>
+  </si>
+  <si>
+    <t>66,94%</t>
+  </si>
+  <si>
+    <t>79,74%</t>
+  </si>
+  <si>
+    <t>24,89%</t>
+  </si>
+  <si>
+    <t>21,36%</t>
+  </si>
+  <si>
+    <t>28,8%</t>
+  </si>
+  <si>
+    <t>32,05%</t>
+  </si>
+  <si>
+    <t>28,07%</t>
+  </si>
+  <si>
+    <t>36,18%</t>
+  </si>
+  <si>
+    <t>28,44%</t>
+  </si>
+  <si>
+    <t>25,71%</t>
+  </si>
+  <si>
+    <t>31,24%</t>
+  </si>
+  <si>
+    <t>75,11%</t>
+  </si>
+  <si>
+    <t>71,2%</t>
+  </si>
+  <si>
+    <t>78,64%</t>
+  </si>
+  <si>
+    <t>67,95%</t>
+  </si>
+  <si>
+    <t>63,82%</t>
+  </si>
+  <si>
+    <t>71,93%</t>
+  </si>
+  <si>
+    <t>71,56%</t>
+  </si>
+  <si>
+    <t>68,76%</t>
+  </si>
+  <si>
+    <t>74,29%</t>
+  </si>
+  <si>
+    <t>25,92%</t>
+  </si>
+  <si>
+    <t>23,31%</t>
+  </si>
+  <si>
+    <t>29,0%</t>
+  </si>
+  <si>
+    <t>34,89%</t>
+  </si>
+  <si>
+    <t>31,83%</t>
+  </si>
+  <si>
+    <t>38,01%</t>
+  </si>
+  <si>
+    <t>30,43%</t>
+  </si>
+  <si>
+    <t>28,29%</t>
+  </si>
+  <si>
+    <t>32,44%</t>
+  </si>
+  <si>
+    <t>74,08%</t>
+  </si>
+  <si>
+    <t>71,0%</t>
+  </si>
+  <si>
+    <t>76,69%</t>
+  </si>
+  <si>
+    <t>65,11%</t>
+  </si>
+  <si>
+    <t>61,99%</t>
+  </si>
+  <si>
+    <t>68,17%</t>
+  </si>
+  <si>
+    <t>69,57%</t>
+  </si>
+  <si>
+    <t>67,56%</t>
+  </si>
+  <si>
+    <t>71,71%</t>
+  </si>
+  <si>
+    <t>26,44%</t>
   </si>
   <si>
     <t>22,68%</t>
   </si>
   <si>
-    <t>81,38%</t>
-  </si>
-  <si>
-    <t>77,95%</t>
-  </si>
-  <si>
-    <t>84,36%</t>
-  </si>
-  <si>
-    <t>77,93%</t>
-  </si>
-  <si>
-    <t>74,14%</t>
-  </si>
-  <si>
-    <t>81,45%</t>
-  </si>
-  <si>
-    <t>79,66%</t>
+    <t>30,08%</t>
+  </si>
+  <si>
+    <t>35,17%</t>
+  </si>
+  <si>
+    <t>31,7%</t>
+  </si>
+  <si>
+    <t>39,03%</t>
+  </si>
+  <si>
+    <t>30,85%</t>
+  </si>
+  <si>
+    <t>28,45%</t>
+  </si>
+  <si>
+    <t>33,4%</t>
+  </si>
+  <si>
+    <t>73,56%</t>
+  </si>
+  <si>
+    <t>69,92%</t>
   </si>
   <si>
     <t>77,32%</t>
   </si>
   <si>
-    <t>82,21%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>13,65%</t>
-  </si>
-  <si>
-    <t>18,3%</t>
-  </si>
-  <si>
-    <t>23,32%</t>
-  </si>
-  <si>
-    <t>20,48%</t>
+    <t>64,83%</t>
+  </si>
+  <si>
+    <t>60,97%</t>
+  </si>
+  <si>
+    <t>68,3%</t>
+  </si>
+  <si>
+    <t>69,15%</t>
+  </si>
+  <si>
+    <t>66,6%</t>
+  </si>
+  <si>
+    <t>71,55%</t>
+  </si>
+  <si>
+    <t>26,92%</t>
+  </si>
+  <si>
+    <t>23,83%</t>
+  </si>
+  <si>
+    <t>30,35%</t>
+  </si>
+  <si>
+    <t>34,95%</t>
+  </si>
+  <si>
+    <t>31,87%</t>
+  </si>
+  <si>
+    <t>37,83%</t>
+  </si>
+  <si>
+    <t>31,17%</t>
+  </si>
+  <si>
+    <t>33,64%</t>
+  </si>
+  <si>
+    <t>73,08%</t>
+  </si>
+  <si>
+    <t>69,65%</t>
+  </si>
+  <si>
+    <t>76,17%</t>
+  </si>
+  <si>
+    <t>65,05%</t>
+  </si>
+  <si>
+    <t>62,17%</t>
+  </si>
+  <si>
+    <t>68,13%</t>
+  </si>
+  <si>
+    <t>68,83%</t>
+  </si>
+  <si>
+    <t>66,36%</t>
   </si>
   <si>
     <t>25,97%</t>
   </si>
   <si>
-    <t>19,54%</t>
-  </si>
-  <si>
-    <t>17,62%</t>
-  </si>
-  <si>
-    <t>21,45%</t>
-  </si>
-  <si>
-    <t>84,22%</t>
-  </si>
-  <si>
-    <t>81,7%</t>
-  </si>
-  <si>
-    <t>86,35%</t>
-  </si>
-  <si>
-    <t>76,68%</t>
+    <t>24,29%</t>
+  </si>
+  <si>
+    <t>27,43%</t>
+  </si>
+  <si>
+    <t>34,4%</t>
+  </si>
+  <si>
+    <t>32,8%</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>30,26%</t>
+  </si>
+  <si>
+    <t>29,17%</t>
+  </si>
+  <si>
+    <t>31,43%</t>
   </si>
   <si>
     <t>74,03%</t>
   </si>
   <si>
-    <t>79,52%</t>
-  </si>
-  <si>
-    <t>80,46%</t>
-  </si>
-  <si>
-    <t>78,55%</t>
-  </si>
-  <si>
-    <t>82,38%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>20,2%</t>
-  </si>
-  <si>
-    <t>17,0%</t>
-  </si>
-  <si>
-    <t>23,22%</t>
-  </si>
-  <si>
-    <t>25,53%</t>
-  </si>
-  <si>
-    <t>22,1%</t>
-  </si>
-  <si>
-    <t>29,02%</t>
-  </si>
-  <si>
-    <t>22,87%</t>
-  </si>
-  <si>
-    <t>20,42%</t>
-  </si>
-  <si>
-    <t>25,29%</t>
-  </si>
-  <si>
-    <t>79,8%</t>
-  </si>
-  <si>
-    <t>76,78%</t>
-  </si>
-  <si>
-    <t>83,0%</t>
-  </si>
-  <si>
-    <t>74,47%</t>
-  </si>
-  <si>
-    <t>70,98%</t>
-  </si>
-  <si>
-    <t>77,9%</t>
-  </si>
-  <si>
-    <t>77,13%</t>
-  </si>
-  <si>
-    <t>74,71%</t>
-  </si>
-  <si>
-    <t>79,58%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>16,93%</t>
-  </si>
-  <si>
-    <t>14,62%</t>
-  </si>
-  <si>
-    <t>19,44%</t>
-  </si>
-  <si>
-    <t>16,85%</t>
-  </si>
-  <si>
-    <t>14,68%</t>
-  </si>
-  <si>
-    <t>19,25%</t>
-  </si>
-  <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>15,35%</t>
-  </si>
-  <si>
-    <t>18,8%</t>
-  </si>
-  <si>
-    <t>83,07%</t>
-  </si>
-  <si>
-    <t>80,56%</t>
-  </si>
-  <si>
-    <t>85,38%</t>
-  </si>
-  <si>
-    <t>83,15%</t>
-  </si>
-  <si>
-    <t>80,75%</t>
-  </si>
-  <si>
-    <t>85,32%</t>
-  </si>
-  <si>
-    <t>83,11%</t>
-  </si>
-  <si>
-    <t>81,2%</t>
-  </si>
-  <si>
-    <t>84,65%</t>
-  </si>
-  <si>
-    <t>17,5%</t>
-  </si>
-  <si>
-    <t>16,15%</t>
-  </si>
-  <si>
-    <t>21,56%</t>
-  </si>
-  <si>
-    <t>20,08%</t>
-  </si>
-  <si>
-    <t>23,01%</t>
-  </si>
-  <si>
-    <t>19,56%</t>
-  </si>
-  <si>
-    <t>18,52%</t>
-  </si>
-  <si>
-    <t>20,57%</t>
-  </si>
-  <si>
-    <t>82,5%</t>
-  </si>
-  <si>
-    <t>83,85%</t>
-  </si>
-  <si>
-    <t>78,44%</t>
-  </si>
-  <si>
-    <t>76,99%</t>
-  </si>
-  <si>
-    <t>79,92%</t>
-  </si>
-  <si>
-    <t>80,44%</t>
-  </si>
-  <si>
-    <t>79,43%</t>
-  </si>
-  <si>
-    <t>81,48%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si su médico le ha aconsejado que realice algún tipo de ejercicio físico en 2012 (Tasa respuesta: 97,06%)</t>
-  </si>
-  <si>
-    <t>21,28%</t>
-  </si>
-  <si>
-    <t>14,26%</t>
-  </si>
-  <si>
-    <t>29,16%</t>
-  </si>
-  <si>
-    <t>31,56%</t>
-  </si>
-  <si>
-    <t>22,92%</t>
-  </si>
-  <si>
-    <t>41,42%</t>
-  </si>
-  <si>
-    <t>26,23%</t>
-  </si>
-  <si>
-    <t>20,09%</t>
-  </si>
-  <si>
-    <t>32,04%</t>
-  </si>
-  <si>
-    <t>78,72%</t>
-  </si>
-  <si>
-    <t>70,84%</t>
-  </si>
-  <si>
-    <t>85,74%</t>
-  </si>
-  <si>
-    <t>68,44%</t>
-  </si>
-  <si>
-    <t>58,58%</t>
-  </si>
-  <si>
-    <t>77,08%</t>
-  </si>
-  <si>
-    <t>73,77%</t>
-  </si>
-  <si>
-    <t>67,96%</t>
-  </si>
-  <si>
-    <t>79,91%</t>
-  </si>
-  <si>
-    <t>24,89%</t>
-  </si>
-  <si>
-    <t>20,98%</t>
-  </si>
-  <si>
-    <t>28,61%</t>
-  </si>
-  <si>
-    <t>32,05%</t>
-  </si>
-  <si>
-    <t>28,16%</t>
-  </si>
-  <si>
-    <t>35,57%</t>
-  </si>
-  <si>
-    <t>28,44%</t>
-  </si>
-  <si>
-    <t>25,76%</t>
-  </si>
-  <si>
-    <t>31,19%</t>
-  </si>
-  <si>
-    <t>75,11%</t>
-  </si>
-  <si>
-    <t>71,39%</t>
-  </si>
-  <si>
-    <t>79,02%</t>
-  </si>
-  <si>
-    <t>67,95%</t>
-  </si>
-  <si>
-    <t>64,43%</t>
-  </si>
-  <si>
-    <t>71,84%</t>
-  </si>
-  <si>
-    <t>71,56%</t>
-  </si>
-  <si>
-    <t>68,81%</t>
-  </si>
-  <si>
-    <t>74,24%</t>
-  </si>
-  <si>
-    <t>25,92%</t>
-  </si>
-  <si>
-    <t>23,04%</t>
-  </si>
-  <si>
-    <t>29,03%</t>
-  </si>
-  <si>
-    <t>34,89%</t>
-  </si>
-  <si>
-    <t>31,88%</t>
-  </si>
-  <si>
-    <t>38,28%</t>
-  </si>
-  <si>
-    <t>30,43%</t>
-  </si>
-  <si>
-    <t>28,19%</t>
-  </si>
-  <si>
-    <t>32,65%</t>
-  </si>
-  <si>
-    <t>74,08%</t>
-  </si>
-  <si>
-    <t>70,97%</t>
-  </si>
-  <si>
-    <t>76,96%</t>
-  </si>
-  <si>
-    <t>65,11%</t>
-  </si>
-  <si>
-    <t>61,72%</t>
-  </si>
-  <si>
-    <t>68,12%</t>
-  </si>
-  <si>
-    <t>69,57%</t>
-  </si>
-  <si>
-    <t>67,35%</t>
-  </si>
-  <si>
-    <t>71,81%</t>
-  </si>
-  <si>
-    <t>26,44%</t>
-  </si>
-  <si>
-    <t>23,07%</t>
-  </si>
-  <si>
-    <t>29,88%</t>
-  </si>
-  <si>
-    <t>35,17%</t>
-  </si>
-  <si>
-    <t>31,76%</t>
-  </si>
-  <si>
-    <t>38,95%</t>
-  </si>
-  <si>
-    <t>30,85%</t>
-  </si>
-  <si>
-    <t>28,53%</t>
-  </si>
-  <si>
-    <t>33,33%</t>
-  </si>
-  <si>
-    <t>73,56%</t>
-  </si>
-  <si>
-    <t>70,12%</t>
-  </si>
-  <si>
-    <t>76,93%</t>
-  </si>
-  <si>
-    <t>64,83%</t>
-  </si>
-  <si>
-    <t>61,05%</t>
-  </si>
-  <si>
-    <t>68,24%</t>
-  </si>
-  <si>
-    <t>69,15%</t>
-  </si>
-  <si>
-    <t>66,67%</t>
-  </si>
-  <si>
-    <t>71,47%</t>
-  </si>
-  <si>
-    <t>26,92%</t>
-  </si>
-  <si>
-    <t>23,76%</t>
-  </si>
-  <si>
-    <t>30,15%</t>
-  </si>
-  <si>
-    <t>34,95%</t>
-  </si>
-  <si>
-    <t>32,06%</t>
-  </si>
-  <si>
-    <t>38,15%</t>
-  </si>
-  <si>
-    <t>31,17%</t>
-  </si>
-  <si>
-    <t>33,4%</t>
-  </si>
-  <si>
-    <t>73,08%</t>
-  </si>
-  <si>
-    <t>69,85%</t>
-  </si>
-  <si>
-    <t>76,24%</t>
-  </si>
-  <si>
-    <t>65,05%</t>
-  </si>
-  <si>
-    <t>61,85%</t>
-  </si>
-  <si>
-    <t>67,94%</t>
-  </si>
-  <si>
-    <t>68,83%</t>
-  </si>
-  <si>
-    <t>66,6%</t>
-  </si>
-  <si>
-    <t>24,45%</t>
-  </si>
-  <si>
-    <t>27,51%</t>
-  </si>
-  <si>
-    <t>34,4%</t>
-  </si>
-  <si>
-    <t>32,73%</t>
-  </si>
-  <si>
-    <t>36,23%</t>
-  </si>
-  <si>
-    <t>30,26%</t>
-  </si>
-  <si>
-    <t>29,09%</t>
-  </si>
-  <si>
-    <t>31,49%</t>
-  </si>
-  <si>
-    <t>72,49%</t>
-  </si>
-  <si>
-    <t>75,55%</t>
+    <t>72,57%</t>
+  </si>
+  <si>
+    <t>75,71%</t>
   </si>
   <si>
     <t>65,6%</t>
   </si>
   <si>
-    <t>63,77%</t>
-  </si>
-  <si>
-    <t>67,27%</t>
+    <t>63,75%</t>
+  </si>
+  <si>
+    <t>67,2%</t>
   </si>
   <si>
     <t>69,74%</t>
   </si>
   <si>
-    <t>68,51%</t>
-  </si>
-  <si>
-    <t>70,91%</t>
+    <t>68,57%</t>
+  </si>
+  <si>
+    <t>70,83%</t>
   </si>
   <si>
     <t>Población según si su médico le ha aconsejado que realice algún tipo de ejercicio físico en 2016 (Tasa respuesta: 98,54%)</t>
@@ -734,307 +740,319 @@
     <t>20,06%</t>
   </si>
   <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>28,32%</t>
+    <t>13,96%</t>
+  </si>
+  <si>
+    <t>29,08%</t>
   </si>
   <si>
     <t>31,05%</t>
   </si>
   <si>
-    <t>23,48%</t>
-  </si>
-  <si>
-    <t>40,74%</t>
+    <t>22,39%</t>
+  </si>
+  <si>
+    <t>41,04%</t>
   </si>
   <si>
     <t>25,5%</t>
   </si>
   <si>
-    <t>20,21%</t>
-  </si>
-  <si>
-    <t>31,79%</t>
+    <t>20,16%</t>
+  </si>
+  <si>
+    <t>31,5%</t>
   </si>
   <si>
     <t>79,94%</t>
   </si>
   <si>
-    <t>71,68%</t>
-  </si>
-  <si>
-    <t>87,25%</t>
+    <t>70,92%</t>
+  </si>
+  <si>
+    <t>86,04%</t>
   </si>
   <si>
     <t>68,95%</t>
   </si>
   <si>
-    <t>59,26%</t>
-  </si>
-  <si>
-    <t>76,52%</t>
+    <t>58,96%</t>
+  </si>
+  <si>
+    <t>77,61%</t>
   </si>
   <si>
     <t>74,5%</t>
   </si>
   <si>
-    <t>68,21%</t>
-  </si>
-  <si>
-    <t>79,79%</t>
+    <t>68,5%</t>
+  </si>
+  <si>
+    <t>79,84%</t>
   </si>
   <si>
     <t>22,32%</t>
   </si>
   <si>
-    <t>18,71%</t>
+    <t>19,05%</t>
+  </si>
+  <si>
+    <t>26,5%</t>
   </si>
   <si>
     <t>30,47%</t>
   </si>
   <si>
-    <t>26,58%</t>
-  </si>
-  <si>
-    <t>34,29%</t>
+    <t>26,43%</t>
+  </si>
+  <si>
+    <t>34,3%</t>
   </si>
   <si>
     <t>26,41%</t>
   </si>
   <si>
-    <t>23,77%</t>
-  </si>
-  <si>
-    <t>28,86%</t>
+    <t>24,04%</t>
   </si>
   <si>
     <t>77,68%</t>
   </si>
   <si>
-    <t>81,29%</t>
+    <t>73,5%</t>
+  </si>
+  <si>
+    <t>80,95%</t>
   </si>
   <si>
     <t>69,53%</t>
   </si>
   <si>
-    <t>65,71%</t>
-  </si>
-  <si>
-    <t>73,42%</t>
+    <t>65,7%</t>
+  </si>
+  <si>
+    <t>73,57%</t>
   </si>
   <si>
     <t>73,59%</t>
   </si>
   <si>
-    <t>71,14%</t>
-  </si>
-  <si>
-    <t>76,23%</t>
+    <t>75,96%</t>
   </si>
   <si>
     <t>28,6%</t>
   </si>
   <si>
-    <t>25,93%</t>
+    <t>25,42%</t>
+  </si>
+  <si>
+    <t>31,07%</t>
   </si>
   <si>
     <t>37,53%</t>
   </si>
   <si>
-    <t>34,48%</t>
-  </si>
-  <si>
-    <t>40,61%</t>
+    <t>34,25%</t>
+  </si>
+  <si>
+    <t>40,52%</t>
   </si>
   <si>
     <t>33,09%</t>
   </si>
   <si>
-    <t>30,8%</t>
-  </si>
-  <si>
-    <t>35,37%</t>
+    <t>31,0%</t>
+  </si>
+  <si>
+    <t>35,26%</t>
   </si>
   <si>
     <t>71,4%</t>
   </si>
   <si>
-    <t>74,07%</t>
+    <t>68,93%</t>
+  </si>
+  <si>
+    <t>74,58%</t>
   </si>
   <si>
     <t>62,47%</t>
   </si>
   <si>
-    <t>59,39%</t>
-  </si>
-  <si>
-    <t>65,52%</t>
+    <t>59,48%</t>
+  </si>
+  <si>
+    <t>65,75%</t>
   </si>
   <si>
     <t>66,91%</t>
   </si>
   <si>
-    <t>64,63%</t>
-  </si>
-  <si>
-    <t>69,2%</t>
+    <t>64,74%</t>
+  </si>
+  <si>
+    <t>69,0%</t>
   </si>
   <si>
     <t>32,47%</t>
   </si>
   <si>
-    <t>29,23%</t>
-  </si>
-  <si>
-    <t>36,11%</t>
+    <t>28,93%</t>
+  </si>
+  <si>
+    <t>36,15%</t>
   </si>
   <si>
     <t>37,45%</t>
   </si>
   <si>
-    <t>34,05%</t>
-  </si>
-  <si>
-    <t>41,07%</t>
+    <t>33,8%</t>
+  </si>
+  <si>
+    <t>40,95%</t>
   </si>
   <si>
     <t>34,99%</t>
   </si>
   <si>
-    <t>32,51%</t>
-  </si>
-  <si>
-    <t>37,47%</t>
+    <t>32,61%</t>
+  </si>
+  <si>
+    <t>37,63%</t>
   </si>
   <si>
     <t>67,53%</t>
   </si>
   <si>
-    <t>63,89%</t>
-  </si>
-  <si>
-    <t>70,77%</t>
+    <t>63,85%</t>
+  </si>
+  <si>
+    <t>71,07%</t>
   </si>
   <si>
     <t>62,55%</t>
   </si>
   <si>
-    <t>58,93%</t>
-  </si>
-  <si>
-    <t>65,95%</t>
+    <t>59,05%</t>
+  </si>
+  <si>
+    <t>66,2%</t>
   </si>
   <si>
     <t>65,01%</t>
   </si>
   <si>
-    <t>62,53%</t>
-  </si>
-  <si>
-    <t>67,49%</t>
+    <t>62,37%</t>
+  </si>
+  <si>
+    <t>67,39%</t>
   </si>
   <si>
     <t>27,67%</t>
   </si>
   <si>
-    <t>30,61%</t>
+    <t>24,7%</t>
+  </si>
+  <si>
+    <t>30,52%</t>
   </si>
   <si>
     <t>32,97%</t>
   </si>
   <si>
-    <t>29,93%</t>
-  </si>
-  <si>
-    <t>35,82%</t>
+    <t>29,86%</t>
+  </si>
+  <si>
+    <t>35,89%</t>
   </si>
   <si>
     <t>30,49%</t>
   </si>
   <si>
-    <t>28,29%</t>
-  </si>
-  <si>
-    <t>32,62%</t>
+    <t>28,18%</t>
+  </si>
+  <si>
+    <t>32,64%</t>
   </si>
   <si>
     <t>72,33%</t>
   </si>
   <si>
-    <t>69,39%</t>
+    <t>69,48%</t>
+  </si>
+  <si>
+    <t>75,3%</t>
   </si>
   <si>
     <t>67,03%</t>
   </si>
   <si>
-    <t>64,18%</t>
-  </si>
-  <si>
-    <t>70,07%</t>
+    <t>64,11%</t>
+  </si>
+  <si>
+    <t>70,14%</t>
   </si>
   <si>
     <t>69,51%</t>
   </si>
   <si>
-    <t>67,38%</t>
-  </si>
-  <si>
-    <t>71,71%</t>
+    <t>67,36%</t>
+  </si>
+  <si>
+    <t>71,82%</t>
   </si>
   <si>
     <t>27,89%</t>
   </si>
   <si>
-    <t>26,47%</t>
-  </si>
-  <si>
-    <t>29,48%</t>
+    <t>26,35%</t>
+  </si>
+  <si>
+    <t>29,55%</t>
   </si>
   <si>
     <t>34,84%</t>
   </si>
   <si>
-    <t>33,08%</t>
-  </si>
-  <si>
-    <t>36,5%</t>
+    <t>33,29%</t>
+  </si>
+  <si>
+    <t>36,43%</t>
   </si>
   <si>
     <t>31,44%</t>
   </si>
   <si>
-    <t>30,3%</t>
-  </si>
-  <si>
-    <t>32,64%</t>
+    <t>30,37%</t>
+  </si>
+  <si>
+    <t>32,66%</t>
   </si>
   <si>
     <t>72,11%</t>
   </si>
   <si>
-    <t>70,52%</t>
-  </si>
-  <si>
-    <t>73,53%</t>
+    <t>70,45%</t>
+  </si>
+  <si>
+    <t>73,65%</t>
   </si>
   <si>
     <t>65,16%</t>
   </si>
   <si>
-    <t>63,5%</t>
-  </si>
-  <si>
-    <t>66,92%</t>
+    <t>63,57%</t>
+  </si>
+  <si>
+    <t>66,71%</t>
   </si>
   <si>
     <t>68,56%</t>
   </si>
   <si>
-    <t>67,36%</t>
-  </si>
-  <si>
-    <t>69,7%</t>
+    <t>67,34%</t>
+  </si>
+  <si>
+    <t>69,63%</t>
   </si>
   <si>
     <t>Población según si su médico le ha aconsejado que realice algún tipo de ejercicio físico en 2023 (Tasa respuesta: 99,87%)</t>
@@ -1043,217 +1061,193 @@
     <t>28,04%</t>
   </si>
   <si>
-    <t>19,69%</t>
-  </si>
-  <si>
-    <t>37,37%</t>
-  </si>
-  <si>
     <t>30,92%</t>
   </si>
   <si>
-    <t>25,15%</t>
-  </si>
-  <si>
-    <t>37,96%</t>
+    <t>38,21%</t>
   </si>
   <si>
     <t>29,66%</t>
   </si>
   <si>
-    <t>24,22%</t>
-  </si>
-  <si>
-    <t>35,3%</t>
+    <t>24,31%</t>
+  </si>
+  <si>
+    <t>34,8%</t>
   </si>
   <si>
     <t>71,96%</t>
   </si>
   <si>
-    <t>62,63%</t>
-  </si>
-  <si>
-    <t>80,31%</t>
-  </si>
-  <si>
     <t>69,08%</t>
   </si>
   <si>
-    <t>62,04%</t>
-  </si>
-  <si>
-    <t>74,85%</t>
+    <t>61,79%</t>
   </si>
   <si>
     <t>70,34%</t>
   </si>
   <si>
-    <t>64,7%</t>
-  </si>
-  <si>
-    <t>75,78%</t>
-  </si>
-  <si>
-    <t>31,07%</t>
-  </si>
-  <si>
-    <t>39,14%</t>
+    <t>65,2%</t>
+  </si>
+  <si>
+    <t>75,69%</t>
+  </si>
+  <si>
+    <t>30,93%</t>
+  </si>
+  <si>
+    <t>39,49%</t>
   </si>
   <si>
     <t>36,19%</t>
   </si>
   <si>
-    <t>33,23%</t>
-  </si>
-  <si>
-    <t>39,56%</t>
+    <t>33,19%</t>
+  </si>
+  <si>
+    <t>39,71%</t>
   </si>
   <si>
     <t>35,59%</t>
   </si>
   <si>
-    <t>33,07%</t>
-  </si>
-  <si>
-    <t>38,37%</t>
-  </si>
-  <si>
-    <t>60,86%</t>
-  </si>
-  <si>
-    <t>68,93%</t>
+    <t>38,31%</t>
+  </si>
+  <si>
+    <t>60,51%</t>
+  </si>
+  <si>
+    <t>69,07%</t>
   </si>
   <si>
     <t>63,81%</t>
   </si>
   <si>
-    <t>60,44%</t>
-  </si>
-  <si>
-    <t>66,77%</t>
+    <t>60,29%</t>
+  </si>
+  <si>
+    <t>66,81%</t>
   </si>
   <si>
     <t>64,41%</t>
   </si>
   <si>
-    <t>61,63%</t>
-  </si>
-  <si>
-    <t>66,93%</t>
+    <t>61,69%</t>
   </si>
   <si>
     <t>34,13%</t>
   </si>
   <si>
-    <t>38,11%</t>
+    <t>28,59%</t>
+  </si>
+  <si>
+    <t>37,91%</t>
   </si>
   <si>
     <t>41,96%</t>
   </si>
   <si>
-    <t>39,02%</t>
-  </si>
-  <si>
-    <t>44,72%</t>
+    <t>39,37%</t>
+  </si>
+  <si>
+    <t>45,04%</t>
   </si>
   <si>
     <t>38,08%</t>
   </si>
   <si>
-    <t>34,45%</t>
-  </si>
-  <si>
-    <t>40,27%</t>
+    <t>40,67%</t>
   </si>
   <si>
     <t>65,87%</t>
   </si>
   <si>
-    <t>61,89%</t>
+    <t>62,09%</t>
+  </si>
+  <si>
+    <t>71,41%</t>
   </si>
   <si>
     <t>58,04%</t>
   </si>
   <si>
-    <t>55,28%</t>
-  </si>
-  <si>
-    <t>60,98%</t>
+    <t>54,96%</t>
+  </si>
+  <si>
+    <t>60,63%</t>
   </si>
   <si>
     <t>61,92%</t>
   </si>
   <si>
-    <t>59,73%</t>
-  </si>
-  <si>
-    <t>65,55%</t>
+    <t>59,33%</t>
   </si>
   <si>
     <t>34,79%</t>
   </si>
   <si>
-    <t>30,76%</t>
-  </si>
-  <si>
-    <t>39,18%</t>
+    <t>30,72%</t>
+  </si>
+  <si>
+    <t>38,98%</t>
   </si>
   <si>
     <t>32,24%</t>
   </si>
   <si>
-    <t>37,95%</t>
-  </si>
-  <si>
-    <t>25,87%</t>
-  </si>
-  <si>
-    <t>36,87%</t>
+    <t>21,67%</t>
+  </si>
+  <si>
+    <t>37,85%</t>
+  </si>
+  <si>
+    <t>36,92%</t>
   </si>
   <si>
     <t>65,21%</t>
   </si>
   <si>
-    <t>60,82%</t>
-  </si>
-  <si>
-    <t>69,24%</t>
+    <t>61,02%</t>
+  </si>
+  <si>
+    <t>69,28%</t>
   </si>
   <si>
     <t>67,76%</t>
   </si>
   <si>
-    <t>62,05%</t>
-  </si>
-  <si>
-    <t>63,13%</t>
-  </si>
-  <si>
-    <t>74,13%</t>
+    <t>62,15%</t>
+  </si>
+  <si>
+    <t>78,33%</t>
+  </si>
+  <si>
+    <t>63,08%</t>
   </si>
   <si>
     <t>36,91%</t>
   </si>
   <si>
-    <t>33,94%</t>
-  </si>
-  <si>
-    <t>40,21%</t>
+    <t>33,65%</t>
+  </si>
+  <si>
+    <t>40,05%</t>
   </si>
   <si>
     <t>38,41%</t>
   </si>
   <si>
-    <t>35,51%</t>
-  </si>
-  <si>
-    <t>41,49%</t>
+    <t>35,66%</t>
+  </si>
+  <si>
+    <t>41,22%</t>
   </si>
   <si>
     <t>37,72%</t>
   </si>
   <si>
-    <t>35,69%</t>
+    <t>35,47%</t>
   </si>
   <si>
     <t>39,88%</t>
@@ -1262,19 +1256,19 @@
     <t>63,09%</t>
   </si>
   <si>
-    <t>59,79%</t>
-  </si>
-  <si>
-    <t>66,06%</t>
+    <t>59,95%</t>
+  </si>
+  <si>
+    <t>66,35%</t>
   </si>
   <si>
     <t>61,59%</t>
   </si>
   <si>
-    <t>58,51%</t>
-  </si>
-  <si>
-    <t>64,49%</t>
+    <t>58,78%</t>
+  </si>
+  <si>
+    <t>64,34%</t>
   </si>
   <si>
     <t>62,28%</t>
@@ -1283,61 +1277,55 @@
     <t>60,12%</t>
   </si>
   <si>
-    <t>64,31%</t>
+    <t>64,53%</t>
   </si>
   <si>
     <t>35,01%</t>
   </si>
   <si>
-    <t>32,91%</t>
-  </si>
-  <si>
-    <t>37,01%</t>
+    <t>37,09%</t>
   </si>
   <si>
     <t>37,38%</t>
   </si>
   <si>
-    <t>32,75%</t>
-  </si>
-  <si>
-    <t>39,06%</t>
+    <t>33,59%</t>
+  </si>
+  <si>
+    <t>39,22%</t>
   </si>
   <si>
     <t>36,26%</t>
   </si>
   <si>
-    <t>34,3%</t>
-  </si>
-  <si>
-    <t>37,67%</t>
+    <t>34,08%</t>
+  </si>
+  <si>
+    <t>37,66%</t>
   </si>
   <si>
     <t>64,99%</t>
   </si>
   <si>
-    <t>62,99%</t>
-  </si>
-  <si>
-    <t>67,09%</t>
+    <t>62,91%</t>
   </si>
   <si>
     <t>62,62%</t>
   </si>
   <si>
-    <t>60,94%</t>
-  </si>
-  <si>
-    <t>67,25%</t>
+    <t>60,78%</t>
+  </si>
+  <si>
+    <t>66,41%</t>
   </si>
   <si>
     <t>63,74%</t>
   </si>
   <si>
-    <t>62,33%</t>
-  </si>
-  <si>
-    <t>65,7%</t>
+    <t>62,34%</t>
+  </si>
+  <si>
+    <t>65,92%</t>
   </si>
 </sst>
 </file>
@@ -1749,7 +1737,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41495E8E-BC53-472F-AF1E-7BCC080F696D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C41ED768-E520-4BD2-879D-271FA441DA92}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2344,7 +2332,7 @@
         <v>71</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>72</v>
+        <v>14</v>
       </c>
       <c r="H13" s="7">
         <v>167</v>
@@ -2353,13 +2341,13 @@
         <v>161985</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>290</v>
@@ -2368,13 +2356,13 @@
         <v>289780</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2389,13 +2377,13 @@
         <v>504815</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>479</v>
@@ -2404,13 +2392,13 @@
         <v>472491</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>952</v>
@@ -2419,13 +2407,13 @@
         <v>977305</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2481,7 +2469,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2493,13 +2481,13 @@
         <v>153490</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>161</v>
@@ -2508,13 +2496,13 @@
         <v>167652</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>329</v>
@@ -2523,13 +2511,13 @@
         <v>321141</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2544,13 +2532,13 @@
         <v>753068</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>793</v>
@@ -2559,13 +2547,13 @@
         <v>827267</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>1581</v>
@@ -2574,13 +2562,13 @@
         <v>1580335</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2648,13 +2636,13 @@
         <v>547321</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>97</v>
       </c>
       <c r="H19" s="7">
         <v>676</v>
@@ -2663,13 +2651,13 @@
         <v>691606</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="M19" s="7">
         <v>1231</v>
@@ -2678,13 +2666,13 @@
         <v>1238927</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2699,10 +2687,10 @@
         <v>2579902</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>105</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>116</v>
@@ -2812,7 +2800,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6CA57D4-A6E1-41AF-9A74-C639CBD6C654}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8745E6F1-4C6B-4FEB-A263-2FEEDAC349C9}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3398,7 +3386,7 @@
         <v>173</v>
       </c>
       <c r="D13" s="7">
-        <v>196270</v>
+        <v>196269</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>179</v>
@@ -3500,7 +3488,7 @@
         <v>675</v>
       </c>
       <c r="D15" s="7">
-        <v>742403</v>
+        <v>742402</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -3544,7 +3532,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3589,7 +3577,7 @@
         <v>203</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>127</v>
+        <v>163</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>204</v>
@@ -3643,7 +3631,7 @@
         <v>212</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>135</v>
+        <v>171</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3711,13 +3699,13 @@
         <v>864034</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>56</v>
+        <v>213</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="H19" s="7">
         <v>1091</v>
@@ -3726,13 +3714,13 @@
         <v>1187387</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="M19" s="7">
         <v>1880</v>
@@ -3741,13 +3729,13 @@
         <v>2051421</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3762,13 +3750,13 @@
         <v>2463500</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>64</v>
+        <v>222</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="H20" s="7">
         <v>2107</v>
@@ -3777,13 +3765,13 @@
         <v>2264727</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="M20" s="7">
         <v>4436</v>
@@ -3792,13 +3780,13 @@
         <v>4728227</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3875,7 +3863,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A74881B9-46F3-49AB-95C8-1C46443BA215}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66EED492-AF26-4A01-BFF3-BA508ADD36B1}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3892,7 +3880,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3999,13 +3987,13 @@
         <v>23033</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="H4" s="7">
         <v>34</v>
@@ -4014,13 +4002,13 @@
         <v>34896</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="M4" s="7">
         <v>57</v>
@@ -4029,13 +4017,13 @@
         <v>57929</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4050,13 +4038,13 @@
         <v>91758</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="H5" s="7">
         <v>80</v>
@@ -4065,13 +4053,13 @@
         <v>77502</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="M5" s="7">
         <v>169</v>
@@ -4080,13 +4068,13 @@
         <v>169260</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4154,13 +4142,13 @@
         <v>122900</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>131</v>
+        <v>252</v>
       </c>
       <c r="H7" s="7">
         <v>165</v>
@@ -4169,13 +4157,13 @@
         <v>169469</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="M7" s="7">
         <v>283</v>
@@ -4184,13 +4172,13 @@
         <v>292368</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>255</v>
+        <v>127</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4205,13 +4193,13 @@
         <v>427845</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>140</v>
+        <v>259</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="H8" s="7">
         <v>383</v>
@@ -4220,13 +4208,13 @@
         <v>386682</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="M8" s="7">
         <v>796</v>
@@ -4235,13 +4223,13 @@
         <v>814528</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>262</v>
+        <v>135</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4309,13 +4297,13 @@
         <v>289731</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>128</v>
+        <v>268</v>
       </c>
       <c r="H10" s="7">
         <v>354</v>
@@ -4324,13 +4312,13 @@
         <v>385370</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="M10" s="7">
         <v>630</v>
@@ -4339,13 +4327,13 @@
         <v>675101</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4360,13 +4348,13 @@
         <v>723224</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>137</v>
+        <v>276</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="H11" s="7">
         <v>608</v>
@@ -4375,13 +4363,13 @@
         <v>641589</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="M11" s="7">
         <v>1274</v>
@@ -4390,13 +4378,13 @@
         <v>1364813</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4464,13 +4452,13 @@
         <v>244878</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="H13" s="7">
         <v>264</v>
@@ -4479,13 +4467,13 @@
         <v>288706</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="M13" s="7">
         <v>490</v>
@@ -4494,13 +4482,13 @@
         <v>533584</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4515,13 +4503,13 @@
         <v>509274</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="H14" s="7">
         <v>459</v>
@@ -4530,13 +4518,13 @@
         <v>482139</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="M14" s="7">
         <v>925</v>
@@ -4545,13 +4533,13 @@
         <v>991414</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4607,7 +4595,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4619,13 +4607,13 @@
         <v>250915</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>19</v>
+        <v>303</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="H16" s="7">
         <v>306</v>
@@ -4634,13 +4622,13 @@
         <v>339471</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="M16" s="7">
         <v>550</v>
@@ -4649,13 +4637,13 @@
         <v>590385</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4670,13 +4658,13 @@
         <v>655962</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>28</v>
+        <v>313</v>
       </c>
       <c r="H17" s="7">
         <v>641</v>
@@ -4685,13 +4673,13 @@
         <v>690125</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="M17" s="7">
         <v>1299</v>
@@ -4700,13 +4688,13 @@
         <v>1346087</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4774,13 +4762,13 @@
         <v>931456</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="H19" s="7">
         <v>1123</v>
@@ -4789,13 +4777,13 @@
         <v>1217911</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="M19" s="7">
         <v>2010</v>
@@ -4804,13 +4792,13 @@
         <v>2149368</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4825,13 +4813,13 @@
         <v>2408064</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="H20" s="7">
         <v>2171</v>
@@ -4840,13 +4828,13 @@
         <v>2278038</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="M20" s="7">
         <v>4463</v>
@@ -4855,13 +4843,13 @@
         <v>4686101</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4938,7 +4926,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16CBBB4B-F623-42BB-8CEA-BD7D0643E71A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B0F2E0D-1EBD-4EE0-BC06-170F8BEE6BD8}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4955,7 +4943,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5062,13 +5050,13 @@
         <v>28600</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>334</v>
+        <v>89</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>335</v>
+        <v>269</v>
       </c>
       <c r="H4" s="7">
         <v>81</v>
@@ -5077,13 +5065,13 @@
         <v>40421</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>337</v>
+        <v>77</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="M4" s="7">
         <v>120</v>
@@ -5092,13 +5080,13 @@
         <v>69021</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5113,13 +5101,13 @@
         <v>73382</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>343</v>
+        <v>278</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>344</v>
+        <v>97</v>
       </c>
       <c r="H5" s="7">
         <v>162</v>
@@ -5128,13 +5116,13 @@
         <v>90312</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>347</v>
+        <v>84</v>
       </c>
       <c r="M5" s="7">
         <v>241</v>
@@ -5250,10 +5238,10 @@
         <v>356</v>
       </c>
       <c r="P7" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>357</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5271,10 +5259,10 @@
         <v>208</v>
       </c>
       <c r="F8" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>359</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>360</v>
       </c>
       <c r="H8" s="7">
         <v>632</v>
@@ -5283,13 +5271,13 @@
         <v>377564</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>361</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>362</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>363</v>
       </c>
       <c r="M8" s="7">
         <v>1020</v>
@@ -5298,13 +5286,13 @@
         <v>735236</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>364</v>
       </c>
-      <c r="P8" s="7" t="s">
-        <v>365</v>
-      </c>
       <c r="Q8" s="7" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5372,13 +5360,13 @@
         <v>354692</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>367</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>368</v>
       </c>
       <c r="H10" s="7">
         <v>628</v>
@@ -5387,13 +5375,13 @@
         <v>444288</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>369</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>370</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>371</v>
       </c>
       <c r="M10" s="7">
         <v>989</v>
@@ -5402,13 +5390,13 @@
         <v>798981</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>372</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>373</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5423,13 +5411,13 @@
         <v>684556</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>375</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>376</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>158</v>
       </c>
       <c r="H11" s="7">
         <v>887</v>
@@ -5438,13 +5426,13 @@
         <v>614556</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>377</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>378</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>379</v>
       </c>
       <c r="M11" s="7">
         <v>1490</v>
@@ -5453,13 +5441,13 @@
         <v>1299111</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="P11" s="7" t="s">
-        <v>381</v>
-      </c>
       <c r="Q11" s="7" t="s">
-        <v>382</v>
+        <v>332</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5527,13 +5515,13 @@
         <v>253540</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>383</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>384</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>385</v>
       </c>
       <c r="H13" s="7">
         <v>387</v>
@@ -5542,13 +5530,13 @@
         <v>281637</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>386</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>387</v>
       </c>
       <c r="M13" s="7">
         <v>633</v>
@@ -5557,13 +5545,13 @@
         <v>535177</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>204</v>
+        <v>187</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>388</v>
+        <v>256</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5578,13 +5566,13 @@
         <v>475232</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>390</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>391</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>392</v>
       </c>
       <c r="H14" s="7">
         <v>659</v>
@@ -5593,13 +5581,13 @@
         <v>591945</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>393</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>394</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>67</v>
       </c>
       <c r="M14" s="7">
         <v>1089</v>
@@ -5608,13 +5596,13 @@
         <v>1067177</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>212</v>
+        <v>195</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>396</v>
+        <v>264</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5670,7 +5658,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5682,28 +5670,28 @@
         <v>356302</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>397</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>398</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>399</v>
       </c>
       <c r="H16" s="7">
         <v>617</v>
       </c>
       <c r="I16" s="7">
-        <v>440291</v>
+        <v>440290</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>400</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>401</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>402</v>
       </c>
       <c r="M16" s="7">
         <v>1033</v>
@@ -5712,13 +5700,13 @@
         <v>796593</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>403</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>404</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>405</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5733,13 +5721,13 @@
         <v>609101</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>406</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>407</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>408</v>
       </c>
       <c r="H17" s="7">
         <v>942</v>
@@ -5748,13 +5736,13 @@
         <v>705986</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>409</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>410</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>411</v>
       </c>
       <c r="M17" s="7">
         <v>1532</v>
@@ -5763,13 +5751,13 @@
         <v>1315087</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>412</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>413</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>414</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5796,7 +5784,7 @@
         <v>1559</v>
       </c>
       <c r="I18" s="7">
-        <v>1146277</v>
+        <v>1146276</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -5837,13 +5825,13 @@
         <v>1185285</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>416</v>
+        <v>217</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="H19" s="7">
         <v>2074</v>
@@ -5852,13 +5840,13 @@
         <v>1420816</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="M19" s="7">
         <v>3360</v>
@@ -5867,13 +5855,13 @@
         <v>2606102</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5888,13 +5876,13 @@
         <v>2199943</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>426</v>
+        <v>227</v>
       </c>
       <c r="H20" s="7">
         <v>3282</v>
@@ -5903,13 +5891,13 @@
         <v>2380362</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="M20" s="7">
         <v>5372</v>
@@ -5918,13 +5906,13 @@
         <v>4580305</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P35-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P35-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6FBABE29-C22A-47D0-9B3B-4C3160928768}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{485122FF-975D-422C-ABB1-79F720F19AEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{ED7D00DF-FE4C-4E55-A287-627B76D6F955}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{9597E389-A0C3-4AA3-856D-0A3E55AD21B3}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="429">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="368">
   <si>
     <t>Población según si su médico le ha aconsejado que realice algún tipo de ejercicio físico en 2007 (Tasa respuesta: 95,19%)</t>
   </si>
@@ -68,216 +68,165 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
-    <t>15,63%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>24,08%</t>
+    <t>18,11%</t>
+  </si>
+  <si>
+    <t>15,23%</t>
+  </si>
+  <si>
+    <t>20,98%</t>
+  </si>
+  <si>
+    <t>22,38%</t>
+  </si>
+  <si>
+    <t>19,24%</t>
+  </si>
+  <si>
+    <t>25,64%</t>
+  </si>
+  <si>
+    <t>20,24%</t>
+  </si>
+  <si>
+    <t>17,84%</t>
+  </si>
+  <si>
+    <t>22,35%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>81,89%</t>
+  </si>
+  <si>
+    <t>79,02%</t>
+  </si>
+  <si>
+    <t>84,77%</t>
+  </si>
+  <si>
+    <t>77,62%</t>
+  </si>
+  <si>
+    <t>74,36%</t>
+  </si>
+  <si>
+    <t>80,76%</t>
+  </si>
+  <si>
+    <t>79,76%</t>
+  </si>
+  <si>
+    <t>77,65%</t>
+  </si>
+  <si>
+    <t>82,16%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>15,78%</t>
+  </si>
+  <si>
+    <t>13,56%</t>
+  </si>
+  <si>
+    <t>18,45%</t>
+  </si>
+  <si>
+    <t>23,32%</t>
+  </si>
+  <si>
+    <t>20,58%</t>
+  </si>
+  <si>
+    <t>26,4%</t>
+  </si>
+  <si>
+    <t>19,54%</t>
+  </si>
+  <si>
+    <t>17,64%</t>
+  </si>
+  <si>
+    <t>21,49%</t>
+  </si>
+  <si>
+    <t>84,22%</t>
+  </si>
+  <si>
+    <t>81,55%</t>
+  </si>
+  <si>
+    <t>86,44%</t>
+  </si>
+  <si>
+    <t>76,68%</t>
+  </si>
+  <si>
+    <t>73,6%</t>
+  </si>
+  <si>
+    <t>79,42%</t>
+  </si>
+  <si>
+    <t>80,46%</t>
+  </si>
+  <si>
+    <t>78,51%</t>
+  </si>
+  <si>
+    <t>82,36%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>20,2%</t>
+  </si>
+  <si>
+    <t>17,15%</t>
   </si>
   <si>
     <t>23,92%</t>
   </si>
   <si>
-    <t>17,04%</t>
-  </si>
-  <si>
-    <t>31,16%</t>
-  </si>
-  <si>
-    <t>19,74%</t>
-  </si>
-  <si>
-    <t>15,34%</t>
-  </si>
-  <si>
-    <t>25,34%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>84,37%</t>
-  </si>
-  <si>
-    <t>75,92%</t>
-  </si>
-  <si>
-    <t>90,68%</t>
+    <t>25,53%</t>
+  </si>
+  <si>
+    <t>22,3%</t>
+  </si>
+  <si>
+    <t>28,85%</t>
+  </si>
+  <si>
+    <t>22,87%</t>
+  </si>
+  <si>
+    <t>20,57%</t>
+  </si>
+  <si>
+    <t>25,18%</t>
+  </si>
+  <si>
+    <t>79,8%</t>
   </si>
   <si>
     <t>76,08%</t>
   </si>
   <si>
-    <t>68,84%</t>
-  </si>
-  <si>
-    <t>82,96%</t>
-  </si>
-  <si>
-    <t>80,26%</t>
-  </si>
-  <si>
-    <t>74,66%</t>
-  </si>
-  <si>
-    <t>84,66%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>18,62%</t>
-  </si>
-  <si>
-    <t>15,38%</t>
-  </si>
-  <si>
-    <t>21,95%</t>
-  </si>
-  <si>
-    <t>22,07%</t>
-  </si>
-  <si>
-    <t>18,55%</t>
-  </si>
-  <si>
-    <t>25,6%</t>
-  </si>
-  <si>
-    <t>20,34%</t>
-  </si>
-  <si>
-    <t>17,85%</t>
-  </si>
-  <si>
-    <t>22,61%</t>
-  </si>
-  <si>
-    <t>81,38%</t>
-  </si>
-  <si>
-    <t>78,05%</t>
-  </si>
-  <si>
-    <t>84,62%</t>
-  </si>
-  <si>
-    <t>77,93%</t>
-  </si>
-  <si>
-    <t>74,4%</t>
-  </si>
-  <si>
-    <t>81,45%</t>
-  </si>
-  <si>
-    <t>79,66%</t>
-  </si>
-  <si>
-    <t>77,39%</t>
-  </si>
-  <si>
-    <t>82,15%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>13,56%</t>
-  </si>
-  <si>
-    <t>18,45%</t>
-  </si>
-  <si>
-    <t>23,32%</t>
-  </si>
-  <si>
-    <t>20,58%</t>
-  </si>
-  <si>
-    <t>26,4%</t>
-  </si>
-  <si>
-    <t>19,54%</t>
-  </si>
-  <si>
-    <t>17,64%</t>
-  </si>
-  <si>
-    <t>21,49%</t>
-  </si>
-  <si>
-    <t>84,22%</t>
-  </si>
-  <si>
-    <t>81,55%</t>
-  </si>
-  <si>
-    <t>86,44%</t>
-  </si>
-  <si>
-    <t>76,68%</t>
-  </si>
-  <si>
-    <t>73,6%</t>
-  </si>
-  <si>
-    <t>79,42%</t>
-  </si>
-  <si>
-    <t>80,46%</t>
-  </si>
-  <si>
-    <t>78,51%</t>
-  </si>
-  <si>
-    <t>82,36%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>20,2%</t>
-  </si>
-  <si>
-    <t>17,15%</t>
-  </si>
-  <si>
-    <t>25,53%</t>
-  </si>
-  <si>
-    <t>22,3%</t>
-  </si>
-  <si>
-    <t>28,85%</t>
-  </si>
-  <si>
-    <t>22,87%</t>
-  </si>
-  <si>
-    <t>20,57%</t>
-  </si>
-  <si>
-    <t>25,18%</t>
-  </si>
-  <si>
-    <t>79,8%</t>
-  </si>
-  <si>
     <t>82,85%</t>
   </si>
   <si>
@@ -416,112 +365,58 @@
     <t>Población según si su médico le ha aconsejado que realice algún tipo de ejercicio físico en 2012 (Tasa respuesta: 97,06%)</t>
   </si>
   <si>
-    <t>21,28%</t>
-  </si>
-  <si>
-    <t>15,01%</t>
-  </si>
-  <si>
-    <t>29,34%</t>
-  </si>
-  <si>
-    <t>31,56%</t>
-  </si>
-  <si>
-    <t>22,8%</t>
-  </si>
-  <si>
-    <t>41,47%</t>
-  </si>
-  <si>
-    <t>26,23%</t>
-  </si>
-  <si>
-    <t>20,26%</t>
-  </si>
-  <si>
-    <t>33,06%</t>
-  </si>
-  <si>
-    <t>78,72%</t>
-  </si>
-  <si>
-    <t>70,66%</t>
-  </si>
-  <si>
-    <t>84,99%</t>
-  </si>
-  <si>
-    <t>68,44%</t>
-  </si>
-  <si>
-    <t>58,53%</t>
-  </si>
-  <si>
-    <t>77,2%</t>
-  </si>
-  <si>
-    <t>73,77%</t>
-  </si>
-  <si>
-    <t>66,94%</t>
-  </si>
-  <si>
-    <t>79,74%</t>
-  </si>
-  <si>
-    <t>24,89%</t>
-  </si>
-  <si>
-    <t>21,36%</t>
-  </si>
-  <si>
-    <t>28,8%</t>
-  </si>
-  <si>
-    <t>32,05%</t>
-  </si>
-  <si>
-    <t>28,07%</t>
-  </si>
-  <si>
-    <t>36,18%</t>
-  </si>
-  <si>
-    <t>28,44%</t>
-  </si>
-  <si>
-    <t>25,71%</t>
-  </si>
-  <si>
-    <t>31,24%</t>
-  </si>
-  <si>
-    <t>75,11%</t>
-  </si>
-  <si>
-    <t>71,2%</t>
-  </si>
-  <si>
-    <t>78,64%</t>
-  </si>
-  <si>
-    <t>67,95%</t>
-  </si>
-  <si>
-    <t>63,82%</t>
-  </si>
-  <si>
-    <t>71,93%</t>
-  </si>
-  <si>
-    <t>71,56%</t>
-  </si>
-  <si>
-    <t>68,76%</t>
-  </si>
-  <si>
-    <t>74,29%</t>
+    <t>24,29%</t>
+  </si>
+  <si>
+    <t>20,95%</t>
+  </si>
+  <si>
+    <t>27,81%</t>
+  </si>
+  <si>
+    <t>31,97%</t>
+  </si>
+  <si>
+    <t>28,4%</t>
+  </si>
+  <si>
+    <t>36,0%</t>
+  </si>
+  <si>
+    <t>28,08%</t>
+  </si>
+  <si>
+    <t>25,59%</t>
+  </si>
+  <si>
+    <t>30,46%</t>
+  </si>
+  <si>
+    <t>75,71%</t>
+  </si>
+  <si>
+    <t>72,19%</t>
+  </si>
+  <si>
+    <t>79,05%</t>
+  </si>
+  <si>
+    <t>68,03%</t>
+  </si>
+  <si>
+    <t>64,0%</t>
+  </si>
+  <si>
+    <t>71,6%</t>
+  </si>
+  <si>
+    <t>71,92%</t>
+  </si>
+  <si>
+    <t>69,54%</t>
+  </si>
+  <si>
+    <t>74,41%</t>
   </si>
   <si>
     <t>25,92%</t>
@@ -683,9 +578,6 @@
     <t>25,97%</t>
   </si>
   <si>
-    <t>24,29%</t>
-  </si>
-  <si>
     <t>27,43%</t>
   </si>
   <si>
@@ -713,9 +605,6 @@
     <t>72,57%</t>
   </si>
   <si>
-    <t>75,71%</t>
-  </si>
-  <si>
     <t>65,6%</t>
   </si>
   <si>
@@ -737,106 +626,58 @@
     <t>Población según si su médico le ha aconsejado que realice algún tipo de ejercicio físico en 2016 (Tasa respuesta: 98,54%)</t>
   </si>
   <si>
-    <t>20,06%</t>
-  </si>
-  <si>
-    <t>13,96%</t>
-  </si>
-  <si>
-    <t>29,08%</t>
-  </si>
-  <si>
-    <t>31,05%</t>
-  </si>
-  <si>
-    <t>22,39%</t>
-  </si>
-  <si>
-    <t>41,04%</t>
-  </si>
-  <si>
-    <t>25,5%</t>
-  </si>
-  <si>
-    <t>20,16%</t>
-  </si>
-  <si>
-    <t>31,5%</t>
-  </si>
-  <si>
-    <t>79,94%</t>
-  </si>
-  <si>
-    <t>70,92%</t>
-  </si>
-  <si>
-    <t>86,04%</t>
-  </si>
-  <si>
-    <t>68,95%</t>
-  </si>
-  <si>
-    <t>58,96%</t>
-  </si>
-  <si>
-    <t>77,61%</t>
-  </si>
-  <si>
-    <t>74,5%</t>
-  </si>
-  <si>
-    <t>68,5%</t>
-  </si>
-  <si>
-    <t>79,84%</t>
-  </si>
-  <si>
-    <t>22,32%</t>
-  </si>
-  <si>
-    <t>19,05%</t>
-  </si>
-  <si>
-    <t>26,5%</t>
-  </si>
-  <si>
-    <t>30,47%</t>
-  </si>
-  <si>
-    <t>26,43%</t>
-  </si>
-  <si>
-    <t>34,3%</t>
-  </si>
-  <si>
-    <t>26,41%</t>
-  </si>
-  <si>
-    <t>24,04%</t>
-  </si>
-  <si>
-    <t>77,68%</t>
-  </si>
-  <si>
-    <t>73,5%</t>
-  </si>
-  <si>
-    <t>80,95%</t>
-  </si>
-  <si>
-    <t>69,53%</t>
-  </si>
-  <si>
-    <t>65,7%</t>
-  </si>
-  <si>
-    <t>73,57%</t>
-  </si>
-  <si>
-    <t>73,59%</t>
-  </si>
-  <si>
-    <t>75,96%</t>
+    <t>21,93%</t>
+  </si>
+  <si>
+    <t>18,82%</t>
+  </si>
+  <si>
+    <t>25,4%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>27,06%</t>
+  </si>
+  <si>
+    <t>34,2%</t>
+  </si>
+  <si>
+    <t>26,26%</t>
+  </si>
+  <si>
+    <t>23,98%</t>
+  </si>
+  <si>
+    <t>28,68%</t>
+  </si>
+  <si>
+    <t>78,07%</t>
+  </si>
+  <si>
+    <t>74,6%</t>
+  </si>
+  <si>
+    <t>81,18%</t>
+  </si>
+  <si>
+    <t>69,43%</t>
+  </si>
+  <si>
+    <t>65,8%</t>
+  </si>
+  <si>
+    <t>72,94%</t>
+  </si>
+  <si>
+    <t>73,74%</t>
+  </si>
+  <si>
+    <t>71,32%</t>
+  </si>
+  <si>
+    <t>76,02%</t>
   </si>
   <si>
     <t>28,6%</t>
@@ -1058,274 +899,250 @@
     <t>Población según si su médico le ha aconsejado que realice algún tipo de ejercicio físico en 2023 (Tasa respuesta: 99,87%)</t>
   </si>
   <si>
-    <t>28,04%</t>
-  </si>
-  <si>
-    <t>30,92%</t>
-  </si>
-  <si>
-    <t>38,21%</t>
-  </si>
-  <si>
-    <t>29,66%</t>
-  </si>
-  <si>
-    <t>24,31%</t>
-  </si>
-  <si>
-    <t>34,8%</t>
-  </si>
-  <si>
-    <t>71,96%</t>
-  </si>
-  <si>
-    <t>69,08%</t>
-  </si>
-  <si>
-    <t>61,79%</t>
-  </si>
-  <si>
-    <t>70,34%</t>
-  </si>
-  <si>
-    <t>65,2%</t>
-  </si>
-  <si>
-    <t>75,69%</t>
-  </si>
-  <si>
-    <t>30,93%</t>
-  </si>
-  <si>
-    <t>39,49%</t>
-  </si>
-  <si>
-    <t>36,19%</t>
-  </si>
-  <si>
-    <t>33,19%</t>
-  </si>
-  <si>
-    <t>39,71%</t>
-  </si>
-  <si>
-    <t>35,59%</t>
-  </si>
-  <si>
-    <t>38,31%</t>
-  </si>
-  <si>
-    <t>60,51%</t>
-  </si>
-  <si>
-    <t>69,07%</t>
-  </si>
-  <si>
-    <t>63,81%</t>
-  </si>
-  <si>
-    <t>60,29%</t>
-  </si>
-  <si>
-    <t>66,81%</t>
-  </si>
-  <si>
-    <t>64,41%</t>
-  </si>
-  <si>
-    <t>61,69%</t>
-  </si>
-  <si>
-    <t>34,13%</t>
-  </si>
-  <si>
-    <t>28,59%</t>
-  </si>
-  <si>
-    <t>37,91%</t>
-  </si>
-  <si>
-    <t>41,96%</t>
-  </si>
-  <si>
-    <t>39,37%</t>
-  </si>
-  <si>
-    <t>45,04%</t>
-  </si>
-  <si>
-    <t>38,08%</t>
-  </si>
-  <si>
-    <t>40,67%</t>
-  </si>
-  <si>
-    <t>65,87%</t>
-  </si>
-  <si>
-    <t>62,09%</t>
-  </si>
-  <si>
-    <t>71,41%</t>
-  </si>
-  <si>
-    <t>58,04%</t>
-  </si>
-  <si>
-    <t>54,96%</t>
-  </si>
-  <si>
-    <t>60,63%</t>
-  </si>
-  <si>
-    <t>61,92%</t>
-  </si>
-  <si>
-    <t>59,33%</t>
-  </si>
-  <si>
-    <t>34,79%</t>
-  </si>
-  <si>
-    <t>30,72%</t>
-  </si>
-  <si>
-    <t>38,98%</t>
-  </si>
-  <si>
-    <t>32,24%</t>
-  </si>
-  <si>
-    <t>21,67%</t>
-  </si>
-  <si>
-    <t>37,85%</t>
-  </si>
-  <si>
-    <t>36,92%</t>
-  </si>
-  <si>
-    <t>65,21%</t>
-  </si>
-  <si>
-    <t>61,02%</t>
-  </si>
-  <si>
-    <t>69,28%</t>
-  </si>
-  <si>
-    <t>67,76%</t>
-  </si>
-  <si>
-    <t>62,15%</t>
-  </si>
-  <si>
-    <t>78,33%</t>
-  </si>
-  <si>
-    <t>63,08%</t>
-  </si>
-  <si>
-    <t>36,91%</t>
-  </si>
-  <si>
-    <t>33,65%</t>
-  </si>
-  <si>
-    <t>40,05%</t>
-  </si>
-  <si>
-    <t>38,41%</t>
-  </si>
-  <si>
-    <t>35,66%</t>
-  </si>
-  <si>
-    <t>41,22%</t>
-  </si>
-  <si>
-    <t>37,72%</t>
-  </si>
-  <si>
-    <t>35,47%</t>
-  </si>
-  <si>
-    <t>39,88%</t>
-  </si>
-  <si>
-    <t>63,09%</t>
-  </si>
-  <si>
-    <t>59,95%</t>
-  </si>
-  <si>
-    <t>66,35%</t>
-  </si>
-  <si>
-    <t>61,59%</t>
-  </si>
-  <si>
-    <t>58,78%</t>
-  </si>
-  <si>
-    <t>64,34%</t>
-  </si>
-  <si>
-    <t>62,28%</t>
-  </si>
-  <si>
-    <t>60,12%</t>
-  </si>
-  <si>
-    <t>64,53%</t>
-  </si>
-  <si>
-    <t>35,01%</t>
-  </si>
-  <si>
-    <t>37,09%</t>
-  </si>
-  <si>
-    <t>37,38%</t>
-  </si>
-  <si>
-    <t>33,59%</t>
-  </si>
-  <si>
-    <t>39,22%</t>
-  </si>
-  <si>
-    <t>36,26%</t>
-  </si>
-  <si>
-    <t>34,08%</t>
-  </si>
-  <si>
-    <t>37,66%</t>
-  </si>
-  <si>
-    <t>64,99%</t>
-  </si>
-  <si>
-    <t>62,91%</t>
-  </si>
-  <si>
-    <t>62,62%</t>
-  </si>
-  <si>
-    <t>60,78%</t>
-  </si>
-  <si>
-    <t>66,41%</t>
-  </si>
-  <si>
-    <t>63,74%</t>
-  </si>
-  <si>
-    <t>62,34%</t>
-  </si>
-  <si>
-    <t>65,92%</t>
+    <t>32,23%</t>
+  </si>
+  <si>
+    <t>28,65%</t>
+  </si>
+  <si>
+    <t>36,07%</t>
+  </si>
+  <si>
+    <t>34,26%</t>
+  </si>
+  <si>
+    <t>31,48%</t>
+  </si>
+  <si>
+    <t>37,22%</t>
+  </si>
+  <si>
+    <t>33,28%</t>
+  </si>
+  <si>
+    <t>30,89%</t>
+  </si>
+  <si>
+    <t>35,58%</t>
+  </si>
+  <si>
+    <t>67,77%</t>
+  </si>
+  <si>
+    <t>63,93%</t>
+  </si>
+  <si>
+    <t>71,35%</t>
+  </si>
+  <si>
+    <t>65,74%</t>
+  </si>
+  <si>
+    <t>62,78%</t>
+  </si>
+  <si>
+    <t>68,52%</t>
+  </si>
+  <si>
+    <t>66,72%</t>
+  </si>
+  <si>
+    <t>64,42%</t>
+  </si>
+  <si>
+    <t>69,11%</t>
+  </si>
+  <si>
+    <t>27,31%</t>
+  </si>
+  <si>
+    <t>15,15%</t>
+  </si>
+  <si>
+    <t>35,53%</t>
+  </si>
+  <si>
+    <t>41,0%</t>
+  </si>
+  <si>
+    <t>38,45%</t>
+  </si>
+  <si>
+    <t>44,02%</t>
+  </si>
+  <si>
+    <t>38,33%</t>
+  </si>
+  <si>
+    <t>72,69%</t>
+  </si>
+  <si>
+    <t>64,47%</t>
+  </si>
+  <si>
+    <t>84,85%</t>
+  </si>
+  <si>
+    <t>59,0%</t>
+  </si>
+  <si>
+    <t>55,98%</t>
+  </si>
+  <si>
+    <t>61,55%</t>
+  </si>
+  <si>
+    <t>61,67%</t>
+  </si>
+  <si>
+    <t>33,26%</t>
+  </si>
+  <si>
+    <t>29,12%</t>
+  </si>
+  <si>
+    <t>27,09%</t>
+  </si>
+  <si>
+    <t>14,8%</t>
+  </si>
+  <si>
+    <t>36,05%</t>
+  </si>
+  <si>
+    <t>29,75%</t>
+  </si>
+  <si>
+    <t>20,47%</t>
+  </si>
+  <si>
+    <t>35,04%</t>
+  </si>
+  <si>
+    <t>66,74%</t>
+  </si>
+  <si>
+    <t>70,88%</t>
+  </si>
+  <si>
+    <t>72,91%</t>
+  </si>
+  <si>
+    <t>63,95%</t>
+  </si>
+  <si>
+    <t>85,2%</t>
+  </si>
+  <si>
+    <t>70,25%</t>
+  </si>
+  <si>
+    <t>64,96%</t>
+  </si>
+  <si>
+    <t>79,53%</t>
+  </si>
+  <si>
+    <t>32,13%</t>
+  </si>
+  <si>
+    <t>38,38%</t>
+  </si>
+  <si>
+    <t>35,49%</t>
+  </si>
+  <si>
+    <t>28,34%</t>
+  </si>
+  <si>
+    <t>38,83%</t>
+  </si>
+  <si>
+    <t>35,38%</t>
+  </si>
+  <si>
+    <t>31,51%</t>
+  </si>
+  <si>
+    <t>37,79%</t>
+  </si>
+  <si>
+    <t>61,62%</t>
+  </si>
+  <si>
+    <t>67,87%</t>
+  </si>
+  <si>
+    <t>64,51%</t>
+  </si>
+  <si>
+    <t>61,17%</t>
+  </si>
+  <si>
+    <t>71,66%</t>
+  </si>
+  <si>
+    <t>64,62%</t>
+  </si>
+  <si>
+    <t>62,21%</t>
+  </si>
+  <si>
+    <t>68,49%</t>
+  </si>
+  <si>
+    <t>31,55%</t>
+  </si>
+  <si>
+    <t>24,24%</t>
+  </si>
+  <si>
+    <t>34,61%</t>
+  </si>
+  <si>
+    <t>34,56%</t>
+  </si>
+  <si>
+    <t>28,36%</t>
+  </si>
+  <si>
+    <t>37,57%</t>
+  </si>
+  <si>
+    <t>33,1%</t>
+  </si>
+  <si>
+    <t>27,88%</t>
+  </si>
+  <si>
+    <t>35,37%</t>
+  </si>
+  <si>
+    <t>68,45%</t>
+  </si>
+  <si>
+    <t>65,39%</t>
+  </si>
+  <si>
+    <t>75,76%</t>
+  </si>
+  <si>
+    <t>65,44%</t>
+  </si>
+  <si>
+    <t>62,43%</t>
+  </si>
+  <si>
+    <t>71,64%</t>
+  </si>
+  <si>
+    <t>66,9%</t>
+  </si>
+  <si>
+    <t>64,63%</t>
+  </si>
+  <si>
+    <t>72,12%</t>
   </si>
 </sst>
 </file>
@@ -1737,8 +1554,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C41ED768-E520-4BD2-879D-271FA441DA92}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2824DA6-A962-4E6D-A008-739DDF72999A}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1855,10 +1672,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>17</v>
+        <v>122</v>
       </c>
       <c r="D4" s="7">
-        <v>17541</v>
+        <v>119801</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1870,10 +1687,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>30</v>
+        <v>149</v>
       </c>
       <c r="I4" s="7">
-        <v>26365</v>
+        <v>146479</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1885,10 +1702,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>47</v>
+        <v>271</v>
       </c>
       <c r="N4" s="7">
-        <v>43906</v>
+        <v>266280</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1906,10 +1723,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>85</v>
+        <v>529</v>
       </c>
       <c r="D5" s="7">
-        <v>94710</v>
+        <v>541562</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1921,10 +1738,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>95</v>
+        <v>514</v>
       </c>
       <c r="I5" s="7">
-        <v>83862</v>
+        <v>507970</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1936,10 +1753,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>180</v>
+        <v>1043</v>
       </c>
       <c r="N5" s="7">
-        <v>178572</v>
+        <v>1049532</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1957,10 +1774,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>102</v>
+        <v>651</v>
       </c>
       <c r="D6" s="7">
-        <v>112251</v>
+        <v>661363</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1972,10 +1789,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>125</v>
+        <v>663</v>
       </c>
       <c r="I6" s="7">
-        <v>110227</v>
+        <v>654449</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1987,10 +1804,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>227</v>
+        <v>1314</v>
       </c>
       <c r="N6" s="7">
-        <v>222478</v>
+        <v>1315812</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -2010,10 +1827,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>105</v>
+        <v>142</v>
       </c>
       <c r="D7" s="7">
-        <v>102260</v>
+        <v>146236</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -2025,10 +1842,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>119</v>
+        <v>199</v>
       </c>
       <c r="I7" s="7">
-        <v>120114</v>
+        <v>215490</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -2040,10 +1857,10 @@
         <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>224</v>
+        <v>341</v>
       </c>
       <c r="N7" s="7">
-        <v>222374</v>
+        <v>361727</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -2061,10 +1878,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>444</v>
+        <v>723</v>
       </c>
       <c r="D8" s="7">
-        <v>446852</v>
+        <v>780457</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -2076,10 +1893,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>419</v>
+        <v>668</v>
       </c>
       <c r="I8" s="7">
-        <v>424108</v>
+        <v>708699</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -2091,10 +1908,10 @@
         <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>863</v>
+        <v>1391</v>
       </c>
       <c r="N8" s="7">
-        <v>870960</v>
+        <v>1489155</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -2112,10 +1929,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>549</v>
+        <v>865</v>
       </c>
       <c r="D9" s="7">
-        <v>549112</v>
+        <v>926693</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -2127,10 +1944,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>538</v>
+        <v>867</v>
       </c>
       <c r="I9" s="7">
-        <v>544222</v>
+        <v>924189</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -2142,10 +1959,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1087</v>
+        <v>1732</v>
       </c>
       <c r="N9" s="7">
-        <v>1093334</v>
+        <v>1850882</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -2165,10 +1982,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>142</v>
+        <v>123</v>
       </c>
       <c r="D10" s="7">
-        <v>146236</v>
+        <v>127794</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -2180,10 +1997,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>199</v>
+        <v>167</v>
       </c>
       <c r="I10" s="7">
-        <v>215490</v>
+        <v>161985</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -2195,10 +2012,10 @@
         <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>341</v>
+        <v>290</v>
       </c>
       <c r="N10" s="7">
-        <v>361727</v>
+        <v>289780</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -2216,10 +2033,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>723</v>
+        <v>473</v>
       </c>
       <c r="D11" s="7">
-        <v>780457</v>
+        <v>504815</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -2231,10 +2048,10 @@
         <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>668</v>
+        <v>479</v>
       </c>
       <c r="I11" s="7">
-        <v>708699</v>
+        <v>472491</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -2246,10 +2063,10 @@
         <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>1391</v>
+        <v>952</v>
       </c>
       <c r="N11" s="7">
-        <v>1489155</v>
+        <v>977305</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -2267,10 +2084,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>865</v>
+        <v>596</v>
       </c>
       <c r="D12" s="7">
-        <v>926693</v>
+        <v>632609</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -2282,10 +2099,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>867</v>
+        <v>646</v>
       </c>
       <c r="I12" s="7">
-        <v>924189</v>
+        <v>634476</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -2297,10 +2114,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1732</v>
+        <v>1242</v>
       </c>
       <c r="N12" s="7">
-        <v>1850882</v>
+        <v>1267085</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -2320,10 +2137,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>123</v>
+        <v>168</v>
       </c>
       <c r="D13" s="7">
-        <v>127794</v>
+        <v>153490</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>70</v>
@@ -2332,37 +2149,37 @@
         <v>71</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>14</v>
+        <v>72</v>
       </c>
       <c r="H13" s="7">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="I13" s="7">
-        <v>161985</v>
+        <v>167652</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M13" s="7">
-        <v>290</v>
+        <v>329</v>
       </c>
       <c r="N13" s="7">
-        <v>289780</v>
+        <v>321141</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2371,49 +2188,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>473</v>
+        <v>788</v>
       </c>
       <c r="D14" s="7">
-        <v>504815</v>
+        <v>753068</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>24</v>
+        <v>80</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H14" s="7">
-        <v>479</v>
+        <v>793</v>
       </c>
       <c r="I14" s="7">
-        <v>472491</v>
+        <v>827267</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M14" s="7">
-        <v>952</v>
+        <v>1581</v>
       </c>
       <c r="N14" s="7">
-        <v>977305</v>
+        <v>1580336</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2422,10 +2239,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>596</v>
+        <v>956</v>
       </c>
       <c r="D15" s="7">
-        <v>632609</v>
+        <v>906558</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -2437,10 +2254,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>646</v>
+        <v>954</v>
       </c>
       <c r="I15" s="7">
-        <v>634476</v>
+        <v>994919</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -2452,10 +2269,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1242</v>
+        <v>1910</v>
       </c>
       <c r="N15" s="7">
-        <v>1267085</v>
+        <v>1901477</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -2469,55 +2286,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>168</v>
+        <v>555</v>
       </c>
       <c r="D16" s="7">
-        <v>153490</v>
+        <v>547321</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H16" s="7">
-        <v>161</v>
+        <v>676</v>
       </c>
       <c r="I16" s="7">
-        <v>167652</v>
+        <v>691606</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M16" s="7">
-        <v>329</v>
+        <v>1231</v>
       </c>
       <c r="N16" s="7">
-        <v>321141</v>
+        <v>1238927</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2526,49 +2343,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>788</v>
+        <v>2513</v>
       </c>
       <c r="D17" s="7">
-        <v>753068</v>
+        <v>2579902</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H17" s="7">
-        <v>793</v>
+        <v>2454</v>
       </c>
       <c r="I17" s="7">
-        <v>827267</v>
+        <v>2516427</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M17" s="7">
-        <v>1581</v>
+        <v>4967</v>
       </c>
       <c r="N17" s="7">
-        <v>1580335</v>
+        <v>5096329</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2577,10 +2394,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>956</v>
+        <v>3068</v>
       </c>
       <c r="D18" s="7">
-        <v>906558</v>
+        <v>3127223</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -2592,10 +2409,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>954</v>
+        <v>3130</v>
       </c>
       <c r="I18" s="7">
-        <v>994919</v>
+        <v>3208033</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -2607,10 +2424,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1910</v>
+        <v>6198</v>
       </c>
       <c r="N18" s="7">
-        <v>1901476</v>
+        <v>6335256</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -2623,171 +2440,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>555</v>
-      </c>
-      <c r="D19" s="7">
-        <v>547321</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="F19" s="7" t="s">
+      <c r="A19" t="s">
         <v>106</v>
       </c>
-      <c r="G19" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="H19" s="7">
-        <v>676</v>
-      </c>
-      <c r="I19" s="7">
-        <v>691606</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="M19" s="7">
-        <v>1231</v>
-      </c>
-      <c r="N19" s="7">
-        <v>1238927</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>2513</v>
-      </c>
-      <c r="D20" s="7">
-        <v>2579902</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="H20" s="7">
-        <v>2454</v>
-      </c>
-      <c r="I20" s="7">
-        <v>2516427</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="M20" s="7">
-        <v>4967</v>
-      </c>
-      <c r="N20" s="7">
-        <v>5096329</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3068</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3127223</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>3130</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3208033</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>6198</v>
-      </c>
-      <c r="N21" s="7">
-        <v>6335256</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>123</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2800,8 +2461,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8745E6F1-4C6B-4FEB-A263-2FEEDAC349C9}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58E403F4-49E5-4835-9D25-E48754BEDADE}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2817,7 +2478,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2918,49 +2579,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>27</v>
+        <v>162</v>
       </c>
       <c r="D4" s="7">
-        <v>24637</v>
+        <v>168368</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="H4" s="7">
-        <v>31</v>
+        <v>201</v>
       </c>
       <c r="I4" s="7">
-        <v>33909</v>
+        <v>215890</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>129</v>
+        <v>112</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
       <c r="M4" s="7">
-        <v>58</v>
+        <v>363</v>
       </c>
       <c r="N4" s="7">
-        <v>58545</v>
+        <v>384259</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2969,49 +2630,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>95</v>
+        <v>502</v>
       </c>
       <c r="D5" s="7">
-        <v>91128</v>
+        <v>524769</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>134</v>
+        <v>117</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="H5" s="7">
-        <v>64</v>
+        <v>428</v>
       </c>
       <c r="I5" s="7">
-        <v>73524</v>
+        <v>459406</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="M5" s="7">
-        <v>159</v>
+        <v>930</v>
       </c>
       <c r="N5" s="7">
-        <v>164653</v>
+        <v>984174</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>141</v>
+        <v>124</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3020,10 +2681,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>122</v>
+        <v>664</v>
       </c>
       <c r="D6" s="7">
-        <v>115765</v>
+        <v>693137</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -3035,10 +2696,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>95</v>
+        <v>629</v>
       </c>
       <c r="I6" s="7">
-        <v>107433</v>
+        <v>675296</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3050,10 +2711,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>217</v>
+        <v>1293</v>
       </c>
       <c r="N6" s="7">
-        <v>223198</v>
+        <v>1368433</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -3073,49 +2734,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>135</v>
+        <v>232</v>
       </c>
       <c r="D7" s="7">
-        <v>143732</v>
+        <v>258312</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>144</v>
+        <v>127</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>145</v>
+        <v>128</v>
       </c>
       <c r="H7" s="7">
-        <v>170</v>
+        <v>316</v>
       </c>
       <c r="I7" s="7">
-        <v>181982</v>
+        <v>351483</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>146</v>
+        <v>129</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>147</v>
+        <v>130</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="M7" s="7">
-        <v>305</v>
+        <v>548</v>
       </c>
       <c r="N7" s="7">
-        <v>325714</v>
+        <v>609794</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3124,49 +2785,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>407</v>
+        <v>683</v>
       </c>
       <c r="D8" s="7">
-        <v>433640</v>
+        <v>738112</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>153</v>
+        <v>136</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
       <c r="H8" s="7">
-        <v>364</v>
+        <v>602</v>
       </c>
       <c r="I8" s="7">
-        <v>385881</v>
+        <v>656053</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>155</v>
+        <v>138</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="M8" s="7">
-        <v>771</v>
+        <v>1285</v>
       </c>
       <c r="N8" s="7">
-        <v>819521</v>
+        <v>1394166</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>159</v>
+        <v>142</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>160</v>
+        <v>143</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3175,10 +2836,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>542</v>
+        <v>915</v>
       </c>
       <c r="D9" s="7">
-        <v>577372</v>
+        <v>996424</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3190,10 +2851,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>534</v>
+        <v>918</v>
       </c>
       <c r="I9" s="7">
-        <v>567863</v>
+        <v>1007536</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3205,10 +2866,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1076</v>
+        <v>1833</v>
       </c>
       <c r="N9" s="7">
-        <v>1145235</v>
+        <v>2003960</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -3228,49 +2889,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>232</v>
+        <v>173</v>
       </c>
       <c r="D10" s="7">
-        <v>258312</v>
+        <v>196270</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>161</v>
+        <v>144</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>162</v>
+        <v>145</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>163</v>
+        <v>146</v>
       </c>
       <c r="H10" s="7">
-        <v>316</v>
+        <v>244</v>
       </c>
       <c r="I10" s="7">
-        <v>351483</v>
+        <v>267450</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>164</v>
+        <v>147</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>165</v>
+        <v>148</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>166</v>
+        <v>149</v>
       </c>
       <c r="M10" s="7">
-        <v>548</v>
+        <v>417</v>
       </c>
       <c r="N10" s="7">
-        <v>609794</v>
+        <v>463720</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>167</v>
+        <v>150</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>168</v>
+        <v>151</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>169</v>
+        <v>152</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3279,49 +2940,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>683</v>
+        <v>502</v>
       </c>
       <c r="D11" s="7">
-        <v>738112</v>
+        <v>546133</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>170</v>
+        <v>153</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>172</v>
+        <v>155</v>
       </c>
       <c r="H11" s="7">
-        <v>602</v>
+        <v>446</v>
       </c>
       <c r="I11" s="7">
-        <v>656053</v>
+        <v>493080</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>173</v>
+        <v>156</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="M11" s="7">
-        <v>1285</v>
+        <v>948</v>
       </c>
       <c r="N11" s="7">
-        <v>1394166</v>
+        <v>1039213</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>178</v>
+        <v>161</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3330,10 +2991,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>915</v>
+        <v>675</v>
       </c>
       <c r="D12" s="7">
-        <v>996424</v>
+        <v>742403</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -3345,10 +3006,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>918</v>
+        <v>690</v>
       </c>
       <c r="I12" s="7">
-        <v>1007536</v>
+        <v>760530</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -3360,10 +3021,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1833</v>
+        <v>1365</v>
       </c>
       <c r="N12" s="7">
-        <v>2003960</v>
+        <v>1502933</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -3383,49 +3044,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>173</v>
+        <v>222</v>
       </c>
       <c r="D13" s="7">
-        <v>196269</v>
+        <v>241084</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>180</v>
+        <v>163</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>181</v>
+        <v>164</v>
       </c>
       <c r="H13" s="7">
-        <v>244</v>
+        <v>330</v>
       </c>
       <c r="I13" s="7">
-        <v>267450</v>
+        <v>352565</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>182</v>
+        <v>165</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>183</v>
+        <v>166</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
       <c r="M13" s="7">
-        <v>417</v>
+        <v>552</v>
       </c>
       <c r="N13" s="7">
-        <v>463720</v>
+        <v>593649</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>185</v>
+        <v>168</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>186</v>
+        <v>128</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>187</v>
+        <v>169</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3434,49 +3095,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>502</v>
+        <v>642</v>
       </c>
       <c r="D14" s="7">
-        <v>546133</v>
+        <v>654486</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>188</v>
+        <v>170</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>189</v>
+        <v>171</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>190</v>
+        <v>172</v>
       </c>
       <c r="H14" s="7">
-        <v>446</v>
+        <v>631</v>
       </c>
       <c r="I14" s="7">
-        <v>493080</v>
+        <v>656188</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>191</v>
+        <v>173</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>192</v>
+        <v>174</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>193</v>
+        <v>175</v>
       </c>
       <c r="M14" s="7">
-        <v>948</v>
+        <v>1273</v>
       </c>
       <c r="N14" s="7">
-        <v>1039213</v>
+        <v>1310673</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>194</v>
+        <v>176</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>195</v>
+        <v>177</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>196</v>
+        <v>136</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3485,10 +3146,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>675</v>
+        <v>864</v>
       </c>
       <c r="D15" s="7">
-        <v>742402</v>
+        <v>895570</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -3500,10 +3161,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>690</v>
+        <v>961</v>
       </c>
       <c r="I15" s="7">
-        <v>760530</v>
+        <v>1008753</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -3515,10 +3176,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1365</v>
+        <v>1825</v>
       </c>
       <c r="N15" s="7">
-        <v>1502933</v>
+        <v>1904322</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -3532,55 +3193,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>222</v>
+        <v>789</v>
       </c>
       <c r="D16" s="7">
-        <v>241084</v>
+        <v>864034</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>197</v>
+        <v>178</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>198</v>
+        <v>108</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>199</v>
+        <v>179</v>
       </c>
       <c r="H16" s="7">
-        <v>330</v>
+        <v>1091</v>
       </c>
       <c r="I16" s="7">
-        <v>352565</v>
+        <v>1187387</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>201</v>
+        <v>181</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>202</v>
+        <v>182</v>
       </c>
       <c r="M16" s="7">
-        <v>552</v>
+        <v>1880</v>
       </c>
       <c r="N16" s="7">
-        <v>593649</v>
+        <v>2051421</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>203</v>
+        <v>183</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>163</v>
+        <v>184</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>204</v>
+        <v>185</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3589,49 +3250,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>642</v>
+        <v>2329</v>
       </c>
       <c r="D17" s="7">
-        <v>654486</v>
+        <v>2463500</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>205</v>
+        <v>186</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>206</v>
+        <v>187</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>207</v>
+        <v>117</v>
       </c>
       <c r="H17" s="7">
-        <v>631</v>
+        <v>2107</v>
       </c>
       <c r="I17" s="7">
-        <v>656188</v>
+        <v>2264727</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>208</v>
+        <v>188</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>209</v>
+        <v>189</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>210</v>
+        <v>190</v>
       </c>
       <c r="M17" s="7">
-        <v>1273</v>
+        <v>4436</v>
       </c>
       <c r="N17" s="7">
-        <v>1310673</v>
+        <v>4728227</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>211</v>
+        <v>191</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>212</v>
+        <v>192</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>171</v>
+        <v>193</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3640,10 +3301,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>864</v>
+        <v>3118</v>
       </c>
       <c r="D18" s="7">
-        <v>895570</v>
+        <v>3327534</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -3655,10 +3316,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>961</v>
+        <v>3198</v>
       </c>
       <c r="I18" s="7">
-        <v>1008753</v>
+        <v>3452114</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -3670,10 +3331,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1825</v>
+        <v>6316</v>
       </c>
       <c r="N18" s="7">
-        <v>1904322</v>
+        <v>6779648</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -3686,171 +3347,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>789</v>
-      </c>
-      <c r="D19" s="7">
-        <v>864034</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="H19" s="7">
-        <v>1091</v>
-      </c>
-      <c r="I19" s="7">
-        <v>1187387</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="M19" s="7">
-        <v>1880</v>
-      </c>
-      <c r="N19" s="7">
-        <v>2051421</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>2329</v>
-      </c>
-      <c r="D20" s="7">
-        <v>2463500</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="H20" s="7">
-        <v>2107</v>
-      </c>
-      <c r="I20" s="7">
-        <v>2264727</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="M20" s="7">
-        <v>4436</v>
-      </c>
-      <c r="N20" s="7">
-        <v>4728227</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3118</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3327534</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>3198</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3452114</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>6316</v>
-      </c>
-      <c r="N21" s="7">
-        <v>6779648</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>123</v>
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3863,8 +3368,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66EED492-AF26-4A01-BFF3-BA508ADD36B1}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CBDBFB0-74F5-4AD4-9B72-DC75F7065961}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3880,7 +3385,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>231</v>
+        <v>194</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3981,49 +3486,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>23</v>
+        <v>141</v>
       </c>
       <c r="D4" s="7">
-        <v>23033</v>
+        <v>145932</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>232</v>
+        <v>195</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>233</v>
+        <v>196</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>234</v>
+        <v>197</v>
       </c>
       <c r="H4" s="7">
-        <v>34</v>
+        <v>199</v>
       </c>
       <c r="I4" s="7">
-        <v>34896</v>
+        <v>204365</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>235</v>
+        <v>198</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>236</v>
+        <v>199</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>237</v>
+        <v>200</v>
       </c>
       <c r="M4" s="7">
-        <v>57</v>
+        <v>340</v>
       </c>
       <c r="N4" s="7">
-        <v>57929</v>
+        <v>350298</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>238</v>
+        <v>201</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>239</v>
+        <v>202</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>240</v>
+        <v>203</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4032,49 +3537,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>89</v>
+        <v>502</v>
       </c>
       <c r="D5" s="7">
-        <v>91758</v>
+        <v>519604</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>241</v>
+        <v>204</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>242</v>
+        <v>205</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>243</v>
+        <v>206</v>
       </c>
       <c r="H5" s="7">
-        <v>80</v>
+        <v>463</v>
       </c>
       <c r="I5" s="7">
-        <v>77502</v>
+        <v>464184</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>244</v>
+        <v>207</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>245</v>
+        <v>208</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>246</v>
+        <v>209</v>
       </c>
       <c r="M5" s="7">
-        <v>169</v>
+        <v>965</v>
       </c>
       <c r="N5" s="7">
-        <v>169260</v>
+        <v>983788</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>247</v>
+        <v>210</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>248</v>
+        <v>211</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>249</v>
+        <v>212</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4083,10 +3588,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>112</v>
+        <v>643</v>
       </c>
       <c r="D6" s="7">
-        <v>114791</v>
+        <v>665536</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -4098,10 +3603,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>114</v>
+        <v>662</v>
       </c>
       <c r="I6" s="7">
-        <v>112398</v>
+        <v>668549</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -4113,10 +3618,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>226</v>
+        <v>1305</v>
       </c>
       <c r="N6" s="7">
-        <v>227189</v>
+        <v>1334086</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -4136,49 +3641,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>118</v>
+        <v>276</v>
       </c>
       <c r="D7" s="7">
-        <v>122900</v>
+        <v>289731</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>250</v>
+        <v>213</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>251</v>
+        <v>214</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>252</v>
+        <v>215</v>
       </c>
       <c r="H7" s="7">
-        <v>165</v>
+        <v>354</v>
       </c>
       <c r="I7" s="7">
-        <v>169469</v>
+        <v>385370</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>253</v>
+        <v>216</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>254</v>
+        <v>217</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>255</v>
+        <v>218</v>
       </c>
       <c r="M7" s="7">
-        <v>283</v>
+        <v>630</v>
       </c>
       <c r="N7" s="7">
-        <v>292368</v>
+        <v>675101</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>256</v>
+        <v>219</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>257</v>
+        <v>220</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>127</v>
+        <v>221</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4187,49 +3692,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>413</v>
+        <v>666</v>
       </c>
       <c r="D8" s="7">
-        <v>427845</v>
+        <v>723224</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>258</v>
+        <v>222</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>259</v>
+        <v>223</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>260</v>
+        <v>224</v>
       </c>
       <c r="H8" s="7">
-        <v>383</v>
+        <v>608</v>
       </c>
       <c r="I8" s="7">
-        <v>386682</v>
+        <v>641589</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>261</v>
+        <v>225</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>262</v>
+        <v>226</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>263</v>
+        <v>227</v>
       </c>
       <c r="M8" s="7">
-        <v>796</v>
+        <v>1274</v>
       </c>
       <c r="N8" s="7">
-        <v>814528</v>
+        <v>1364813</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>264</v>
+        <v>228</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>135</v>
+        <v>229</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>265</v>
+        <v>230</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4238,10 +3743,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>531</v>
+        <v>942</v>
       </c>
       <c r="D9" s="7">
-        <v>550745</v>
+        <v>1012955</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -4253,10 +3758,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>548</v>
+        <v>962</v>
       </c>
       <c r="I9" s="7">
-        <v>556151</v>
+        <v>1026959</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -4268,10 +3773,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1079</v>
+        <v>1904</v>
       </c>
       <c r="N9" s="7">
-        <v>1106896</v>
+        <v>2039914</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -4291,49 +3796,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>276</v>
+        <v>226</v>
       </c>
       <c r="D10" s="7">
-        <v>289731</v>
+        <v>244878</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>266</v>
+        <v>231</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>267</v>
+        <v>232</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>268</v>
+        <v>233</v>
       </c>
       <c r="H10" s="7">
-        <v>354</v>
+        <v>264</v>
       </c>
       <c r="I10" s="7">
-        <v>385370</v>
+        <v>288706</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>269</v>
+        <v>234</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>270</v>
+        <v>235</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>271</v>
+        <v>236</v>
       </c>
       <c r="M10" s="7">
-        <v>630</v>
+        <v>490</v>
       </c>
       <c r="N10" s="7">
-        <v>675101</v>
+        <v>533584</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>272</v>
+        <v>237</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>273</v>
+        <v>238</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>274</v>
+        <v>239</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4342,49 +3847,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>666</v>
+        <v>466</v>
       </c>
       <c r="D11" s="7">
-        <v>723224</v>
+        <v>509274</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>275</v>
+        <v>240</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>276</v>
+        <v>241</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>277</v>
+        <v>242</v>
       </c>
       <c r="H11" s="7">
-        <v>608</v>
+        <v>459</v>
       </c>
       <c r="I11" s="7">
-        <v>641589</v>
+        <v>482139</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>278</v>
+        <v>243</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>279</v>
+        <v>244</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>280</v>
+        <v>245</v>
       </c>
       <c r="M11" s="7">
-        <v>1274</v>
+        <v>925</v>
       </c>
       <c r="N11" s="7">
-        <v>1364813</v>
+        <v>991414</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>281</v>
+        <v>246</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>282</v>
+        <v>247</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>283</v>
+        <v>248</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4393,10 +3898,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>942</v>
+        <v>692</v>
       </c>
       <c r="D12" s="7">
-        <v>1012955</v>
+        <v>754152</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -4408,10 +3913,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>962</v>
+        <v>723</v>
       </c>
       <c r="I12" s="7">
-        <v>1026959</v>
+        <v>770845</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4423,10 +3928,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1904</v>
+        <v>1415</v>
       </c>
       <c r="N12" s="7">
-        <v>2039914</v>
+        <v>1524998</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -4446,49 +3951,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>226</v>
+        <v>244</v>
       </c>
       <c r="D13" s="7">
-        <v>244878</v>
+        <v>250915</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>284</v>
+        <v>249</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>285</v>
+        <v>250</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>286</v>
+        <v>251</v>
       </c>
       <c r="H13" s="7">
-        <v>264</v>
+        <v>306</v>
       </c>
       <c r="I13" s="7">
-        <v>288706</v>
+        <v>339471</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>287</v>
+        <v>252</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>288</v>
+        <v>253</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>289</v>
+        <v>254</v>
       </c>
       <c r="M13" s="7">
-        <v>490</v>
+        <v>550</v>
       </c>
       <c r="N13" s="7">
-        <v>533584</v>
+        <v>590385</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>290</v>
+        <v>255</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>291</v>
+        <v>256</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>292</v>
+        <v>257</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4497,49 +4002,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>466</v>
+        <v>658</v>
       </c>
       <c r="D14" s="7">
-        <v>509274</v>
+        <v>655962</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>293</v>
+        <v>258</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>294</v>
+        <v>259</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>295</v>
+        <v>260</v>
       </c>
       <c r="H14" s="7">
-        <v>459</v>
+        <v>641</v>
       </c>
       <c r="I14" s="7">
-        <v>482139</v>
+        <v>690125</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>296</v>
+        <v>261</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>297</v>
+        <v>262</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>298</v>
+        <v>263</v>
       </c>
       <c r="M14" s="7">
-        <v>925</v>
+        <v>1299</v>
       </c>
       <c r="N14" s="7">
-        <v>991414</v>
+        <v>1346087</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>299</v>
+        <v>264</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>300</v>
+        <v>265</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>301</v>
+        <v>266</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4548,10 +4053,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>692</v>
+        <v>902</v>
       </c>
       <c r="D15" s="7">
-        <v>754152</v>
+        <v>906877</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4563,10 +4068,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>723</v>
+        <v>947</v>
       </c>
       <c r="I15" s="7">
-        <v>770845</v>
+        <v>1029596</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4578,10 +4083,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1415</v>
+        <v>1849</v>
       </c>
       <c r="N15" s="7">
-        <v>1524998</v>
+        <v>1936472</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -4595,55 +4100,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>244</v>
+        <v>887</v>
       </c>
       <c r="D16" s="7">
-        <v>250915</v>
+        <v>931456</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>302</v>
+        <v>267</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>303</v>
+        <v>268</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>304</v>
+        <v>269</v>
       </c>
       <c r="H16" s="7">
-        <v>306</v>
+        <v>1123</v>
       </c>
       <c r="I16" s="7">
-        <v>339471</v>
+        <v>1217911</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>305</v>
+        <v>270</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>306</v>
+        <v>271</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>307</v>
+        <v>272</v>
       </c>
       <c r="M16" s="7">
-        <v>550</v>
+        <v>2010</v>
       </c>
       <c r="N16" s="7">
-        <v>590385</v>
+        <v>2149368</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>308</v>
+        <v>273</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>309</v>
+        <v>274</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>310</v>
+        <v>275</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4652,49 +4157,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>658</v>
+        <v>2292</v>
       </c>
       <c r="D17" s="7">
-        <v>655962</v>
+        <v>2408064</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>311</v>
+        <v>276</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>312</v>
+        <v>277</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>313</v>
+        <v>278</v>
       </c>
       <c r="H17" s="7">
-        <v>641</v>
+        <v>2171</v>
       </c>
       <c r="I17" s="7">
-        <v>690125</v>
+        <v>2278038</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>314</v>
+        <v>279</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>315</v>
+        <v>280</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>316</v>
+        <v>281</v>
       </c>
       <c r="M17" s="7">
-        <v>1299</v>
+        <v>4463</v>
       </c>
       <c r="N17" s="7">
-        <v>1346087</v>
+        <v>4686101</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>317</v>
+        <v>282</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>318</v>
+        <v>283</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>319</v>
+        <v>284</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4703,10 +4208,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>902</v>
+        <v>3179</v>
       </c>
       <c r="D18" s="7">
-        <v>906877</v>
+        <v>3339520</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -4718,10 +4223,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>947</v>
+        <v>3294</v>
       </c>
       <c r="I18" s="7">
-        <v>1029596</v>
+        <v>3495949</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -4733,10 +4238,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1849</v>
+        <v>6473</v>
       </c>
       <c r="N18" s="7">
-        <v>1936472</v>
+        <v>6835469</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -4749,171 +4254,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>887</v>
-      </c>
-      <c r="D19" s="7">
-        <v>931456</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="H19" s="7">
-        <v>1123</v>
-      </c>
-      <c r="I19" s="7">
-        <v>1217911</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="M19" s="7">
-        <v>2010</v>
-      </c>
-      <c r="N19" s="7">
-        <v>2149368</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>2292</v>
-      </c>
-      <c r="D20" s="7">
-        <v>2408064</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>329</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>331</v>
-      </c>
-      <c r="H20" s="7">
-        <v>2171</v>
-      </c>
-      <c r="I20" s="7">
-        <v>2278038</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>332</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>334</v>
-      </c>
-      <c r="M20" s="7">
-        <v>4463</v>
-      </c>
-      <c r="N20" s="7">
-        <v>4686101</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>335</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>336</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3179</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3339520</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>3294</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3495949</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>6473</v>
-      </c>
-      <c r="N21" s="7">
-        <v>6835469</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>123</v>
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4926,8 +4275,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B0F2E0D-1EBD-4EE0-BC06-170F8BEE6BD8}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCE06BE3-77D4-4AC4-A552-B6190DE8559A}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4943,7 +4292,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>338</v>
+        <v>285</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5044,49 +4393,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>39</v>
+        <v>263</v>
       </c>
       <c r="D4" s="7">
-        <v>28600</v>
+        <v>204817</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>339</v>
+        <v>286</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>89</v>
+        <v>287</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>269</v>
+        <v>288</v>
       </c>
       <c r="H4" s="7">
-        <v>81</v>
+        <v>442</v>
       </c>
       <c r="I4" s="7">
-        <v>40421</v>
+        <v>231123</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>340</v>
+        <v>289</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>77</v>
+        <v>290</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>341</v>
+        <v>291</v>
       </c>
       <c r="M4" s="7">
-        <v>120</v>
+        <v>705</v>
       </c>
       <c r="N4" s="7">
-        <v>69021</v>
+        <v>435941</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>342</v>
+        <v>292</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>343</v>
+        <v>293</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>344</v>
+        <v>294</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5095,49 +4444,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>79</v>
+        <v>467</v>
       </c>
       <c r="D5" s="7">
-        <v>73382</v>
+        <v>430624</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>345</v>
+        <v>295</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>278</v>
+        <v>296</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>97</v>
+        <v>297</v>
       </c>
       <c r="H5" s="7">
-        <v>162</v>
+        <v>794</v>
       </c>
       <c r="I5" s="7">
-        <v>90312</v>
+        <v>443495</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>346</v>
+        <v>298</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>347</v>
+        <v>299</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>84</v>
+        <v>300</v>
       </c>
       <c r="M5" s="7">
-        <v>241</v>
+        <v>1261</v>
       </c>
       <c r="N5" s="7">
-        <v>163694</v>
+        <v>874119</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>348</v>
+        <v>301</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>349</v>
+        <v>302</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>350</v>
+        <v>303</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5146,10 +4495,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>118</v>
+        <v>730</v>
       </c>
       <c r="D6" s="7">
-        <v>101982</v>
+        <v>635441</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -5161,10 +4510,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>243</v>
+        <v>1236</v>
       </c>
       <c r="I6" s="7">
-        <v>130733</v>
+        <v>674618</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -5176,10 +4525,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>361</v>
+        <v>1966</v>
       </c>
       <c r="N6" s="7">
-        <v>232715</v>
+        <v>1310060</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -5199,49 +4548,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>224</v>
+        <v>361</v>
       </c>
       <c r="D7" s="7">
-        <v>192150</v>
+        <v>325731</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>200</v>
+        <v>304</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>351</v>
+        <v>305</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>352</v>
+        <v>306</v>
       </c>
       <c r="H7" s="7">
-        <v>361</v>
+        <v>628</v>
       </c>
       <c r="I7" s="7">
-        <v>214180</v>
+        <v>392567</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>353</v>
+        <v>307</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>354</v>
+        <v>308</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>355</v>
+        <v>309</v>
       </c>
       <c r="M7" s="7">
-        <v>585</v>
+        <v>989</v>
       </c>
       <c r="N7" s="7">
-        <v>406330</v>
+        <v>718298</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>356</v>
+        <v>152</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>354</v>
+        <v>55</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>357</v>
+        <v>310</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5250,49 +4599,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>388</v>
+        <v>603</v>
       </c>
       <c r="D8" s="7">
-        <v>357673</v>
+        <v>867133</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>208</v>
+        <v>311</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>358</v>
+        <v>312</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>359</v>
+        <v>313</v>
       </c>
       <c r="H8" s="7">
-        <v>632</v>
+        <v>887</v>
       </c>
       <c r="I8" s="7">
-        <v>377564</v>
+        <v>564997</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>360</v>
+        <v>314</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>361</v>
+        <v>315</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>362</v>
+        <v>316</v>
       </c>
       <c r="M8" s="7">
-        <v>1020</v>
+        <v>1490</v>
       </c>
       <c r="N8" s="7">
-        <v>735236</v>
+        <v>1432130</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>363</v>
+        <v>160</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>364</v>
+        <v>317</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>362</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5301,10 +4650,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>612</v>
+        <v>964</v>
       </c>
       <c r="D9" s="7">
-        <v>549823</v>
+        <v>1192864</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -5316,10 +4665,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>993</v>
+        <v>1515</v>
       </c>
       <c r="I9" s="7">
-        <v>591744</v>
+        <v>957564</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -5331,10 +4680,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1605</v>
+        <v>2479</v>
       </c>
       <c r="N9" s="7">
-        <v>1141566</v>
+        <v>2150428</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -5354,49 +4703,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>361</v>
+        <v>246</v>
       </c>
       <c r="D10" s="7">
-        <v>354692</v>
+        <v>234359</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>365</v>
+        <v>318</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>366</v>
+        <v>319</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>367</v>
+        <v>216</v>
       </c>
       <c r="H10" s="7">
-        <v>628</v>
+        <v>387</v>
       </c>
       <c r="I10" s="7">
-        <v>444288</v>
+        <v>252674</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>368</v>
+        <v>320</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>369</v>
+        <v>321</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>370</v>
+        <v>322</v>
       </c>
       <c r="M10" s="7">
-        <v>989</v>
+        <v>633</v>
       </c>
       <c r="N10" s="7">
-        <v>798981</v>
+        <v>487033</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>371</v>
+        <v>323</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>372</v>
+        <v>325</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5405,49 +4754,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>603</v>
+        <v>430</v>
       </c>
       <c r="D11" s="7">
-        <v>684556</v>
+        <v>470321</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>373</v>
+        <v>326</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>374</v>
+        <v>225</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>375</v>
+        <v>327</v>
       </c>
       <c r="H11" s="7">
-        <v>887</v>
+        <v>659</v>
       </c>
       <c r="I11" s="7">
-        <v>614556</v>
+        <v>679961</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>376</v>
+        <v>328</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>377</v>
+        <v>329</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>378</v>
+        <v>330</v>
       </c>
       <c r="M11" s="7">
-        <v>1490</v>
+        <v>1089</v>
       </c>
       <c r="N11" s="7">
-        <v>1299111</v>
+        <v>1150283</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>379</v>
+        <v>331</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>380</v>
+        <v>332</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5456,10 +4805,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>964</v>
+        <v>676</v>
       </c>
       <c r="D12" s="7">
-        <v>1039248</v>
+        <v>704680</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -5471,10 +4820,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>1515</v>
+        <v>1046</v>
       </c>
       <c r="I12" s="7">
-        <v>1058844</v>
+        <v>932635</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -5486,10 +4835,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>2479</v>
+        <v>1722</v>
       </c>
       <c r="N12" s="7">
-        <v>2098092</v>
+        <v>1637316</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -5509,49 +4858,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>246</v>
+        <v>416</v>
       </c>
       <c r="D13" s="7">
-        <v>253540</v>
+        <v>326756</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>381</v>
+        <v>221</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>382</v>
+        <v>334</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>383</v>
+        <v>335</v>
       </c>
       <c r="H13" s="7">
-        <v>387</v>
+        <v>617</v>
       </c>
       <c r="I13" s="7">
-        <v>281637</v>
+        <v>387269</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>384</v>
+        <v>336</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>385</v>
+        <v>337</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>386</v>
+        <v>338</v>
       </c>
       <c r="M13" s="7">
-        <v>633</v>
+        <v>1033</v>
       </c>
       <c r="N13" s="7">
-        <v>535177</v>
+        <v>714025</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>187</v>
+        <v>339</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>256</v>
+        <v>340</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>387</v>
+        <v>341</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5560,49 +4909,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>430</v>
+        <v>590</v>
       </c>
       <c r="D14" s="7">
-        <v>475232</v>
+        <v>600075</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>388</v>
+        <v>229</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>389</v>
+        <v>342</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>390</v>
+        <v>343</v>
       </c>
       <c r="H14" s="7">
-        <v>659</v>
+        <v>942</v>
       </c>
       <c r="I14" s="7">
-        <v>591945</v>
+        <v>704032</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>391</v>
+        <v>344</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>392</v>
+        <v>345</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>393</v>
+        <v>346</v>
       </c>
       <c r="M14" s="7">
-        <v>1089</v>
+        <v>1532</v>
       </c>
       <c r="N14" s="7">
-        <v>1067177</v>
+        <v>1304108</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>195</v>
+        <v>347</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>394</v>
+        <v>348</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>264</v>
+        <v>349</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5611,10 +4960,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>676</v>
+        <v>1006</v>
       </c>
       <c r="D15" s="7">
-        <v>728772</v>
+        <v>926831</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -5626,10 +4975,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>1046</v>
+        <v>1559</v>
       </c>
       <c r="I15" s="7">
-        <v>873582</v>
+        <v>1091301</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -5641,10 +4990,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1722</v>
+        <v>2565</v>
       </c>
       <c r="N15" s="7">
-        <v>1602354</v>
+        <v>2018133</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -5658,55 +5007,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>416</v>
+        <v>1286</v>
       </c>
       <c r="D16" s="7">
-        <v>356302</v>
+        <v>1091663</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>395</v>
+        <v>350</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>396</v>
+        <v>351</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>397</v>
+        <v>352</v>
       </c>
       <c r="H16" s="7">
-        <v>617</v>
+        <v>2074</v>
       </c>
       <c r="I16" s="7">
-        <v>440290</v>
+        <v>1263634</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>398</v>
+        <v>353</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>399</v>
+        <v>354</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>400</v>
+        <v>355</v>
       </c>
       <c r="M16" s="7">
-        <v>1033</v>
+        <v>3360</v>
       </c>
       <c r="N16" s="7">
-        <v>796593</v>
+        <v>2355296</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>401</v>
+        <v>356</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>402</v>
+        <v>357</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>403</v>
+        <v>358</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5715,49 +5064,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>590</v>
+        <v>2090</v>
       </c>
       <c r="D17" s="7">
-        <v>609101</v>
+        <v>2368154</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>404</v>
+        <v>359</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>405</v>
+        <v>360</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>406</v>
+        <v>361</v>
       </c>
       <c r="H17" s="7">
-        <v>942</v>
+        <v>3282</v>
       </c>
       <c r="I17" s="7">
-        <v>705986</v>
+        <v>2392485</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>407</v>
+        <v>362</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>408</v>
+        <v>363</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>409</v>
+        <v>364</v>
       </c>
       <c r="M17" s="7">
-        <v>1532</v>
+        <v>5372</v>
       </c>
       <c r="N17" s="7">
-        <v>1315087</v>
+        <v>4760640</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>410</v>
+        <v>365</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>411</v>
+        <v>366</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>412</v>
+        <v>367</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5766,10 +5115,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>1006</v>
+        <v>3376</v>
       </c>
       <c r="D18" s="7">
-        <v>965403</v>
+        <v>3459817</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -5781,10 +5130,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>1559</v>
+        <v>5356</v>
       </c>
       <c r="I18" s="7">
-        <v>1146276</v>
+        <v>3656119</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -5796,10 +5145,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>2565</v>
+        <v>8732</v>
       </c>
       <c r="N18" s="7">
-        <v>2111680</v>
+        <v>7115936</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -5812,171 +5161,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>1286</v>
-      </c>
-      <c r="D19" s="7">
-        <v>1185285</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>413</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>414</v>
-      </c>
-      <c r="H19" s="7">
-        <v>2074</v>
-      </c>
-      <c r="I19" s="7">
-        <v>1420816</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>415</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>416</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>417</v>
-      </c>
-      <c r="M19" s="7">
-        <v>3360</v>
-      </c>
-      <c r="N19" s="7">
-        <v>2606102</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>418</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>419</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>2090</v>
-      </c>
-      <c r="D20" s="7">
-        <v>2199943</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>421</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>422</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="H20" s="7">
-        <v>3282</v>
-      </c>
-      <c r="I20" s="7">
-        <v>2380362</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>423</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>424</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>425</v>
-      </c>
-      <c r="M20" s="7">
-        <v>5372</v>
-      </c>
-      <c r="N20" s="7">
-        <v>4580305</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>426</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>427</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3376</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3385228</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>5356</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3801178</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>8732</v>
-      </c>
-      <c r="N21" s="7">
-        <v>7186407</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>123</v>
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
